--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L639"/>
+  <dimension ref="A1:L648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24734,6 +24734,382 @@
         </is>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:19+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>338.6818181818182</v>
+      </c>
+      <c r="C640" t="n">
+        <v>339.8866666666667</v>
+      </c>
+      <c r="D640" t="n">
+        <v>347.0166666666667</v>
+      </c>
+      <c r="E640" t="n">
+        <v>349.7814285714285</v>
+      </c>
+      <c r="F640" t="n">
+        <v>348.7535294117647</v>
+      </c>
+      <c r="G640" t="n">
+        <v>351.84</v>
+      </c>
+      <c r="H640" t="n">
+        <v>354.5988888888889</v>
+      </c>
+      <c r="I640" t="n">
+        <v>357.33</v>
+      </c>
+      <c r="J640" t="n">
+        <v>355.5235294117647</v>
+      </c>
+      <c r="K640" t="n">
+        <v>350.1</v>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:13+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>344.8254545454545</v>
+      </c>
+      <c r="C641" t="n">
+        <v>343.4433333333333</v>
+      </c>
+      <c r="D641" t="n">
+        <v>346.0233333333333</v>
+      </c>
+      <c r="E641" t="n">
+        <v>349.3614285714286</v>
+      </c>
+      <c r="F641" t="n">
+        <v>344.2911764705883</v>
+      </c>
+      <c r="G641" t="n">
+        <v>347.1</v>
+      </c>
+      <c r="H641" t="n">
+        <v>347.2577777777778</v>
+      </c>
+      <c r="I641" t="n">
+        <v>342.37</v>
+      </c>
+      <c r="J641" t="n">
+        <v>336.8011764705882</v>
+      </c>
+      <c r="K641" t="n">
+        <v>336.285</v>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:15+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>329.2509090909091</v>
+      </c>
+      <c r="C642" t="n">
+        <v>325.06</v>
+      </c>
+      <c r="D642" t="n">
+        <v>330.13</v>
+      </c>
+      <c r="E642" t="n">
+        <v>326.2328571428571</v>
+      </c>
+      <c r="F642" t="n">
+        <v>336.3035294117647</v>
+      </c>
+      <c r="G642" t="n">
+        <v>335.34</v>
+      </c>
+      <c r="H642" t="n">
+        <v>339.49</v>
+      </c>
+      <c r="I642" t="n">
+        <v>332.88</v>
+      </c>
+      <c r="J642" t="n">
+        <v>330.6535294117647</v>
+      </c>
+      <c r="K642" t="n">
+        <v>341.365</v>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:02+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>331.0490909090909</v>
+      </c>
+      <c r="C643" t="n">
+        <v>326.08</v>
+      </c>
+      <c r="D643" t="n">
+        <v>339.62</v>
+      </c>
+      <c r="E643" t="n">
+        <v>338.5342857142857</v>
+      </c>
+      <c r="F643" t="n">
+        <v>342.4294117647058</v>
+      </c>
+      <c r="G643" t="n">
+        <v>344.53</v>
+      </c>
+      <c r="H643" t="n">
+        <v>346.61</v>
+      </c>
+      <c r="I643" t="n">
+        <v>344.64</v>
+      </c>
+      <c r="J643" t="n">
+        <v>340.9894117647059</v>
+      </c>
+      <c r="K643" t="n">
+        <v>352.69</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:16+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>346.8863636363636</v>
+      </c>
+      <c r="C644" t="n">
+        <v>334.8866666666667</v>
+      </c>
+      <c r="D644" t="n">
+        <v>342.4066666666666</v>
+      </c>
+      <c r="E644" t="n">
+        <v>346.8957142857143</v>
+      </c>
+      <c r="F644" t="n">
+        <v>350.3076470588235</v>
+      </c>
+      <c r="G644" t="n">
+        <v>351.09</v>
+      </c>
+      <c r="H644" t="n">
+        <v>360.7355555555556</v>
+      </c>
+      <c r="I644" t="n">
+        <v>355.79</v>
+      </c>
+      <c r="J644" t="n">
+        <v>366.8176470588235</v>
+      </c>
+      <c r="K644" t="n">
+        <v>365.64</v>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:09+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>357.3372727272728</v>
+      </c>
+      <c r="C645" t="n">
+        <v>342.2433333333333</v>
+      </c>
+      <c r="D645" t="n">
+        <v>346.4033333333334</v>
+      </c>
+      <c r="E645" t="n">
+        <v>349.8342857142857</v>
+      </c>
+      <c r="F645" t="n">
+        <v>354.2776470588236</v>
+      </c>
+      <c r="G645" t="n">
+        <v>359.13</v>
+      </c>
+      <c r="H645" t="n">
+        <v>364.8744444444445</v>
+      </c>
+      <c r="I645" t="n">
+        <v>356.18</v>
+      </c>
+      <c r="J645" t="n">
+        <v>362.1776470588235</v>
+      </c>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>348.4754545454546</v>
+      </c>
+      <c r="C646" t="n">
+        <v>336.3</v>
+      </c>
+      <c r="D646" t="n">
+        <v>339.26</v>
+      </c>
+      <c r="E646" t="n">
+        <v>344</v>
+      </c>
+      <c r="F646" t="n">
+        <v>349.5182352941176</v>
+      </c>
+      <c r="G646" t="n">
+        <v>356.9</v>
+      </c>
+      <c r="H646" t="n">
+        <v>352.13</v>
+      </c>
+      <c r="I646" t="n">
+        <v>353.81</v>
+      </c>
+      <c r="J646" t="n">
+        <v>353.2782352941176</v>
+      </c>
+      <c r="K646" t="n">
+        <v>353.225</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:01+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>352.0763636363636</v>
+      </c>
+      <c r="C647" t="n">
+        <v>334.6233333333333</v>
+      </c>
+      <c r="D647" t="n">
+        <v>344.2633333333333</v>
+      </c>
+      <c r="E647" t="n">
+        <v>339.7457142857143</v>
+      </c>
+      <c r="F647" t="n">
+        <v>344.26</v>
+      </c>
+      <c r="G647" t="n">
+        <v>345.73</v>
+      </c>
+      <c r="H647" t="n">
+        <v>348.7044444444444</v>
+      </c>
+      <c r="I647" t="n">
+        <v>346.87</v>
+      </c>
+      <c r="J647" t="n">
+        <v>348.69</v>
+      </c>
+      <c r="K647" t="n">
+        <v>349.86</v>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:26:12+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>343.6418181818182</v>
+      </c>
+      <c r="C648" t="n">
+        <v>330.8166666666667</v>
+      </c>
+      <c r="D648" t="n">
+        <v>336.8766666666667</v>
+      </c>
+      <c r="E648" t="n">
+        <v>337.7742857142857</v>
+      </c>
+      <c r="F648" t="n">
+        <v>339.7205882352941</v>
+      </c>
+      <c r="G648" t="n">
+        <v>343.14</v>
+      </c>
+      <c r="H648" t="n">
+        <v>344.0888888888889</v>
+      </c>
+      <c r="I648" t="n">
+        <v>337.56</v>
+      </c>
+      <c r="J648" t="n">
+        <v>336.8005882352941</v>
+      </c>
+      <c r="K648" t="n">
+        <v>340.835</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24745,7 +25121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B673"/>
+  <dimension ref="A1:B682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31483,6 +31859,96 @@
       </c>
       <c r="B673" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -31651,28 +32117,28 @@
         <v>0.0608</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4644632964591016</v>
+        <v>-0.5125777821625985</v>
       </c>
       <c r="J2" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K2" t="n">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0665368575410723</v>
+        <v>0.07996766119000176</v>
       </c>
       <c r="M2" t="n">
-        <v>10.66711522696156</v>
+        <v>10.71814434012088</v>
       </c>
       <c r="N2" t="n">
-        <v>173.0868133649242</v>
+        <v>175.4668804834068</v>
       </c>
       <c r="O2" t="n">
-        <v>13.15624617301319</v>
+        <v>13.24639122491129</v>
       </c>
       <c r="P2" t="n">
-        <v>371.0327941441114</v>
+        <v>371.4896458063592</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -31728,28 +32194,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4677389904702732</v>
+        <v>-0.4983570799683256</v>
       </c>
       <c r="J3" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K3" t="n">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06916057356315808</v>
+        <v>0.07912310191823302</v>
       </c>
       <c r="M3" t="n">
-        <v>10.48774242752514</v>
+        <v>10.46298413270516</v>
       </c>
       <c r="N3" t="n">
-        <v>168.1842126645087</v>
+        <v>167.5512540218084</v>
       </c>
       <c r="O3" t="n">
-        <v>12.96858560771022</v>
+        <v>12.94415906970431</v>
       </c>
       <c r="P3" t="n">
-        <v>356.6271490338915</v>
+        <v>356.918837219499</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -31805,28 +32271,28 @@
         <v>0.0838</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4005325843143311</v>
+        <v>-0.4037998676748388</v>
       </c>
       <c r="J4" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K4" t="n">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05084019977521592</v>
+        <v>0.05306052241629511</v>
       </c>
       <c r="M4" t="n">
-        <v>10.40027558909886</v>
+        <v>10.29287507582637</v>
       </c>
       <c r="N4" t="n">
-        <v>169.817617450179</v>
+        <v>167.372169816274</v>
       </c>
       <c r="O4" t="n">
-        <v>13.03140888201191</v>
+        <v>12.93723965211567</v>
       </c>
       <c r="P4" t="n">
-        <v>352.5783847091989</v>
+        <v>352.6098208276071</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -31882,28 +32348,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3182989403719069</v>
+        <v>-0.3232556306103241</v>
       </c>
       <c r="J5" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K5" t="n">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03109325193776824</v>
+        <v>0.03289172585373468</v>
       </c>
       <c r="M5" t="n">
-        <v>10.47817617510333</v>
+        <v>10.40246459921322</v>
       </c>
       <c r="N5" t="n">
-        <v>177.2825464720543</v>
+        <v>175.2532552091838</v>
       </c>
       <c r="O5" t="n">
-        <v>13.31474920800442</v>
+        <v>13.23832524185683</v>
       </c>
       <c r="P5" t="n">
-        <v>352.1670638448191</v>
+        <v>352.2144355556848</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -31959,28 +32425,28 @@
         <v>0.0975</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3122592113442216</v>
+        <v>-0.3070569966841384</v>
       </c>
       <c r="J6" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K6" t="n">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02729414250256135</v>
+        <v>0.02719174491577425</v>
       </c>
       <c r="M6" t="n">
-        <v>11.12246450201129</v>
+        <v>11.01097253669153</v>
       </c>
       <c r="N6" t="n">
-        <v>196.4696893808287</v>
+        <v>193.687250265167</v>
       </c>
       <c r="O6" t="n">
-        <v>14.01676458319925</v>
+        <v>13.91715668752662</v>
       </c>
       <c r="P6" t="n">
-        <v>351.7569627277006</v>
+        <v>351.7075403569596</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -32036,28 +32502,28 @@
         <v>0.1338</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3531293185900962</v>
+        <v>-0.3488480894017035</v>
       </c>
       <c r="J7" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K7" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03650041371365564</v>
+        <v>0.03661009872079313</v>
       </c>
       <c r="M7" t="n">
-        <v>10.52922602887496</v>
+        <v>10.44769060236295</v>
       </c>
       <c r="N7" t="n">
-        <v>185.3647234000367</v>
+        <v>183.1178624073337</v>
       </c>
       <c r="O7" t="n">
-        <v>13.61487140593097</v>
+        <v>13.53210487719238</v>
       </c>
       <c r="P7" t="n">
-        <v>355.8508618017405</v>
+        <v>355.8100629199104</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32113,28 +32579,28 @@
         <v>0.1105</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3391139820618401</v>
+        <v>-0.3361179008865749</v>
       </c>
       <c r="J8" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K8" t="n">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03348348880369123</v>
+        <v>0.03376393404505285</v>
       </c>
       <c r="M8" t="n">
-        <v>10.5467958454172</v>
+        <v>10.47441343603832</v>
       </c>
       <c r="N8" t="n">
-        <v>187.3924768741012</v>
+        <v>185.2526785995876</v>
       </c>
       <c r="O8" t="n">
-        <v>13.68913718515894</v>
+        <v>13.61075598927508</v>
       </c>
       <c r="P8" t="n">
-        <v>358.5515668107777</v>
+        <v>358.5229713770305</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32190,28 +32656,28 @@
         <v>0.1405</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3832601243761878</v>
+        <v>-0.3744663749014258</v>
       </c>
       <c r="J9" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K9" t="n">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03722056127723328</v>
+        <v>0.03650834571546779</v>
       </c>
       <c r="M9" t="n">
-        <v>11.67501843364123</v>
+        <v>11.6001555241226</v>
       </c>
       <c r="N9" t="n">
-        <v>213.5301411762772</v>
+        <v>211.2031848220171</v>
       </c>
       <c r="O9" t="n">
-        <v>14.61267056962133</v>
+        <v>14.53283127343111</v>
       </c>
       <c r="P9" t="n">
-        <v>354.3651210779856</v>
+        <v>354.280994908206</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -32267,28 +32733,28 @@
         <v>0.1091</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.468205542545882</v>
+        <v>-0.4523158181071284</v>
       </c>
       <c r="J10" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K10" t="n">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06111929285239492</v>
+        <v>0.05823788437086563</v>
       </c>
       <c r="M10" t="n">
-        <v>11.13865094602937</v>
+        <v>11.13232511785225</v>
       </c>
       <c r="N10" t="n">
-        <v>187.8376823295503</v>
+        <v>187.3343550892416</v>
       </c>
       <c r="O10" t="n">
-        <v>13.70538880621598</v>
+        <v>13.68701410422455</v>
       </c>
       <c r="P10" t="n">
-        <v>354.9770352667006</v>
+        <v>354.822180025981</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -32344,28 +32810,28 @@
         <v>0.1015</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5277150420229313</v>
+        <v>-0.5110865123365104</v>
       </c>
       <c r="J11" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K11" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1023352046552847</v>
+        <v>0.09820114408376834</v>
       </c>
       <c r="M11" t="n">
-        <v>9.414501382264142</v>
+        <v>9.400649809780376</v>
       </c>
       <c r="N11" t="n">
-        <v>137.7210347765932</v>
+        <v>137.1449924532352</v>
       </c>
       <c r="O11" t="n">
-        <v>11.73546056942774</v>
+        <v>11.7108920434455</v>
       </c>
       <c r="P11" t="n">
-        <v>356.6086468036774</v>
+        <v>356.4481082133955</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -32402,7 +32868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L639"/>
+  <dimension ref="A1:L648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66908,6 +67374,560 @@
         </is>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:19+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-43.46601493442281,169.75904302307913</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-43.46547198848727,169.75954131610354</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>-43.46489769712346,169.75998032525612</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>-43.46434236327224,169.76045259931715</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>-43.46380014279147,169.76095009293874</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>-43.463237817846476,169.76140474351124</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>-43.46267113594195,169.7618191121264</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>-43.46205667150528,169.76208823825544</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>-43.46144774531209,169.76239904955747</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>-43.46084215644845,169.76272904574162</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:13+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-43.46598237727142,169.7589816981177</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-43.465453140649466,169.7595058141183</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-43.46490291415947,169.75999028708435</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-43.46434452175272,169.76045685734516</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-43.46382278242851,169.7609956103677</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-43.463261056688616,169.7614538329887</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>-43.46270065664585,169.76190022361837</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>-43.462104700630825,169.76226084819086</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>-43.46150424152405,169.7626168973305</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>-43.460882197586706,169.76289057845932</t>
+        </is>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:15+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-43.46606491185412,169.75913716129</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-43.46555055930553,169.75968931337428</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-43.46498638662414,169.7601496765732</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-43.464463384783215,169.76069133902342</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-43.463863307515076,169.76107708701198</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-43.46331871246378,169.7615756247695</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>-43.46273189303806,169.76198604941337</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>-43.462135168173724,169.7623703448829</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>-43.46152279245754,169.76268842963057</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>-43.4608674738353,169.7628311802278</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:02+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-43.4660553827139,169.75911921204118</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-43.46554515403471,169.7596791318949</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-43.46493654476453,169.76005450414652</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-43.46440016497846,169.76056662477905</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-43.463832228040545,169.7610146009741</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-43.4632736566432,169.76148044902945</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>-43.46270326154261,169.7619073808797</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>-43.46209741280518,169.76223465669153</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>-43.461491603220836,169.76256816422358</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>-43.46083464961606,169.76269876203608</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:16+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-43.46597145582882,169.75896112641212</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-43.46549848496147,169.75959122521158</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-43.464921909065524,169.760026557514</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-43.46435719364533,169.76048185516206</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-43.463792258010066,169.7609342404492</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-43.463241494879796,169.76141251083106</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>-43.46264645861066,169.7617513085308</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>-43.46206161569164,169.762106006912</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>-43.46141366420497,169.76226763474486</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>-43.460797115336995,169.76254734362735</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:09+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-43.46591607293246,169.75885680701867</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-43.46545949980865,169.75951779229263</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-43.46490091838069,169.75998647618343</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-43.464342091626726,169.7604520634429</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-43.46377211629373,169.76089374521771</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-43.46320207705655,169.76132924521258</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>-43.46262981490626,169.76170557827265</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>-43.46206036359274,169.76210150705714</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>-43.46142766587757,169.76232162431154</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-43.46596303470526,169.7589452643346</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-43.46549099529352,169.7595771175659</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-43.46493843550029,169.76005811447803</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-43.46437207540367,169.76051121240326</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-43.4637962630734,169.76094229269734</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-43.463213010115275,169.76135234001856</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-43.462681064055296,169.76184639072108</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>-43.46206797249873,169.76212885233207</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>-43.46145452068969,169.76242517511454</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>-43.46083309897596,169.7626925065226</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:01+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-43.46594395227746,169.75890932059312</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-43.46549988044186,169.75959385375916</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-43.464912157764886,169.7600079375763</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-43.464393939167934,169.76055434309794</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-43.4638229406015,169.7609959283778</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-43.463267773396645,169.76146802130475</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>-43.46269483919049,169.76188423947954</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>-43.46209025339369,169.76220892672288</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>-43.46146836608568,169.7624785624392</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>-43.46084285206187,169.7627318519541</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:26:12+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-43.46598864975255,169.75899351301334</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-43.46552005307629,169.75963185125823</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-43.46495095286861,169.76008201621562</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-43.46440407079291,169.76057432979727</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-43.463845971176866,169.76104223186718</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-43.46328047140217,169.76149484448032</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>-43.46271339963581,169.76193523650497</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>-43.46212014309678,169.76231634649977</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>-43.461504243299075,169.76261690417505</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>-43.46086900997613,169.76283737728596</t>
+        </is>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -31962,7 +31962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32053,35 +32053,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -32140,27 +32145,28 @@
       <c r="P2" t="n">
         <v>371.4896458063592</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.76242380339556 -43.4678096728721, 169.7535360053945 -43.46309101783782)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.7624238033956</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-43.4678096728721</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.7535360053945</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-43.46309101783782</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.757979904395</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-43.46545034535496</v>
       </c>
     </row>
@@ -32217,27 +32223,28 @@
       <c r="P3" t="n">
         <v>356.918837219499</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.76293410498334 -43.467273101373266, 169.7540463289608 -43.46255446024298)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.7629341049833</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-43.46727310137327</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.7540463289608</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-43.46255446024298</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.7584902169721</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-43.46491378080812</v>
       </c>
     </row>
@@ -32294,27 +32301,28 @@
       <c r="P4" t="n">
         <v>352.6098208276071</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.76346055245037 -43.46672019604867, 169.75453094415408 -43.462043582239254)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.7634605524504</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-43.46672019604867</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.7545309441541</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-43.46204358223925</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.7589957483022</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-43.46438188914397</v>
       </c>
     </row>
@@ -32371,27 +32379,28 @@
       <c r="P5" t="n">
         <v>352.2144355556848</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.76399884689548 -43.46613992178296, 169.75497157706045 -43.461563668353385)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.7639988468955</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-43.46613992178296</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.7549715770604</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-43.46156366835339</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.759485211978</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-43.46385179506817</v>
       </c>
     </row>
@@ -32448,27 +32457,28 @@
       <c r="P6" t="n">
         <v>351.7075403569596</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.76450759495694 -43.465569483468286, 169.75542486805665 -43.46105172954753)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.7645075949569</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-43.46556948346829</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.7554248680567</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-43.46105172954753</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.7599662315068</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-43.4633106065079</v>
       </c>
     </row>
@@ -32525,27 +32535,28 @@
       <c r="P7" t="n">
         <v>355.8100629199104</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.7650486541417 -43.46496273273306, 169.7558266635259 -43.46059691937631)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.7650486541417</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-43.46496273273306</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.7558266635259</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-43.46059691937631</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.7604376588338</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-43.46277982605469</v>
       </c>
     </row>
@@ -32602,27 +32613,28 @@
       <c r="P8" t="n">
         <v>358.5229713770305</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.7657371470386 -43.4640970161835, 169.7558973577862 -43.46051567099304)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.7657371470386</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-43.4640970161835</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.7558973577862</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-43.46051567099304</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.7608172524124</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-43.46230634358827</v>
       </c>
     </row>
@@ -32679,27 +32691,28 @@
       <c r="P9" t="n">
         <v>354.280994908206</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.7662112250023 -43.463203811489365, 169.75593491140245 -43.460344276413416)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.7662112250023</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-43.46320381148936</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.7559349114024</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-43.46034427641342</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.7610730682024</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-43.46177404395139</v>
       </c>
     </row>
@@ -32756,27 +32769,28 @@
       <c r="P10" t="n">
         <v>354.822180025981</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (169.76653588951342 -43.462520497374946, 169.75617243365681 -43.459832729560844)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>169.7665358895134</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-43.46252049737495</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>169.7561724336568</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-43.45983272956084</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>169.7613541615851</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-43.4611766134679</v>
       </c>
     </row>
@@ -32833,27 +32847,28 @@
       <c r="P11" t="n">
         <v>356.4481082133955</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (169.76682268060745 -43.461856811260844, 169.75640844898953 -43.459275172703556)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>169.7668226806074</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-43.46185681126084</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>169.7564084489895</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-43.45927517270356</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>169.7616155647985</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-43.4605659919822</v>
       </c>
     </row>

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L648"/>
+  <dimension ref="A1:L657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25110,6 +25110,382 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:19:55+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>353.5163636363636</v>
+      </c>
+      <c r="C649" t="n">
+        <v>345.3033333333333</v>
+      </c>
+      <c r="D649" t="n">
+        <v>340.9133333333333</v>
+      </c>
+      <c r="E649" t="n">
+        <v>340.98</v>
+      </c>
+      <c r="F649" t="n">
+        <v>348.9023529411764</v>
+      </c>
+      <c r="G649" t="n">
+        <v>354.74</v>
+      </c>
+      <c r="H649" t="n">
+        <v>354.4211111111111</v>
+      </c>
+      <c r="I649" t="n">
+        <v>347.82</v>
+      </c>
+      <c r="J649" t="n">
+        <v>330.4923529411765</v>
+      </c>
+      <c r="K649" t="n">
+        <v>332.665</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:14+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>349.1190909090909</v>
+      </c>
+      <c r="C650" t="n">
+        <v>341.57</v>
+      </c>
+      <c r="D650" t="n">
+        <v>343.78</v>
+      </c>
+      <c r="E650" t="n">
+        <v>347.3828571428572</v>
+      </c>
+      <c r="F650" t="n">
+        <v>348.6641176470588</v>
+      </c>
+      <c r="G650" t="n">
+        <v>351.61</v>
+      </c>
+      <c r="H650" t="n">
+        <v>353.1933333333333</v>
+      </c>
+      <c r="I650" t="n">
+        <v>348.57</v>
+      </c>
+      <c r="J650" t="n">
+        <v>344.7241176470588</v>
+      </c>
+      <c r="K650" t="n">
+        <v>347.74</v>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:50+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>354.110909090909</v>
+      </c>
+      <c r="C651" t="n">
+        <v>332.35</v>
+      </c>
+      <c r="D651" t="n">
+        <v>337.91</v>
+      </c>
+      <c r="E651" t="n">
+        <v>341.2714285714285</v>
+      </c>
+      <c r="F651" t="n">
+        <v>349.9782352941176</v>
+      </c>
+      <c r="G651" t="n">
+        <v>354.9299999999999</v>
+      </c>
+      <c r="H651" t="n">
+        <v>358.3433333333333</v>
+      </c>
+      <c r="I651" t="n">
+        <v>349.94</v>
+      </c>
+      <c r="J651" t="n">
+        <v>345.5982352941176</v>
+      </c>
+      <c r="K651" t="n">
+        <v>357.665</v>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:03+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>347.1463636363636</v>
+      </c>
+      <c r="C652" t="n">
+        <v>337.2833333333334</v>
+      </c>
+      <c r="D652" t="n">
+        <v>339.2833333333334</v>
+      </c>
+      <c r="E652" t="n">
+        <v>333.8342857142857</v>
+      </c>
+      <c r="F652" t="n">
+        <v>341.0847058823529</v>
+      </c>
+      <c r="G652" t="n">
+        <v>347.64</v>
+      </c>
+      <c r="H652" t="n">
+        <v>355.4177777777778</v>
+      </c>
+      <c r="I652" t="n">
+        <v>351.17</v>
+      </c>
+      <c r="J652" t="n">
+        <v>344.7647058823529</v>
+      </c>
+      <c r="K652" t="n">
+        <v>343.33</v>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:39+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>350.2336363636364</v>
+      </c>
+      <c r="C653" t="n">
+        <v>330.2833333333333</v>
+      </c>
+      <c r="D653" t="n">
+        <v>342.4433333333333</v>
+      </c>
+      <c r="E653" t="n">
+        <v>348.3714285714286</v>
+      </c>
+      <c r="F653" t="n">
+        <v>347.9617647058824</v>
+      </c>
+      <c r="G653" t="n">
+        <v>358.56</v>
+      </c>
+      <c r="H653" t="n">
+        <v>360.2011111111111</v>
+      </c>
+      <c r="I653" t="n">
+        <v>354.37</v>
+      </c>
+      <c r="J653" t="n">
+        <v>352.7317647058824</v>
+      </c>
+      <c r="K653" t="n">
+        <v>350.3</v>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:02+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>362.0754545454545</v>
+      </c>
+      <c r="C654" t="n">
+        <v>348.5866666666667</v>
+      </c>
+      <c r="D654" t="n">
+        <v>351.5766666666667</v>
+      </c>
+      <c r="E654" t="n">
+        <v>351.4985714285714</v>
+      </c>
+      <c r="F654" t="n">
+        <v>357.6617647058824</v>
+      </c>
+      <c r="G654" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="H654" t="n">
+        <v>364.2588888888889</v>
+      </c>
+      <c r="I654" t="n">
+        <v>350.63</v>
+      </c>
+      <c r="J654" t="n">
+        <v>345.2817647058824</v>
+      </c>
+      <c r="K654" t="n">
+        <v>345.95</v>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:25:53+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>369.8090909090909</v>
+      </c>
+      <c r="C655" t="n">
+        <v>350.9033333333333</v>
+      </c>
+      <c r="D655" t="n">
+        <v>360.5233333333333</v>
+      </c>
+      <c r="E655" t="n">
+        <v>363.9685714285715</v>
+      </c>
+      <c r="F655" t="n">
+        <v>364.6494117647059</v>
+      </c>
+      <c r="G655" t="n">
+        <v>367.31</v>
+      </c>
+      <c r="H655" t="n">
+        <v>362.5577777777777</v>
+      </c>
+      <c r="I655" t="n">
+        <v>350.77</v>
+      </c>
+      <c r="J655" t="n">
+        <v>339.3094117647058</v>
+      </c>
+      <c r="K655" t="n">
+        <v>344.215</v>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:25:34+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>355.5236363636364</v>
+      </c>
+      <c r="C656" t="n">
+        <v>335.97</v>
+      </c>
+      <c r="D656" t="n">
+        <v>342.66</v>
+      </c>
+      <c r="E656" t="n">
+        <v>349.6757142857143</v>
+      </c>
+      <c r="F656" t="n">
+        <v>361.8464705882353</v>
+      </c>
+      <c r="G656" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="H656" t="n">
+        <v>365.8766666666667</v>
+      </c>
+      <c r="I656" t="n">
+        <v>358.92</v>
+      </c>
+      <c r="J656" t="n">
+        <v>346.4464705882353</v>
+      </c>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:19:41+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>357.2163636363636</v>
+      </c>
+      <c r="C657" t="n">
+        <v>329.9299999999999</v>
+      </c>
+      <c r="D657" t="n">
+        <v>338.36</v>
+      </c>
+      <c r="E657" t="n">
+        <v>356.4671428571428</v>
+      </c>
+      <c r="F657" t="n">
+        <v>368.7541176470588</v>
+      </c>
+      <c r="G657" t="n">
+        <v>361.38</v>
+      </c>
+      <c r="H657" t="n">
+        <v>361.6566666666667</v>
+      </c>
+      <c r="I657" t="n">
+        <v>356.07</v>
+      </c>
+      <c r="J657" t="n">
+        <v>340.0941176470589</v>
+      </c>
+      <c r="K657" t="n">
+        <v>339.525</v>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25121,7 +25497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B682"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31949,6 +32325,96 @@
       </c>
       <c r="B682" t="n">
         <v>0.89</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -32122,28 +32588,28 @@
         <v>0.0608</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5125777821625985</v>
+        <v>-0.5213014910278544</v>
       </c>
       <c r="J2" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K2" t="n">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07996766119000176</v>
+        <v>0.08451772003402425</v>
       </c>
       <c r="M2" t="n">
-        <v>10.71814434012088</v>
+        <v>10.63632895385549</v>
       </c>
       <c r="N2" t="n">
-        <v>175.4668804834068</v>
+        <v>173.3526744332093</v>
       </c>
       <c r="O2" t="n">
-        <v>13.24639122491129</v>
+        <v>13.16634628259523</v>
       </c>
       <c r="P2" t="n">
-        <v>371.4896458063592</v>
+        <v>371.5731622282339</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32200,28 +32666,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4983570799683256</v>
+        <v>-0.513413848175458</v>
       </c>
       <c r="J3" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K3" t="n">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07912310191823302</v>
+        <v>0.08538592770460129</v>
       </c>
       <c r="M3" t="n">
-        <v>10.46298413270516</v>
+        <v>10.40861931462185</v>
       </c>
       <c r="N3" t="n">
-        <v>167.5512540218084</v>
+        <v>166.0223781868231</v>
       </c>
       <c r="O3" t="n">
-        <v>12.94415906970431</v>
+        <v>12.88496713953214</v>
       </c>
       <c r="P3" t="n">
-        <v>356.918837219499</v>
+        <v>357.0641367027982</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32278,28 +32744,28 @@
         <v>0.0838</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4037998676748388</v>
+        <v>-0.3981447740392688</v>
       </c>
       <c r="J4" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K4" t="n">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05306052241629511</v>
+        <v>0.05293479284574176</v>
       </c>
       <c r="M4" t="n">
-        <v>10.29287507582637</v>
+        <v>10.19886469619718</v>
       </c>
       <c r="N4" t="n">
-        <v>167.372169816274</v>
+        <v>165.4152169961089</v>
       </c>
       <c r="O4" t="n">
-        <v>12.93723965211567</v>
+        <v>12.86138472312017</v>
       </c>
       <c r="P4" t="n">
-        <v>352.6098208276071</v>
+        <v>352.5545829803902</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32356,28 +32822,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3232556306103241</v>
+        <v>-0.3106003892140438</v>
       </c>
       <c r="J5" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K5" t="n">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03289172585373468</v>
+        <v>0.03114379559197888</v>
       </c>
       <c r="M5" t="n">
-        <v>10.40246459921322</v>
+        <v>10.35677103535908</v>
       </c>
       <c r="N5" t="n">
-        <v>175.2532552091838</v>
+        <v>173.8138633439298</v>
       </c>
       <c r="O5" t="n">
-        <v>13.23832524185683</v>
+        <v>13.18384857861807</v>
       </c>
       <c r="P5" t="n">
-        <v>352.2144355556848</v>
+        <v>352.0916409110331</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32434,28 +32900,28 @@
         <v>0.0975</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3070569966841384</v>
+        <v>-0.2757416496005813</v>
       </c>
       <c r="J6" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K6" t="n">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02719174491577425</v>
+        <v>0.02239293671006914</v>
       </c>
       <c r="M6" t="n">
-        <v>11.01097253669153</v>
+        <v>11.00151289526822</v>
       </c>
       <c r="N6" t="n">
-        <v>193.687250265167</v>
+        <v>193.4883983553831</v>
       </c>
       <c r="O6" t="n">
-        <v>13.91715668752662</v>
+        <v>13.91001072448843</v>
       </c>
       <c r="P6" t="n">
-        <v>351.7075403569596</v>
+        <v>351.4055033456901</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32512,28 +32978,28 @@
         <v>0.1338</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3488480894017035</v>
+        <v>-0.315720594171237</v>
       </c>
       <c r="J7" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K7" t="n">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03661009872079313</v>
+        <v>0.0306841365003756</v>
       </c>
       <c r="M7" t="n">
-        <v>10.44769060236295</v>
+        <v>10.46114329134744</v>
       </c>
       <c r="N7" t="n">
-        <v>183.1178624073337</v>
+        <v>182.7611526386646</v>
       </c>
       <c r="O7" t="n">
-        <v>13.53210487719238</v>
+        <v>13.5189183235444</v>
       </c>
       <c r="P7" t="n">
-        <v>355.8100629199104</v>
+        <v>355.4901262149807</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32590,28 +33056,28 @@
         <v>0.1105</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3361179008865749</v>
+        <v>-0.3080361354837519</v>
       </c>
       <c r="J8" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K8" t="n">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03376393404505285</v>
+        <v>0.02911272791270947</v>
       </c>
       <c r="M8" t="n">
-        <v>10.47441343603832</v>
+        <v>10.45125262017728</v>
       </c>
       <c r="N8" t="n">
-        <v>185.2526785995876</v>
+        <v>183.9661639553553</v>
       </c>
       <c r="O8" t="n">
-        <v>13.61075598927508</v>
+        <v>13.56341269575454</v>
       </c>
       <c r="P8" t="n">
-        <v>358.5229713770305</v>
+        <v>358.2511688436043</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32668,28 +33134,28 @@
         <v>0.1405</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3744663749014258</v>
+        <v>-0.3524254158792065</v>
       </c>
       <c r="J9" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K9" t="n">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03650834571546779</v>
+        <v>0.03332480281453776</v>
       </c>
       <c r="M9" t="n">
-        <v>11.6001555241226</v>
+        <v>11.51299545877737</v>
       </c>
       <c r="N9" t="n">
-        <v>211.2031848220171</v>
+        <v>208.7172557594475</v>
       </c>
       <c r="O9" t="n">
-        <v>14.53283127343111</v>
+        <v>14.44705007118919</v>
       </c>
       <c r="P9" t="n">
-        <v>354.280994908206</v>
+        <v>354.0670650576055</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32746,28 +33212,28 @@
         <v>0.1091</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4523158181071284</v>
+        <v>-0.4521691607592352</v>
       </c>
       <c r="J10" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K10" t="n">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05823788437086563</v>
+        <v>0.05983879112853685</v>
       </c>
       <c r="M10" t="n">
-        <v>11.13232511785225</v>
+        <v>11.01099697612274</v>
       </c>
       <c r="N10" t="n">
-        <v>187.3343550892416</v>
+        <v>184.5518643842707</v>
       </c>
       <c r="O10" t="n">
-        <v>13.68701410422455</v>
+        <v>13.58498672742343</v>
       </c>
       <c r="P10" t="n">
-        <v>354.822180025981</v>
+        <v>354.8205919398849</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32824,28 +33290,28 @@
         <v>0.1015</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5110865123365104</v>
+        <v>-0.5057948670596191</v>
       </c>
       <c r="J11" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="K11" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09820114408376834</v>
+        <v>0.09849986266581179</v>
       </c>
       <c r="M11" t="n">
-        <v>9.400649809780376</v>
+        <v>9.335826180676484</v>
       </c>
       <c r="N11" t="n">
-        <v>137.1449924532352</v>
+        <v>135.7013644867939</v>
       </c>
       <c r="O11" t="n">
-        <v>11.7108920434455</v>
+        <v>11.64909286111128</v>
       </c>
       <c r="P11" t="n">
-        <v>356.4481082133955</v>
+        <v>356.3964614050287</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32883,7 +33349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L648"/>
+  <dimension ref="A1:L657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67943,6 +68409,560 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:19:55+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-43.465936321230394,169.75889494673274</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-43.4654432839504,169.75948724795313</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-43.464929752120334,169.76004153369814</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-43.46438759588802,169.76054182968966</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-43.463799387738675,169.76094857489167</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>-43.4632235999796,169.7613747098836</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>-43.462671850837815,169.76182107638132</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>-43.4620872034185,169.7621979655274</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>-43.46152327881766,169.76269030503548</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>-43.460892689690446,169.76293290556416</t>
+        </is>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:14+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>-43.46595962386058,169.75893883965003</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-43.465463068003004,169.75952451338046</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-43.464914696254546,169.76001278477673</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-43.464354690102645,169.7604769164268</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-43.46380059642,169.76095100496704</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-43.46323894547008,169.7614071254892</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>-43.462676788086455,169.76183464201827</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>-43.462084795542616,169.76218931195285</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>-43.46148033345845,169.76252470827316</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>-43.46084899664416,169.76275664016745</t>
+        </is>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:50+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-43.46593317053243,169.75888901207173</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-43.46551192749818,169.75961654578265</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-43.46494552575845,169.76007165322326</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-43.46438609816895,169.7605388751353</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-43.46379392927352,169.7609376005526</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-43.46322266846393,169.76137274216367</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>-43.462656078440396,169.761777740018</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>-43.462080397154345,169.76217350475852</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>-43.46147769573886,169.76251453729714</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>-43.46082023009949,169.76264059162008</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:03+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-43.465970078002115,169.7589585311291</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-43.465485784320734,169.75956730210694</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-43.46493831295261,169.76005788047507</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>-43.46442431934942,169.7606142742501</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-43.46383905036698,169.76102831741588</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-43.46325840922661,169.76144824051465</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>-43.46266784295249,169.76181006427774</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>-43.46207644823463,169.76215931289997</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>-43.461480210980234,169.76252423600033</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>-43.46086177851788,169.76280820434528</t>
+        </is>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:39+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>-43.46595371751009,169.7589277144211</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-43.46552287936387,169.75963717490288</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-43.46492171649049,169.76002618979524</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-43.46434960959898,169.76046689412667</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-43.46380415979132,169.76095816918976</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-43.46320487160561,169.76133514836846</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>-43.4626486077696,169.76175721356736</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>-43.46206617461434,169.76212239100064</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>-43.461456169713124,169.76243153368046</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>-43.46084157677055,169.76272670723125</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:02+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-43.46589096367742,169.75880951126837</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-43.465425884573214,169.75945447436112</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-43.46487374776646,169.75993459446957</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-43.46433353846272,169.760435190648</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-43.46375494702919,169.76085922618958</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-43.463191683292564,169.76130728962013</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>-43.462632290239505,169.76171237949598</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>-43.46207818190691,169.76216554347178</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>-43.461478650714156,169.76251821965576</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>-43.46085418475436,169.7627775698423</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:25:53+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-43.465849980438925,169.75873231546967</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-43.46541360784999,169.7594313498584</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-43.46482675935797,169.75984487130788</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-43.46426945206284,169.76030876794675</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-43.463719495286945,169.76078795012967</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-43.463161972794246,169.76124452980864</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>-43.46263913091478,169.76173117493744</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>-43.46207773243636,169.7621639281383</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>-43.461496672744886,169.7625877122201</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>-43.46085921344981,169.76279785643018</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:25:34+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-43.465925684010415,169.7588749104486</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-43.46549274406046,169.75958041156775</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-43.4649205785471,169.76002401691173</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>-43.46434290656327,169.76045367106565</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>-43.46373371597992,169.76081654094577</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>-43.46316643427381,169.76125395413277</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>-43.46262578466968,169.76169450480194</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>-43.46205156679058,169.7620698926976</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>-43.46147513612049,169.76250466748144</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:19:41+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-43.46591671367107,169.75885801391385</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-43.46552475177926,169.75964070181774</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>-43.46494316233924,169.76006714030785</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-43.46430800376682,169.76038481850466</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-43.46369867009204,169.7607460809592</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-43.463191045938984,169.76130594328689</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>-43.4626427545502,169.76174113124426</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>-43.46206071674885,169.76210277624696</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>-43.461494304837345,169.76257858160784</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>-43.460872806851086,169.76285269454436</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L657"/>
+  <dimension ref="A1:L658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25486,6 +25486,48 @@
         </is>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:25:42+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>371.680909090909</v>
+      </c>
+      <c r="C658" t="n">
+        <v>363.0133333333333</v>
+      </c>
+      <c r="D658" t="n">
+        <v>362.9333333333333</v>
+      </c>
+      <c r="E658" t="n">
+        <v>362.8842857142857</v>
+      </c>
+      <c r="F658" t="n">
+        <v>365.5164705882353</v>
+      </c>
+      <c r="G658" t="n">
+        <v>369.61</v>
+      </c>
+      <c r="H658" t="n">
+        <v>363.7177777777778</v>
+      </c>
+      <c r="I658" t="n">
+        <v>352.43</v>
+      </c>
+      <c r="J658" t="n">
+        <v>347.5264705882353</v>
+      </c>
+      <c r="K658" t="n">
+        <v>342.105</v>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25497,7 +25539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32415,6 +32457,16 @@
       </c>
       <c r="B691" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -32588,28 +32640,28 @@
         <v>0.0608</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5213014910278544</v>
+        <v>-0.5167274280597357</v>
       </c>
       <c r="J2" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K2" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08451772003402425</v>
+        <v>0.08327974320437048</v>
       </c>
       <c r="M2" t="n">
-        <v>10.63632895385549</v>
+        <v>10.64501087671924</v>
       </c>
       <c r="N2" t="n">
-        <v>173.3526744332093</v>
+        <v>173.371230850607</v>
       </c>
       <c r="O2" t="n">
-        <v>13.16634628259523</v>
+        <v>13.16705095496357</v>
       </c>
       <c r="P2" t="n">
-        <v>371.5731622282339</v>
+        <v>371.5286539006599</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32666,28 +32718,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.513413848175458</v>
+        <v>-0.5069268390961681</v>
       </c>
       <c r="J3" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K3" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08538592770460129</v>
+        <v>0.0833674066135256</v>
       </c>
       <c r="M3" t="n">
-        <v>10.40861931462185</v>
+        <v>10.42852898544327</v>
       </c>
       <c r="N3" t="n">
-        <v>166.0223781868231</v>
+        <v>166.4063977177416</v>
       </c>
       <c r="O3" t="n">
-        <v>12.88496713953214</v>
+        <v>12.89986037590104</v>
       </c>
       <c r="P3" t="n">
-        <v>357.0641367027982</v>
+        <v>357.0008499028079</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32744,28 +32796,28 @@
         <v>0.0838</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3981447740392688</v>
+        <v>-0.391267195461036</v>
       </c>
       <c r="J4" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K4" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05293479284574176</v>
+        <v>0.05114836366572473</v>
       </c>
       <c r="M4" t="n">
-        <v>10.19886469619718</v>
+        <v>10.21978195058313</v>
       </c>
       <c r="N4" t="n">
-        <v>165.4152169961089</v>
+        <v>165.9022688140464</v>
       </c>
       <c r="O4" t="n">
-        <v>12.86138472312017</v>
+        <v>12.8803054627616</v>
       </c>
       <c r="P4" t="n">
-        <v>352.5545829803902</v>
+        <v>352.4869879480163</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32822,28 +32874,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3106003892140438</v>
+        <v>-0.3043171595416321</v>
       </c>
       <c r="J5" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K5" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03114379559197888</v>
+        <v>0.02992911156939204</v>
       </c>
       <c r="M5" t="n">
-        <v>10.35677103535908</v>
+        <v>10.3715379737032</v>
       </c>
       <c r="N5" t="n">
-        <v>173.8138633439298</v>
+        <v>174.1402363216876</v>
       </c>
       <c r="O5" t="n">
-        <v>13.18384857861807</v>
+        <v>13.19622053171618</v>
       </c>
       <c r="P5" t="n">
-        <v>352.0916409110331</v>
+        <v>352.0303322486711</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32900,28 +32952,28 @@
         <v>0.0975</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2757416496005813</v>
+        <v>-0.2686748618316246</v>
       </c>
       <c r="J6" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K6" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02239293671006914</v>
+        <v>0.02126885234249587</v>
       </c>
       <c r="M6" t="n">
-        <v>11.00151289526822</v>
+        <v>11.01838442938942</v>
       </c>
       <c r="N6" t="n">
-        <v>193.4883983553831</v>
+        <v>193.9568610352101</v>
       </c>
       <c r="O6" t="n">
-        <v>13.91001072448843</v>
+        <v>13.92683959249944</v>
       </c>
       <c r="P6" t="n">
-        <v>351.4055033456901</v>
+        <v>351.3367764451889</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32978,28 +33030,28 @@
         <v>0.1338</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.315720594171237</v>
+        <v>-0.3084063170413543</v>
       </c>
       <c r="J7" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K7" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0306841365003756</v>
+        <v>0.0292807222470971</v>
       </c>
       <c r="M7" t="n">
-        <v>10.46114329134744</v>
+        <v>10.48364499652762</v>
       </c>
       <c r="N7" t="n">
-        <v>182.7611526386646</v>
+        <v>183.321914316687</v>
       </c>
       <c r="O7" t="n">
-        <v>13.5189183235444</v>
+        <v>13.53964232602497</v>
       </c>
       <c r="P7" t="n">
-        <v>355.4901262149807</v>
+        <v>355.4188347130936</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33056,28 +33108,28 @@
         <v>0.1105</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3080361354837519</v>
+        <v>-0.3036413253755821</v>
       </c>
       <c r="J8" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K8" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02911272791270947</v>
+        <v>0.0283576534317812</v>
       </c>
       <c r="M8" t="n">
-        <v>10.45125262017728</v>
+        <v>10.45564464853255</v>
       </c>
       <c r="N8" t="n">
-        <v>183.9661639553553</v>
+        <v>183.9574378856192</v>
       </c>
       <c r="O8" t="n">
-        <v>13.56341269575454</v>
+        <v>13.56309101516388</v>
       </c>
       <c r="P8" t="n">
-        <v>358.2511688436043</v>
+        <v>358.2082255013588</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33134,28 +33186,28 @@
         <v>0.1405</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3524254158792065</v>
+        <v>-0.3499082711813462</v>
       </c>
       <c r="J9" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K9" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03332480281453776</v>
+        <v>0.0329633176074009</v>
       </c>
       <c r="M9" t="n">
-        <v>11.51299545877737</v>
+        <v>11.50369429732551</v>
       </c>
       <c r="N9" t="n">
-        <v>208.7172557594475</v>
+        <v>208.4312018141331</v>
       </c>
       <c r="O9" t="n">
-        <v>14.44705007118919</v>
+        <v>14.43714659529829</v>
       </c>
       <c r="P9" t="n">
-        <v>354.0670650576055</v>
+        <v>354.0424009908784</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33212,28 +33264,28 @@
         <v>0.1091</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4521691607592352</v>
+        <v>-0.4506097376342606</v>
       </c>
       <c r="J10" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K10" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05983879112853685</v>
+        <v>0.05964370740546188</v>
       </c>
       <c r="M10" t="n">
-        <v>11.01099697612274</v>
+        <v>10.99738152226962</v>
       </c>
       <c r="N10" t="n">
-        <v>184.5518643842707</v>
+        <v>184.2196047975927</v>
       </c>
       <c r="O10" t="n">
-        <v>13.58498672742343</v>
+        <v>13.57275229264841</v>
       </c>
       <c r="P10" t="n">
-        <v>354.8205919398849</v>
+        <v>354.8050305666433</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33290,28 +33342,28 @@
         <v>0.1015</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5057948670596191</v>
+        <v>-0.5062508932190906</v>
       </c>
       <c r="J11" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K11" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09849986266581179</v>
+        <v>0.09899894500488937</v>
       </c>
       <c r="M11" t="n">
-        <v>9.335826180676484</v>
+        <v>9.318789071529324</v>
       </c>
       <c r="N11" t="n">
-        <v>135.7013644867939</v>
+        <v>135.421210572431</v>
       </c>
       <c r="O11" t="n">
-        <v>11.64909286111128</v>
+        <v>11.63706193901326</v>
       </c>
       <c r="P11" t="n">
-        <v>356.3964614050287</v>
+        <v>356.4009691836181</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33349,7 +33401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L657"/>
+  <dimension ref="A1:L658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49842,7 +49894,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>-43.46439784498317,169.76056204811456</t>
+          <t>-43.46439784498316,169.76056204811456</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -68963,6 +69015,68 @@
         </is>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:25:42+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>-43.46584006101362,169.75871363132555</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>-43.465349433194724,169.75931047041854</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>-43.46481410188784,169.75982070223893</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-43.464275024479306,169.76031976058465</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-43.46371509627163,169.76077910587998</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-43.46315069652395,169.76122071009465</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>-43.46263446620903,169.76171835818917</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>-43.46207240299801,169.76214477490052</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>-43.46147187713225,169.7624921009213</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>-43.46086532903436,169.76282252773208</t>
+        </is>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L658"/>
+  <dimension ref="A1:L661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25528,6 +25528,126 @@
         </is>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>366.8754545454545</v>
+      </c>
+      <c r="C659" t="n">
+        <v>357.4733333333333</v>
+      </c>
+      <c r="D659" t="n">
+        <v>359.7633333333333</v>
+      </c>
+      <c r="E659" t="n">
+        <v>364.6614285714285</v>
+      </c>
+      <c r="F659" t="n">
+        <v>363.9711764705882</v>
+      </c>
+      <c r="G659" t="n">
+        <v>363.18</v>
+      </c>
+      <c r="H659" t="n">
+        <v>362.3177777777778</v>
+      </c>
+      <c r="I659" t="n">
+        <v>347.7</v>
+      </c>
+      <c r="J659" t="n">
+        <v>329.3711764705882</v>
+      </c>
+      <c r="K659" t="n">
+        <v>331.345</v>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:25:52+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>366.3590909090909</v>
+      </c>
+      <c r="C660" t="n">
+        <v>361.5966666666666</v>
+      </c>
+      <c r="D660" t="n">
+        <v>359.1266666666667</v>
+      </c>
+      <c r="E660" t="n">
+        <v>359.67</v>
+      </c>
+      <c r="F660" t="n">
+        <v>358.4258823529412</v>
+      </c>
+      <c r="G660" t="n">
+        <v>362.02</v>
+      </c>
+      <c r="H660" t="n">
+        <v>354.8988888888889</v>
+      </c>
+      <c r="I660" t="n">
+        <v>344.03</v>
+      </c>
+      <c r="J660" t="n">
+        <v>334.6758823529412</v>
+      </c>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:25:52+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>366.3727272727273</v>
+      </c>
+      <c r="C661" t="n">
+        <v>356.09</v>
+      </c>
+      <c r="D661" t="n">
+        <v>358.64</v>
+      </c>
+      <c r="E661" t="n">
+        <v>356.0871428571429</v>
+      </c>
+      <c r="F661" t="n">
+        <v>356.635294117647</v>
+      </c>
+      <c r="G661" t="n">
+        <v>359.49</v>
+      </c>
+      <c r="H661" t="n">
+        <v>359.5833333333333</v>
+      </c>
+      <c r="I661" t="n">
+        <v>349.28</v>
+      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25539,7 +25659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B692"/>
+  <dimension ref="A1:B695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32467,6 +32587,36 @@
       </c>
       <c r="B692" t="n">
         <v>0.61</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -32640,28 +32790,28 @@
         <v>0.0608</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5167274280597357</v>
+        <v>-0.5083892364429373</v>
       </c>
       <c r="J2" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K2" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08327974320437048</v>
+        <v>0.08144226243418839</v>
       </c>
       <c r="M2" t="n">
-        <v>10.64501087671924</v>
+        <v>10.63693341251889</v>
       </c>
       <c r="N2" t="n">
-        <v>173.371230850607</v>
+        <v>172.777306553158</v>
       </c>
       <c r="O2" t="n">
-        <v>13.16705095496357</v>
+        <v>13.14447817728638</v>
       </c>
       <c r="P2" t="n">
-        <v>371.5286539006599</v>
+        <v>371.4474174074898</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32718,28 +32868,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5069268390961681</v>
+        <v>-0.4924529630282926</v>
       </c>
       <c r="J3" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K3" t="n">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0833674066135256</v>
+        <v>0.07927844503221571</v>
       </c>
       <c r="M3" t="n">
-        <v>10.42852898544327</v>
+        <v>10.45718714060115</v>
       </c>
       <c r="N3" t="n">
-        <v>166.4063977177416</v>
+        <v>166.666153611662</v>
       </c>
       <c r="O3" t="n">
-        <v>12.89986037590104</v>
+        <v>12.90992461680788</v>
       </c>
       <c r="P3" t="n">
-        <v>357.0008499028079</v>
+        <v>356.8594704433324</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32796,28 +32946,28 @@
         <v>0.0838</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.391267195461036</v>
+        <v>-0.3747161005412824</v>
       </c>
       <c r="J4" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K4" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05114836366572473</v>
+        <v>0.04715083069099002</v>
       </c>
       <c r="M4" t="n">
-        <v>10.21978195058313</v>
+        <v>10.26071481930794</v>
       </c>
       <c r="N4" t="n">
-        <v>165.9022688140464</v>
+        <v>166.531090894281</v>
       </c>
       <c r="O4" t="n">
-        <v>12.8803054627616</v>
+        <v>12.90469259201012</v>
       </c>
       <c r="P4" t="n">
-        <v>352.4869879480163</v>
+        <v>352.3241169972727</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32874,28 +33024,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3043171595416321</v>
+        <v>-0.2885375580702559</v>
       </c>
       <c r="J5" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K5" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02992911156939204</v>
+        <v>0.02704664226254061</v>
       </c>
       <c r="M5" t="n">
-        <v>10.3715379737032</v>
+        <v>10.40105043855469</v>
       </c>
       <c r="N5" t="n">
-        <v>174.1402363216876</v>
+        <v>174.6282079232308</v>
       </c>
       <c r="O5" t="n">
-        <v>13.19622053171618</v>
+        <v>13.21469666406425</v>
       </c>
       <c r="P5" t="n">
-        <v>352.0303322486711</v>
+        <v>351.8762067184059</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32952,28 +33102,28 @@
         <v>0.0975</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2686748618316246</v>
+        <v>-0.2536269179531601</v>
       </c>
       <c r="J6" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K6" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02126885234249587</v>
+        <v>0.01906618173105112</v>
       </c>
       <c r="M6" t="n">
-        <v>11.01838442938942</v>
+        <v>11.03658252678439</v>
       </c>
       <c r="N6" t="n">
-        <v>193.9568610352101</v>
+        <v>194.2073403088442</v>
       </c>
       <c r="O6" t="n">
-        <v>13.92683959249944</v>
+        <v>13.93582937283764</v>
       </c>
       <c r="P6" t="n">
-        <v>351.3367764451889</v>
+        <v>351.1902769535155</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33030,28 +33180,28 @@
         <v>0.1338</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3084063170413543</v>
+        <v>-0.2946903358041972</v>
       </c>
       <c r="J7" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K7" t="n">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0292807222470971</v>
+        <v>0.0269203439894542</v>
       </c>
       <c r="M7" t="n">
-        <v>10.48364499652762</v>
+        <v>10.50498553237025</v>
       </c>
       <c r="N7" t="n">
-        <v>183.321914316687</v>
+        <v>183.403509972554</v>
       </c>
       <c r="O7" t="n">
-        <v>13.53964232602497</v>
+        <v>13.5426552039308</v>
       </c>
       <c r="P7" t="n">
-        <v>355.4188347130936</v>
+        <v>355.2849971676904</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33108,28 +33258,28 @@
         <v>0.1105</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3036413253755821</v>
+        <v>-0.2953343771601299</v>
       </c>
       <c r="J8" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K8" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0283576534317812</v>
+        <v>0.02707421988299208</v>
       </c>
       <c r="M8" t="n">
-        <v>10.45564464853255</v>
+        <v>10.44291967089904</v>
       </c>
       <c r="N8" t="n">
-        <v>183.9574378856192</v>
+        <v>183.4037751938527</v>
       </c>
       <c r="O8" t="n">
-        <v>13.56309101516388</v>
+        <v>13.54266499599886</v>
       </c>
       <c r="P8" t="n">
-        <v>358.2082255013588</v>
+        <v>358.1269641196463</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33186,28 +33336,28 @@
         <v>0.1405</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3499082711813462</v>
+        <v>-0.3479076181573663</v>
       </c>
       <c r="J9" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K9" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0329633176074009</v>
+        <v>0.03292643515857507</v>
       </c>
       <c r="M9" t="n">
-        <v>11.50369429732551</v>
+        <v>11.45300805890964</v>
       </c>
       <c r="N9" t="n">
-        <v>208.4312018141331</v>
+        <v>207.3200587450404</v>
       </c>
       <c r="O9" t="n">
-        <v>14.43714659529829</v>
+        <v>14.39861308408002</v>
       </c>
       <c r="P9" t="n">
-        <v>354.0424009908784</v>
+        <v>354.0227671858468</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33264,28 +33414,28 @@
         <v>0.1091</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4506097376342606</v>
+        <v>-0.4584597657364591</v>
       </c>
       <c r="J10" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K10" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05964370740546188</v>
+        <v>0.0618655152243851</v>
       </c>
       <c r="M10" t="n">
-        <v>10.99738152226962</v>
+        <v>10.9992395135907</v>
       </c>
       <c r="N10" t="n">
-        <v>184.2196047975927</v>
+        <v>184.0018935074225</v>
       </c>
       <c r="O10" t="n">
-        <v>13.57275229264841</v>
+        <v>13.56472976168057</v>
       </c>
       <c r="P10" t="n">
-        <v>354.8050305666433</v>
+        <v>354.8834088581795</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33342,28 +33492,28 @@
         <v>0.1015</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5062508932190906</v>
+        <v>-0.5106632953537222</v>
       </c>
       <c r="J11" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K11" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09899894500488937</v>
+        <v>0.1007028820156002</v>
       </c>
       <c r="M11" t="n">
-        <v>9.318789071529324</v>
+        <v>9.32305513972306</v>
       </c>
       <c r="N11" t="n">
-        <v>135.421210572431</v>
+        <v>135.4364704406303</v>
       </c>
       <c r="O11" t="n">
-        <v>11.63706193901326</v>
+        <v>11.63771757865907</v>
       </c>
       <c r="P11" t="n">
-        <v>356.4009691836181</v>
+        <v>356.4445920036195</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33401,7 +33551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L658"/>
+  <dimension ref="A1:L661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69077,6 +69227,180 @@
         </is>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>-43.46586552680779,169.75876159849966</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>-43.46537879139218,169.75936576948598</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>-43.4648307509243,169.75985249309107</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>-43.464265891295526,169.76030174366673</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>-43.463722936307285,169.7607948683259</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>-43.463182221041706,169.7612873017526</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>-43.46264009602614,169.76173382667872</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>-43.46208758867857,169.7621993500994</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>-43.46152666203726,169.76270335073622</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>-43.460896515536646,169.76294833976095</t>
+        </is>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:25:52+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>-43.46586826319922,169.7587667527501</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>-43.465356940558095,169.75932461126996</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>-43.46483409473609,169.75985887800675</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-43.464291543494575,169.76035234746792</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>-43.46375107028966,169.7608514319602</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-43.463187908198066,169.76129931518517</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>-43.46266992955511,169.7618157974463</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>-43.462099371208225,169.7622416949352</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>-43.46151065474518,169.76264162665265</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:25:52+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>-43.46586819093535,169.75876661663435</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>-43.465386122105436,169.759379577625</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>-43.4648366507386,169.7598637586234</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>-43.46430995667989,169.76038867100172</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>-43.463760154811666,169.76086969649933</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>-43.463200312078044,169.7613255169039</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>-43.462651092036126,169.76176403934824</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>-43.46208251608618,169.76218111990295</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L661"/>
+  <dimension ref="A1:L664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25648,6 +25648,130 @@
         </is>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:19:44+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>355.3563636363637</v>
+      </c>
+      <c r="C662" t="n">
+        <v>355</v>
+      </c>
+      <c r="D662" t="n">
+        <v>346.34</v>
+      </c>
+      <c r="E662" t="n">
+        <v>352.1771428571428</v>
+      </c>
+      <c r="F662" t="n">
+        <v>350.3341176470589</v>
+      </c>
+      <c r="G662" t="n">
+        <v>352.78</v>
+      </c>
+      <c r="H662" t="n">
+        <v>351.3766666666667</v>
+      </c>
+      <c r="I662" t="n">
+        <v>339.49</v>
+      </c>
+      <c r="J662" t="n">
+        <v>327.7341176470588</v>
+      </c>
+      <c r="K662" t="n">
+        <v>328.095</v>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:19:49+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>354.0245454545454</v>
+      </c>
+      <c r="C663" t="n">
+        <v>349.6</v>
+      </c>
+      <c r="D663" t="n">
+        <v>348.19</v>
+      </c>
+      <c r="E663" t="n">
+        <v>354.6628571428571</v>
+      </c>
+      <c r="F663" t="n">
+        <v>345.8423529411764</v>
+      </c>
+      <c r="G663" t="n">
+        <v>342.98</v>
+      </c>
+      <c r="H663" t="n">
+        <v>339.4533333333333</v>
+      </c>
+      <c r="I663" t="n">
+        <v>327.38</v>
+      </c>
+      <c r="J663" t="n">
+        <v>315.9023529411764</v>
+      </c>
+      <c r="K663" t="n">
+        <v>317.065</v>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:51+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>389.3236363636364</v>
+      </c>
+      <c r="C664" t="n">
+        <v>366.6233333333333</v>
+      </c>
+      <c r="D664" t="n">
+        <v>375.2033333333333</v>
+      </c>
+      <c r="E664" t="n">
+        <v>377.7</v>
+      </c>
+      <c r="F664" t="n">
+        <v>368.6064705882353</v>
+      </c>
+      <c r="G664" t="n">
+        <v>373.42</v>
+      </c>
+      <c r="H664" t="n">
+        <v>372.3044444444445</v>
+      </c>
+      <c r="I664" t="n">
+        <v>366.51</v>
+      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>348.56</v>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25659,7 +25783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B695"/>
+  <dimension ref="A1:B698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32617,6 +32741,36 @@
       </c>
       <c r="B695" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>
@@ -32790,28 +32944,28 @@
         <v>0.0608</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5083892364429373</v>
+        <v>-0.5005041965886725</v>
       </c>
       <c r="J2" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K2" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08144226243418839</v>
+        <v>0.07910519541782934</v>
       </c>
       <c r="M2" t="n">
-        <v>10.63693341251889</v>
+        <v>10.65402932207475</v>
       </c>
       <c r="N2" t="n">
-        <v>172.777306553158</v>
+        <v>173.6625721052159</v>
       </c>
       <c r="O2" t="n">
-        <v>13.14447817728638</v>
+        <v>13.17810958010351</v>
       </c>
       <c r="P2" t="n">
-        <v>371.4474174074898</v>
+        <v>371.3701575863336</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32868,28 +33022,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4924529630282926</v>
+        <v>-0.4796147928948409</v>
       </c>
       <c r="J3" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K3" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07927844503221571</v>
+        <v>0.07571633210084894</v>
       </c>
       <c r="M3" t="n">
-        <v>10.45718714060115</v>
+        <v>10.47558749036219</v>
       </c>
       <c r="N3" t="n">
-        <v>166.666153611662</v>
+        <v>166.9466261922461</v>
       </c>
       <c r="O3" t="n">
-        <v>12.90992461680788</v>
+        <v>12.92078272366833</v>
       </c>
       <c r="P3" t="n">
-        <v>356.8594704433324</v>
+        <v>356.7335849471427</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32946,28 +33100,28 @@
         <v>0.0838</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3747161005412824</v>
+        <v>-0.3610721912523776</v>
       </c>
       <c r="J4" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K4" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04715083069099002</v>
+        <v>0.04384035476724235</v>
       </c>
       <c r="M4" t="n">
-        <v>10.26071481930794</v>
+        <v>10.28472706608257</v>
       </c>
       <c r="N4" t="n">
-        <v>166.531090894281</v>
+        <v>167.643774540438</v>
       </c>
       <c r="O4" t="n">
-        <v>12.90469259201012</v>
+        <v>12.94773240920733</v>
       </c>
       <c r="P4" t="n">
-        <v>352.3241169972727</v>
+        <v>352.1892452579009</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33024,28 +33178,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2885375580702559</v>
+        <v>-0.2717760639295895</v>
       </c>
       <c r="J5" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K5" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02704664226254061</v>
+        <v>0.02400705424261507</v>
       </c>
       <c r="M5" t="n">
-        <v>10.40105043855469</v>
+        <v>10.43519082267154</v>
       </c>
       <c r="N5" t="n">
-        <v>174.6282079232308</v>
+        <v>175.963693871282</v>
       </c>
       <c r="O5" t="n">
-        <v>13.21469666406425</v>
+        <v>13.26513075213667</v>
       </c>
       <c r="P5" t="n">
-        <v>351.8762067184059</v>
+        <v>351.7118008128803</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33102,28 +33256,28 @@
         <v>0.0975</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2536269179531601</v>
+        <v>-0.2435629523784653</v>
       </c>
       <c r="J6" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K6" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01906618173105112</v>
+        <v>0.01769086935680808</v>
       </c>
       <c r="M6" t="n">
-        <v>11.03658252678439</v>
+        <v>11.02898001760128</v>
       </c>
       <c r="N6" t="n">
-        <v>194.2073403088442</v>
+        <v>194.2474862053347</v>
       </c>
       <c r="O6" t="n">
-        <v>13.93582937283764</v>
+        <v>13.93726968259331</v>
       </c>
       <c r="P6" t="n">
-        <v>351.1902769535155</v>
+        <v>351.0918767826673</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33180,28 +33334,28 @@
         <v>0.1338</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2946903358041972</v>
+        <v>-0.2862617592364027</v>
       </c>
       <c r="J7" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K7" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0269203439894542</v>
+        <v>0.02552402211976701</v>
       </c>
       <c r="M7" t="n">
-        <v>10.50498553237025</v>
+        <v>10.51410250930981</v>
       </c>
       <c r="N7" t="n">
-        <v>183.403509972554</v>
+        <v>183.6868723694824</v>
       </c>
       <c r="O7" t="n">
-        <v>13.5426552039308</v>
+        <v>13.55311301397145</v>
       </c>
       <c r="P7" t="n">
-        <v>355.2849971676904</v>
+        <v>355.2023896126981</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33258,28 +33412,28 @@
         <v>0.1105</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2953343771601299</v>
+        <v>-0.2915739278940363</v>
       </c>
       <c r="J8" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K8" t="n">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02707421988299208</v>
+        <v>0.0265177284875977</v>
       </c>
       <c r="M8" t="n">
-        <v>10.44291967089904</v>
+        <v>10.44612558293032</v>
       </c>
       <c r="N8" t="n">
-        <v>183.4037751938527</v>
+        <v>183.4902460652082</v>
       </c>
       <c r="O8" t="n">
-        <v>13.54266499599886</v>
+        <v>13.54585715505698</v>
       </c>
       <c r="P8" t="n">
-        <v>358.1269641196463</v>
+        <v>358.0899641311313</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33336,28 +33490,28 @@
         <v>0.1405</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3479076181573663</v>
+        <v>-0.3484294172511835</v>
       </c>
       <c r="J9" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K9" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03292643515857507</v>
+        <v>0.0331266213989746</v>
       </c>
       <c r="M9" t="n">
-        <v>11.45300805890964</v>
+        <v>11.47239047176072</v>
       </c>
       <c r="N9" t="n">
-        <v>207.3200587450404</v>
+        <v>207.6559507153549</v>
       </c>
       <c r="O9" t="n">
-        <v>14.39861308408002</v>
+        <v>14.41027240253823</v>
       </c>
       <c r="P9" t="n">
-        <v>354.0227671858468</v>
+        <v>354.0277791724874</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33414,28 +33568,28 @@
         <v>0.1091</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4584597657364591</v>
+        <v>-0.4733223931265169</v>
       </c>
       <c r="J10" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K10" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0618655152243851</v>
+        <v>0.06547982991973311</v>
       </c>
       <c r="M10" t="n">
-        <v>10.9992395135907</v>
+        <v>11.04208290775433</v>
       </c>
       <c r="N10" t="n">
-        <v>184.0018935074225</v>
+        <v>185.1777849205162</v>
       </c>
       <c r="O10" t="n">
-        <v>13.56472976168057</v>
+        <v>13.60800444299296</v>
       </c>
       <c r="P10" t="n">
-        <v>354.8834088581795</v>
+        <v>355.0323366100197</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33492,28 +33646,28 @@
         <v>0.1015</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5106632953537222</v>
+        <v>-0.5237455431091392</v>
       </c>
       <c r="J11" t="n">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K11" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1007028820156002</v>
+        <v>0.1051076477354399</v>
       </c>
       <c r="M11" t="n">
-        <v>9.32305513972306</v>
+        <v>9.358437790274895</v>
       </c>
       <c r="N11" t="n">
-        <v>135.4364704406303</v>
+        <v>136.529283888717</v>
       </c>
       <c r="O11" t="n">
-        <v>11.63771757865907</v>
+        <v>11.68457461308357</v>
       </c>
       <c r="P11" t="n">
-        <v>356.4445920036195</v>
+        <v>356.5743980416586</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33551,7 +33705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L661"/>
+  <dimension ref="A1:L664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69401,6 +69555,188 @@
         </is>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:19:44+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>-43.46592657044553,169.7588765801387</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>-43.46539189835306,169.7593904577755</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>-43.46490125101049,169.75998711133357</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>-43.4643300511205,169.7604283111837</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>-43.4637921237121,169.7609339704409</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>-43.46323320929734,169.76139500847174</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>-43.462684093424365,169.7618547142545</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>-43.462113946850586,169.76229407794398</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>-43.46153160196128,169.76272239910472</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>-43.46090593522506,169.762986340633</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:19:49+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>-43.46593362820264,169.7588898741402</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>-43.465420514611374,169.75944435946957</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>-43.46489153471746,169.7599685582666</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>-43.46431727643196,169.76040311062647</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>-43.46381491257508,169.76097978786706</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>-43.46328125583474,169.76149650151086</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>-43.46273204048478,169.76198645454178</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>-43.46215282581801,169.76243380455705</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>-43.46156730493532,169.76286007037842</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>-43.460937904106736,169.76311530983958</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:51+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>-43.46574656583256,169.7585375251783</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>-43.465330302658984,169.75927443621794</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>-43.4647496590087,169.759697650748</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>-43.464198882718094,169.76016955701087</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>-43.46369941917855,169.7607475870008</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>-43.4631320171267,169.76118125224048</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>-43.462599936620194,169.76162348485153</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>-43.462027198962225,169.76198231866445</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>-43.46084661996672,169.762747052273</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L664"/>
+  <dimension ref="A1:L669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25762,13 +25762,225 @@
       <c r="I664" t="n">
         <v>366.51</v>
       </c>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>364.0364705882353</v>
+      </c>
       <c r="K664" t="n">
         <v>348.56</v>
       </c>
       <c r="L664" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:03+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>360.2218181818182</v>
+      </c>
+      <c r="C665" t="n">
+        <v>355.2533333333333</v>
+      </c>
+      <c r="D665" t="n">
+        <v>359.2233333333333</v>
+      </c>
+      <c r="E665" t="n">
+        <v>361.0842857142857</v>
+      </c>
+      <c r="F665" t="n">
+        <v>356.7429411764706</v>
+      </c>
+      <c r="G665" t="n">
+        <v>353.04</v>
+      </c>
+      <c r="H665" t="n">
+        <v>350.8577777777778</v>
+      </c>
+      <c r="I665" t="n">
+        <v>339.38</v>
+      </c>
+      <c r="J665" t="n">
+        <v>329.5829411764706</v>
+      </c>
+      <c r="K665" t="n">
+        <v>326.665</v>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:53+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>365.9681818181818</v>
+      </c>
+      <c r="C666" t="n">
+        <v>357.5866666666666</v>
+      </c>
+      <c r="D666" t="n">
+        <v>361.5266666666666</v>
+      </c>
+      <c r="E666" t="n">
+        <v>359.9785714285715</v>
+      </c>
+      <c r="F666" t="n">
+        <v>354.3476470588236</v>
+      </c>
+      <c r="G666" t="n">
+        <v>347.47</v>
+      </c>
+      <c r="H666" t="n">
+        <v>350.2755555555556</v>
+      </c>
+      <c r="I666" t="n">
+        <v>338.84</v>
+      </c>
+      <c r="J666" t="n">
+        <v>332.6176470588235</v>
+      </c>
+      <c r="K666" t="n">
+        <v>329.355</v>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:09+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>373.7827272727272</v>
+      </c>
+      <c r="C667" t="n">
+        <v>353.6566666666667</v>
+      </c>
+      <c r="D667" t="n">
+        <v>354.0666666666667</v>
+      </c>
+      <c r="E667" t="n">
+        <v>354.3014285714286</v>
+      </c>
+      <c r="F667" t="n">
+        <v>354.0864705882353</v>
+      </c>
+      <c r="G667" t="n">
+        <v>349.91</v>
+      </c>
+      <c r="H667" t="n">
+        <v>347.4655555555556</v>
+      </c>
+      <c r="I667" t="n">
+        <v>337.67</v>
+      </c>
+      <c r="J667" t="n">
+        <v>328.7464705882353</v>
+      </c>
+      <c r="K667" t="n">
+        <v>334.835</v>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>366.960909090909</v>
+      </c>
+      <c r="C668" t="n">
+        <v>351.05</v>
+      </c>
+      <c r="D668" t="n">
+        <v>340.39</v>
+      </c>
+      <c r="E668" t="n">
+        <v>346.46</v>
+      </c>
+      <c r="F668" t="n">
+        <v>350.8729411764706</v>
+      </c>
+      <c r="G668" t="n">
+        <v>349.91</v>
+      </c>
+      <c r="H668" t="n">
+        <v>353.7566666666667</v>
+      </c>
+      <c r="I668" t="n">
+        <v>337.24</v>
+      </c>
+      <c r="J668" t="n">
+        <v>321.1929411764706</v>
+      </c>
+      <c r="K668" t="n">
+        <v>339.435</v>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:26:13+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>352.5018181818182</v>
+      </c>
+      <c r="C669" t="n">
+        <v>342.6833333333333</v>
+      </c>
+      <c r="D669" t="n">
+        <v>346.9833333333333</v>
+      </c>
+      <c r="E669" t="n">
+        <v>356.9457142857143</v>
+      </c>
+      <c r="F669" t="n">
+        <v>353.7447058823529</v>
+      </c>
+      <c r="G669" t="n">
+        <v>358.48</v>
+      </c>
+      <c r="H669" t="n">
+        <v>366.8611111111111</v>
+      </c>
+      <c r="I669" t="n">
+        <v>359.58</v>
+      </c>
+      <c r="J669" t="n">
+        <v>346.2847058823529</v>
+      </c>
+      <c r="K669" t="n">
+        <v>344.95</v>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -25783,7 +25995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B698"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32771,6 +32983,56 @@
       </c>
       <c r="B698" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -32944,28 +33206,28 @@
         <v>0.0608</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5005041965886725</v>
+        <v>-0.4916168544983114</v>
       </c>
       <c r="J2" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K2" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07910519541782934</v>
+        <v>0.07743555377050193</v>
       </c>
       <c r="M2" t="n">
-        <v>10.65402932207475</v>
+        <v>10.63353710731229</v>
       </c>
       <c r="N2" t="n">
-        <v>173.6625721052159</v>
+        <v>172.793647814182</v>
       </c>
       <c r="O2" t="n">
-        <v>13.17810958010351</v>
+        <v>13.14509976432975</v>
       </c>
       <c r="P2" t="n">
-        <v>371.3701575863336</v>
+        <v>371.2830116548213</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33022,28 +33284,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4796147928948409</v>
+        <v>-0.4670731113429447</v>
       </c>
       <c r="J3" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K3" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07571633210084894</v>
+        <v>0.07291098438290355</v>
       </c>
       <c r="M3" t="n">
-        <v>10.47558749036219</v>
+        <v>10.45951574680023</v>
       </c>
       <c r="N3" t="n">
-        <v>166.9466261922461</v>
+        <v>166.1806613564393</v>
       </c>
       <c r="O3" t="n">
-        <v>12.92078272366833</v>
+        <v>12.89110784054029</v>
       </c>
       <c r="P3" t="n">
-        <v>356.7335849471427</v>
+        <v>356.6102751666326</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33100,28 +33362,28 @@
         <v>0.0838</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3610721912523776</v>
+        <v>-0.3457345940187833</v>
       </c>
       <c r="J4" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K4" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04384035476724235</v>
+        <v>0.0406661340619634</v>
       </c>
       <c r="M4" t="n">
-        <v>10.28472706608257</v>
+        <v>10.29024448203619</v>
       </c>
       <c r="N4" t="n">
-        <v>167.643774540438</v>
+        <v>167.4948956294129</v>
       </c>
       <c r="O4" t="n">
-        <v>12.94773240920733</v>
+        <v>12.94198190500253</v>
       </c>
       <c r="P4" t="n">
-        <v>352.1892452579009</v>
+        <v>352.0373085795726</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33178,28 +33440,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2717760639295895</v>
+        <v>-0.2540300716728096</v>
       </c>
       <c r="J5" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K5" t="n">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02400705424261507</v>
+        <v>0.02123610066893222</v>
       </c>
       <c r="M5" t="n">
-        <v>10.43519082267154</v>
+        <v>10.43734663849931</v>
       </c>
       <c r="N5" t="n">
-        <v>175.963693871282</v>
+        <v>175.7062258294574</v>
       </c>
       <c r="O5" t="n">
-        <v>13.26513075213667</v>
+        <v>13.25542250663695</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7118008128803</v>
+        <v>351.5372437403455</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33256,28 +33518,28 @@
         <v>0.0975</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2435629523784653</v>
+        <v>-0.2289138498662238</v>
       </c>
       <c r="J6" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K6" t="n">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01769086935680808</v>
+        <v>0.01586152378624661</v>
       </c>
       <c r="M6" t="n">
-        <v>11.02898001760128</v>
+        <v>11.00583447984912</v>
       </c>
       <c r="N6" t="n">
-        <v>194.2474862053347</v>
+        <v>193.2707929328916</v>
       </c>
       <c r="O6" t="n">
-        <v>13.93726968259331</v>
+        <v>13.90218662415706</v>
       </c>
       <c r="P6" t="n">
-        <v>351.0918767826673</v>
+        <v>350.9482348812737</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33334,28 +33596,28 @@
         <v>0.1338</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2862617592364027</v>
+        <v>-0.2799642182151806</v>
       </c>
       <c r="J7" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K7" t="n">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02552402211976701</v>
+        <v>0.02481021674905182</v>
       </c>
       <c r="M7" t="n">
-        <v>10.51410250930981</v>
+        <v>10.45839023537964</v>
       </c>
       <c r="N7" t="n">
-        <v>183.6868723694824</v>
+        <v>182.3268501918012</v>
       </c>
       <c r="O7" t="n">
-        <v>13.55311301397145</v>
+        <v>13.50284600340985</v>
       </c>
       <c r="P7" t="n">
-        <v>355.2023896126981</v>
+        <v>355.1404418544411</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33412,28 +33674,28 @@
         <v>0.1105</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2915739278940363</v>
+        <v>-0.2863302356556952</v>
       </c>
       <c r="J8" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K8" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0265177284875977</v>
+        <v>0.02594569505235367</v>
       </c>
       <c r="M8" t="n">
-        <v>10.44612558293032</v>
+        <v>10.39296757746023</v>
       </c>
       <c r="N8" t="n">
-        <v>183.4902460652082</v>
+        <v>182.3669109031917</v>
       </c>
       <c r="O8" t="n">
-        <v>13.54585715505698</v>
+        <v>13.50432933925975</v>
       </c>
       <c r="P8" t="n">
-        <v>358.0899641311313</v>
+        <v>358.038176525306</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33490,28 +33752,28 @@
         <v>0.1405</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3484294172511835</v>
+        <v>-0.3523337188346921</v>
       </c>
       <c r="J9" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K9" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0331266213989746</v>
+        <v>0.03429668673079567</v>
       </c>
       <c r="M9" t="n">
-        <v>11.47239047176072</v>
+        <v>11.44550545890811</v>
       </c>
       <c r="N9" t="n">
-        <v>207.6559507153549</v>
+        <v>206.4805614374918</v>
       </c>
       <c r="O9" t="n">
-        <v>14.41027240253823</v>
+        <v>14.36943149319039</v>
       </c>
       <c r="P9" t="n">
-        <v>354.0277791724874</v>
+        <v>354.0662021267944</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33568,28 +33830,28 @@
         <v>0.1091</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4733223931265169</v>
+        <v>-0.4849481731760807</v>
       </c>
       <c r="J10" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K10" t="n">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06547982991973311</v>
+        <v>0.06892048793207939</v>
       </c>
       <c r="M10" t="n">
-        <v>11.04208290775433</v>
+        <v>11.078329173739</v>
       </c>
       <c r="N10" t="n">
-        <v>185.1777849205162</v>
+        <v>185.7368751614627</v>
       </c>
       <c r="O10" t="n">
-        <v>13.60800444299296</v>
+        <v>13.62853165830651</v>
       </c>
       <c r="P10" t="n">
-        <v>355.0323366100197</v>
+        <v>355.1493950792978</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33646,28 +33908,28 @@
         <v>0.1015</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5237455431091392</v>
+        <v>-0.5378475173706435</v>
       </c>
       <c r="J11" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="K11" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1051076477354399</v>
+        <v>0.1112674431084081</v>
       </c>
       <c r="M11" t="n">
-        <v>9.358437790274895</v>
+        <v>9.347730527246906</v>
       </c>
       <c r="N11" t="n">
-        <v>136.529283888717</v>
+        <v>136.2075892559984</v>
       </c>
       <c r="O11" t="n">
-        <v>11.68457461308357</v>
+        <v>11.67080071186199</v>
       </c>
       <c r="P11" t="n">
-        <v>356.5743980416586</v>
+        <v>356.7148379332485</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33705,7 +33967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L664"/>
+  <dimension ref="A1:L669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69725,7 +69987,11 @@
           <t>-43.462027198962225,169.76198231866445</t>
         </is>
       </c>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>-43.46142205669122,169.762299995628</t>
+        </is>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>-43.46084661996672,169.762747052273</t>
@@ -69734,6 +70000,316 @@
       <c r="L664" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:03+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>-43.46590078673622,169.75882801395645</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>-43.465390555861354,169.75938792905532</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>-43.464833587036935,169.75985790856924</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>-43.46428427512892,169.76033800923705</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>-43.46375960866603,169.76086859846677</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>-43.46323193459213,169.76139231580152</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>-43.46268618002484,169.76186044742624</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>-43.46211430000462,169.76229534713616</t>
+        </is>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>-43.461526023024234,169.7627008867003</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>-43.46091007988407,169.76300306102067</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:53+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>-43.46587033476301,169.75877065473577</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>-43.46537819080357,169.7593646382169</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>-43.46482148978937,169.75983480921843</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>-43.46428995766948,169.76034921912634</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>-43.46377176115,169.76089303119625</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>-43.463259242686895,169.76145000110827</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>-43.462688521306426,169.76186688036464</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>-43.46211603366971,169.76230157771613</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>-43.461516865606754,169.7626655757025</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>-43.460902283285776,169.76297160798575</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:09+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>-43.46582892273373,169.7586926513712</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>-43.465399017091165,169.75940386664888</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>-43.46486067014975,169.75990962306872</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>-43.46431913390137,169.76040677484477</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>-43.46377308622407,169.7608956952764</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-43.46324728007785,169.76142473141618</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>-43.46269982111284,169.76189792789316</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>-43.46211978994297,169.76231507730733</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>-43.46152854712542,169.76271061964255</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>-43.46088640022678,169.76290753268452</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>-43.46586507395424,169.75876074550757</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>-43.46541283061843,169.75942988586146</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>-43.464932500690445,169.76004678204933</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>-43.46435943288421,169.76048627250626</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>-43.46378939000239,169.7609284742722</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>-43.46324728007785,169.76142473141618</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>-43.46267452276079,169.76182841778456</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>-43.46212117045326,169.762320038696</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>-43.46155134032619,169.76279851047684</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>-43.46087306770502,169.76285374687515</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:26:13+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>-43.46594169765009,169.75890507377036</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>-43.46545716811709,169.75951340029508</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>-43.4648978721918,169.75998065954562</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>-43.46430554427085,169.760379966676</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>-43.463774820161014,169.76089918138143</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>-43.463205263823006,169.7613359768816</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>-43.4626218259219,169.76168362775795</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>-43.46204944785157,169.76206227756137</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>-43.46147562425859,169.76250654972776</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>-43.46085708313832,169.76278926239974</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L669"/>
+  <dimension ref="A1:L670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25984,6 +25984,48 @@
         </is>
       </c>
     </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:16+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>352.1545454545454</v>
+      </c>
+      <c r="C670" t="n">
+        <v>342.83</v>
+      </c>
+      <c r="D670" t="n">
+        <v>339.01</v>
+      </c>
+      <c r="E670" t="n">
+        <v>343.0414285714286</v>
+      </c>
+      <c r="F670" t="n">
+        <v>352.6270588235294</v>
+      </c>
+      <c r="G670" t="n">
+        <v>346.65</v>
+      </c>
+      <c r="H670" t="n">
+        <v>355.8366666666667</v>
+      </c>
+      <c r="I670" t="n">
+        <v>342.95</v>
+      </c>
+      <c r="J670" t="n">
+        <v>340.3070588235294</v>
+      </c>
+      <c r="K670" t="n">
+        <v>329.875</v>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25995,7 +26037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B703"/>
+  <dimension ref="A1:B704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33033,6 +33075,16 @@
       </c>
       <c r="B703" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -33206,28 +33258,28 @@
         <v>0.0608</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4916168544983114</v>
+        <v>-0.4936625801994018</v>
       </c>
       <c r="J2" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K2" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07743555377050193</v>
+        <v>0.07824686715934492</v>
       </c>
       <c r="M2" t="n">
-        <v>10.63353710731229</v>
+        <v>10.62402650294115</v>
       </c>
       <c r="N2" t="n">
-        <v>172.793647814182</v>
+        <v>172.5452356632288</v>
       </c>
       <c r="O2" t="n">
-        <v>13.14509976432975</v>
+        <v>13.13564751594792</v>
       </c>
       <c r="P2" t="n">
-        <v>371.2830116548213</v>
+        <v>371.3032395738801</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33284,28 +33336,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4670731113429447</v>
+        <v>-0.467589642320493</v>
       </c>
       <c r="J3" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K3" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07291098438290355</v>
+        <v>0.07329042176808731</v>
       </c>
       <c r="M3" t="n">
-        <v>10.45951574680023</v>
+        <v>10.44277781984347</v>
       </c>
       <c r="N3" t="n">
-        <v>166.1806613564393</v>
+        <v>165.8747193629821</v>
       </c>
       <c r="O3" t="n">
-        <v>12.89110784054029</v>
+        <v>12.87923597745542</v>
       </c>
       <c r="P3" t="n">
-        <v>356.6102751666326</v>
+        <v>356.6153960906981</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33362,28 +33414,28 @@
         <v>0.0838</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3457345940187833</v>
+        <v>-0.3470206550461737</v>
       </c>
       <c r="J4" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K4" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0406661340619634</v>
+        <v>0.04108193946408678</v>
       </c>
       <c r="M4" t="n">
-        <v>10.29024448203619</v>
+        <v>10.27838088221012</v>
       </c>
       <c r="N4" t="n">
-        <v>167.4948956294129</v>
+        <v>167.2162719399561</v>
       </c>
       <c r="O4" t="n">
-        <v>12.94198190500253</v>
+        <v>12.93121308849081</v>
       </c>
       <c r="P4" t="n">
-        <v>352.0373085795726</v>
+        <v>352.0501522076663</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33440,28 +33492,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2540300716728096</v>
+        <v>-0.2546304145243818</v>
       </c>
       <c r="J5" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K5" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02123610066893222</v>
+        <v>0.02140562610515684</v>
       </c>
       <c r="M5" t="n">
-        <v>10.43734663849931</v>
+        <v>10.42204296834773</v>
       </c>
       <c r="N5" t="n">
-        <v>175.7062258294574</v>
+        <v>175.3975314035679</v>
       </c>
       <c r="O5" t="n">
-        <v>13.25542250663695</v>
+        <v>13.24377330686266</v>
       </c>
       <c r="P5" t="n">
-        <v>351.5372437403455</v>
+        <v>351.543192032957</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33518,28 +33570,28 @@
         <v>0.0975</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2289138498662238</v>
+        <v>-0.226455821747693</v>
       </c>
       <c r="J6" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K6" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01586152378624661</v>
+        <v>0.0155720912459888</v>
       </c>
       <c r="M6" t="n">
-        <v>11.00583447984912</v>
+        <v>10.99868183418427</v>
       </c>
       <c r="N6" t="n">
-        <v>193.2707929328916</v>
+        <v>193.0280375686145</v>
       </c>
       <c r="O6" t="n">
-        <v>13.90218662415706</v>
+        <v>13.89345304697916</v>
       </c>
       <c r="P6" t="n">
-        <v>350.9482348812737</v>
+        <v>350.9239565790263</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33596,28 +33648,28 @@
         <v>0.1338</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2799642182151806</v>
+        <v>-0.2803387134680544</v>
       </c>
       <c r="J7" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K7" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02481021674905182</v>
+        <v>0.02495689031815895</v>
       </c>
       <c r="M7" t="n">
-        <v>10.45839023537964</v>
+        <v>10.44193505806349</v>
       </c>
       <c r="N7" t="n">
-        <v>182.3268501918012</v>
+        <v>182.0071699199717</v>
       </c>
       <c r="O7" t="n">
-        <v>13.50284600340985</v>
+        <v>13.4910032955289</v>
       </c>
       <c r="P7" t="n">
-        <v>355.1404418544411</v>
+        <v>355.1441485471785</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33674,28 +33726,28 @@
         <v>0.1105</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2863302356556952</v>
+        <v>-0.2846619811408558</v>
       </c>
       <c r="J8" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K8" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02594569505235367</v>
+        <v>0.02572917923238116</v>
       </c>
       <c r="M8" t="n">
-        <v>10.39296757746023</v>
+        <v>10.38338632938242</v>
       </c>
       <c r="N8" t="n">
-        <v>182.3669109031917</v>
+        <v>182.0921439619131</v>
       </c>
       <c r="O8" t="n">
-        <v>13.50432933925975</v>
+        <v>13.49415221352987</v>
       </c>
       <c r="P8" t="n">
-        <v>358.038176525306</v>
+        <v>358.0216198773386</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33752,28 +33804,28 @@
         <v>0.1405</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3523337188346921</v>
+        <v>-0.3529573824455521</v>
       </c>
       <c r="J9" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K9" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03429668673079567</v>
+        <v>0.03452752437370443</v>
       </c>
       <c r="M9" t="n">
-        <v>11.44550545890811</v>
+        <v>11.42848233438021</v>
       </c>
       <c r="N9" t="n">
-        <v>206.4805614374918</v>
+        <v>206.1104457922239</v>
       </c>
       <c r="O9" t="n">
-        <v>14.36943149319039</v>
+        <v>14.35654714031978</v>
       </c>
       <c r="P9" t="n">
-        <v>354.0662021267944</v>
+        <v>354.072408627198</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33830,28 +33882,28 @@
         <v>0.1091</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4849481731760807</v>
+        <v>-0.4856994010793358</v>
       </c>
       <c r="J10" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K10" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06892048793207939</v>
+        <v>0.06934483616296505</v>
       </c>
       <c r="M10" t="n">
-        <v>11.078329173739</v>
+        <v>11.06098744071923</v>
       </c>
       <c r="N10" t="n">
-        <v>185.7368751614627</v>
+        <v>185.3812656552098</v>
       </c>
       <c r="O10" t="n">
-        <v>13.62853165830651</v>
+        <v>13.61547889922385</v>
       </c>
       <c r="P10" t="n">
-        <v>355.1493950792978</v>
+        <v>355.1570118461373</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33908,28 +33960,28 @@
         <v>0.1015</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5378475173706435</v>
+        <v>-0.5424445250445438</v>
       </c>
       <c r="J11" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K11" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1112674431084081</v>
+        <v>0.1130915006590227</v>
       </c>
       <c r="M11" t="n">
-        <v>9.347730527246906</v>
+        <v>9.353288298560575</v>
       </c>
       <c r="N11" t="n">
-        <v>136.2075892559984</v>
+        <v>136.2620407696288</v>
       </c>
       <c r="O11" t="n">
-        <v>11.67080071186199</v>
+        <v>11.67313328843755</v>
       </c>
       <c r="P11" t="n">
-        <v>356.7148379332485</v>
+        <v>356.7610052887812</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33967,7 +34019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L669"/>
+  <dimension ref="A1:L670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70313,6 +70365,68 @@
         </is>
       </c>
     </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:16+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>-43.46594353796561,169.75890854019403</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>-43.46545639088654,169.75951193629598</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>-43.46493974851117,169.76006062165283</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>-43.464377001726646,169.76052093056575</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>-43.46378049052209,169.7609105817264</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>-43.463263262906764,169.7614584933841</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>-43.46266615847863,169.76180543600276</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>-43.46210283854377,169.76225415608909</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>-43.4614936622716,169.7625761038856</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>-43.460900776135695,169.76296552784615</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L670"/>
+  <dimension ref="A1:L672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26026,6 +26026,90 @@
         </is>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:26:25+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>364.3309090909091</v>
+      </c>
+      <c r="C671" t="n">
+        <v>360.39</v>
+      </c>
+      <c r="D671" t="n">
+        <v>354.11</v>
+      </c>
+      <c r="E671" t="n">
+        <v>356.7171428571428</v>
+      </c>
+      <c r="F671" t="n">
+        <v>358.2858823529411</v>
+      </c>
+      <c r="G671" t="n">
+        <v>365.56</v>
+      </c>
+      <c r="H671" t="n">
+        <v>366.1766666666667</v>
+      </c>
+      <c r="I671" t="n">
+        <v>360.01</v>
+      </c>
+      <c r="J671" t="n">
+        <v>357.5658823529412</v>
+      </c>
+      <c r="K671" t="n">
+        <v>355.2</v>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:21+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>355.0454545454546</v>
+      </c>
+      <c r="C672" t="n">
+        <v>350.05</v>
+      </c>
+      <c r="D672" t="n">
+        <v>346.97</v>
+      </c>
+      <c r="E672" t="n">
+        <v>344.18</v>
+      </c>
+      <c r="F672" t="n">
+        <v>335.0782352941176</v>
+      </c>
+      <c r="G672" t="n">
+        <v>346.79</v>
+      </c>
+      <c r="H672" t="n">
+        <v>350.84</v>
+      </c>
+      <c r="I672" t="n">
+        <v>350.35</v>
+      </c>
+      <c r="J672" t="n">
+        <v>335.2582352941176</v>
+      </c>
+      <c r="K672" t="n">
+        <v>339.805</v>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26037,7 +26121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B704"/>
+  <dimension ref="A1:B706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33085,6 +33169,26 @@
       </c>
       <c r="B704" t="n">
         <v>-0.03</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -34019,7 +34123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L670"/>
+  <dimension ref="A1:L672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70427,6 +70531,130 @@
         </is>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:26:25+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>-43.465879011241604,169.75878699770664</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>-43.46536333506395,169.7593366559509</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>-43.464860442560656,169.75990918849288</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>-43.46430671895551,169.76038228396726</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>-43.463751780577624,169.76085286000216</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>-43.46317055256197,169.76126265351016</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>-43.46262457827938,169.76169119012698</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>-43.46204806733043,169.76205731618504</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>-43.46144158232275,169.7623752853673</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>-43.46082737464749,169.76266941374215</t>
+        </is>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:21+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>-43.46592821805859,169.7588796835845</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>-43.465418129924096,169.75943986765975</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>-43.46489794221913,169.75998079326143</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>-43.46437115034145,169.76050938753238</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>-43.46386952400298,169.7610895854274</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>-43.4632625765278,169.7614570434833</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>-43.46268625151437,169.76186064385183</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>-43.46207908084797,169.7621687741388</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>-43.46150889745565,169.76263485055773</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>-43.46087199530546,169.76284942062637</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -33362,28 +33362,28 @@
         <v>0.0608</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4936625801994018</v>
+        <v>-0.4928343015749396</v>
       </c>
       <c r="J2" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K2" t="n">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07824686715934492</v>
+        <v>0.07846028299435981</v>
       </c>
       <c r="M2" t="n">
-        <v>10.62402650294115</v>
+        <v>10.60238650485859</v>
       </c>
       <c r="N2" t="n">
-        <v>172.5452356632288</v>
+        <v>171.9908672321004</v>
       </c>
       <c r="O2" t="n">
-        <v>13.13564751594792</v>
+        <v>13.11452886046999</v>
       </c>
       <c r="P2" t="n">
-        <v>371.3032395738801</v>
+        <v>371.2950556637019</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33440,28 +33440,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.467589642320493</v>
+        <v>-0.4605934074303366</v>
       </c>
       <c r="J3" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K3" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07329042176808731</v>
+        <v>0.07150695887973901</v>
       </c>
       <c r="M3" t="n">
-        <v>10.44277781984347</v>
+        <v>10.44590153644149</v>
       </c>
       <c r="N3" t="n">
-        <v>165.8747193629821</v>
+        <v>165.7882979662509</v>
       </c>
       <c r="O3" t="n">
-        <v>12.87923597745542</v>
+        <v>12.87588047343757</v>
       </c>
       <c r="P3" t="n">
-        <v>356.6153960906981</v>
+        <v>356.5459370690374</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33518,28 +33518,28 @@
         <v>0.0838</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3470206550461737</v>
+        <v>-0.342197993108903</v>
       </c>
       <c r="J4" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K4" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04108193946408678</v>
+        <v>0.04019191456827653</v>
       </c>
       <c r="M4" t="n">
-        <v>10.27838088221012</v>
+        <v>10.26930731858174</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2162719399561</v>
+        <v>166.8575765199575</v>
       </c>
       <c r="O4" t="n">
-        <v>12.93121308849081</v>
+        <v>12.91733627803958</v>
       </c>
       <c r="P4" t="n">
-        <v>352.0501522076663</v>
+        <v>352.0019215309003</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33596,28 +33596,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2546304145243818</v>
+        <v>-0.2510785768233014</v>
       </c>
       <c r="J5" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K5" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02140562610515684</v>
+        <v>0.02093575964654937</v>
       </c>
       <c r="M5" t="n">
-        <v>10.42204296834773</v>
+        <v>10.40683404909709</v>
       </c>
       <c r="N5" t="n">
-        <v>175.3975314035679</v>
+        <v>175.0206253284936</v>
       </c>
       <c r="O5" t="n">
-        <v>13.24377330686266</v>
+        <v>13.22953609649611</v>
       </c>
       <c r="P5" t="n">
-        <v>351.543192032957</v>
+        <v>351.5079674797417</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33674,28 +33674,28 @@
         <v>0.0975</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.226455821747693</v>
+        <v>-0.2253951023340198</v>
       </c>
       <c r="J6" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K6" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0155720912459888</v>
+        <v>0.01549367510376187</v>
       </c>
       <c r="M6" t="n">
-        <v>10.99868183418427</v>
+        <v>11.00035610575737</v>
       </c>
       <c r="N6" t="n">
-        <v>193.0280375686145</v>
+        <v>192.8285442240147</v>
       </c>
       <c r="O6" t="n">
-        <v>13.89345304697916</v>
+        <v>13.88627178993752</v>
       </c>
       <c r="P6" t="n">
-        <v>350.9239565790263</v>
+        <v>350.9135103767405</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33752,28 +33752,28 @@
         <v>0.1338</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2803387134680544</v>
+        <v>-0.2750834465983642</v>
       </c>
       <c r="J7" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K7" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02495689031815895</v>
+        <v>0.02413910100270256</v>
       </c>
       <c r="M7" t="n">
-        <v>10.44193505806349</v>
+        <v>10.4390985455262</v>
       </c>
       <c r="N7" t="n">
-        <v>182.0071699199717</v>
+        <v>181.9197169275617</v>
       </c>
       <c r="O7" t="n">
-        <v>13.4910032955289</v>
+        <v>13.48776174639668</v>
       </c>
       <c r="P7" t="n">
-        <v>355.1441485471785</v>
+        <v>355.0920846427264</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33830,28 +33830,28 @@
         <v>0.1105</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2846619811408558</v>
+        <v>-0.2796885582993375</v>
       </c>
       <c r="J8" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K8" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02572917923238116</v>
+        <v>0.02496514602708089</v>
       </c>
       <c r="M8" t="n">
-        <v>10.38338632938242</v>
+        <v>10.37312195017486</v>
       </c>
       <c r="N8" t="n">
-        <v>182.0921439619131</v>
+        <v>181.8757438198759</v>
       </c>
       <c r="O8" t="n">
-        <v>13.49415221352987</v>
+        <v>13.48613153650356</v>
       </c>
       <c r="P8" t="n">
-        <v>358.0216198773386</v>
+        <v>357.9722096695465</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33908,28 +33908,28 @@
         <v>0.1405</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3529573824455521</v>
+        <v>-0.3462890003700795</v>
       </c>
       <c r="J9" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K9" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03452752437370443</v>
+        <v>0.03342560550783391</v>
       </c>
       <c r="M9" t="n">
-        <v>11.42848233438021</v>
+        <v>11.42048828202549</v>
       </c>
       <c r="N9" t="n">
-        <v>206.1104457922239</v>
+        <v>205.8298968317266</v>
       </c>
       <c r="O9" t="n">
-        <v>14.35654714031978</v>
+        <v>14.34677304594056</v>
       </c>
       <c r="P9" t="n">
-        <v>354.072408627198</v>
+        <v>354.0059561802692</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33986,28 +33986,28 @@
         <v>0.1091</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4856994010793358</v>
+        <v>-0.4830085053075506</v>
       </c>
       <c r="J10" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K10" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06934483616296505</v>
+        <v>0.06889397345127757</v>
       </c>
       <c r="M10" t="n">
-        <v>11.06098744071923</v>
+        <v>11.06086384264063</v>
       </c>
       <c r="N10" t="n">
-        <v>185.3812656552098</v>
+        <v>185.2025341013041</v>
       </c>
       <c r="O10" t="n">
-        <v>13.61547889922385</v>
+        <v>13.60891377374786</v>
       </c>
       <c r="P10" t="n">
-        <v>355.1570118461373</v>
+        <v>355.1297340879756</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34064,28 +34064,28 @@
         <v>0.1015</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5424445250445438</v>
+        <v>-0.5389457506362855</v>
       </c>
       <c r="J11" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K11" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1130915006590227</v>
+        <v>0.1122921634000924</v>
       </c>
       <c r="M11" t="n">
-        <v>9.353288298560575</v>
+        <v>9.347650437962272</v>
       </c>
       <c r="N11" t="n">
-        <v>136.2620407696288</v>
+        <v>136.0454385303163</v>
       </c>
       <c r="O11" t="n">
-        <v>11.67313328843755</v>
+        <v>11.66385178790935</v>
       </c>
       <c r="P11" t="n">
-        <v>356.7610052887812</v>
+        <v>356.7258443652883</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -33353,13 +33353,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0493</v>
+        <v>0.075</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0608</v>
+        <v>0.0915</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4928644492202345</v>
@@ -33431,13 +33431,13 @@
         <v>0.8888335806321933</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0692</v>
+        <v>0.0872</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0871</v>
+        <v>0.116</v>
       </c>
       <c r="I3" t="n">
         <v>-0.4606034931425685</v>
@@ -33509,13 +33509,13 @@
         <v>0.7776671612618306</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0668</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0838</v>
+        <v>0.1209</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3422055401576761</v>
@@ -33587,13 +33587,13 @@
         <v>0.6665135383248312</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0635</v>
+        <v>0.0815</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.0999</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2510573581879985</v>
@@ -33665,13 +33665,13 @@
         <v>0.5553471189558939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0769</v>
+        <v>0.0854</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0975</v>
+        <v>0.1118</v>
       </c>
       <c r="I6" t="n">
         <v>-0.22540413622246</v>
@@ -33743,13 +33743,13 @@
         <v>0.4441806995869568</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.082</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1338</v>
+        <v>0.1316</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2750834465983644</v>
@@ -33821,13 +33821,13 @@
         <v>0.3334716919671288</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.135</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0759</v>
+        <v>0.1095</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1105</v>
+        <v>0.1784</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2796744261522098</v>
@@ -33899,13 +33899,13 @@
         <v>0.2223052725990389</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0799</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1405</v>
+        <v>0.1232</v>
       </c>
       <c r="I9" t="n">
         <v>-0.3462890003700796</v>
@@ -33977,13 +33977,13 @@
         <v>0.111166419367804</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0672</v>
+        <v>0.0877</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1091</v>
+        <v>0.1114</v>
       </c>
       <c r="I10" t="n">
         <v>-0.4830131918455891</v>
@@ -34055,13 +34055,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.0974</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1015</v>
+        <v>0.1254</v>
       </c>
       <c r="I11" t="n">
         <v>-0.5389242345446306</v>

--- a/data/nzd0436/nzd0436.xlsx
+++ b/data/nzd0436/nzd0436.xlsx
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379.58</v>
+        <v>379.02</v>
       </c>
       <c r="C2" t="n">
         <v>358.15</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379.24</v>
+        <v>379.28</v>
       </c>
       <c r="C3" t="n">
         <v>366.53</v>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.64</v>
+        <v>372.37</v>
       </c>
       <c r="C4" t="n">
         <v>362.57</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>376.65</v>
+        <v>377.58</v>
       </c>
       <c r="C5" t="n">
         <v>364.88</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>355.3</v>
+        <v>355.94</v>
       </c>
       <c r="C6" t="n">
         <v>347.21</v>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>371.5</v>
+        <v>371.1</v>
       </c>
       <c r="C7" t="n">
         <v>361.03</v>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.44</v>
+        <v>375.04</v>
       </c>
       <c r="C8" t="n">
         <v>361.43</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>363.1</v>
+        <v>363.24</v>
       </c>
       <c r="C9" t="n">
         <v>341.07</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.39</v>
+        <v>350.7</v>
       </c>
       <c r="C10" t="n">
         <v>337.95</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>377.46</v>
+        <v>377.12</v>
       </c>
       <c r="C13" t="n">
         <v>373.55</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>363.52</v>
+        <v>362.93</v>
       </c>
       <c r="C14" t="n">
         <v>346.83</v>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>378.69</v>
+        <v>379.61</v>
       </c>
       <c r="C15" t="n">
         <v>359.94</v>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>378.21</v>
+        <v>378.5</v>
       </c>
       <c r="C16" t="n">
         <v>364.89</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>365.82</v>
+        <v>365.88</v>
       </c>
       <c r="C17" t="n">
         <v>359.65</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>346.8</v>
+        <v>346.3</v>
       </c>
       <c r="C18" t="n">
         <v>343.53</v>
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>352.32</v>
+        <v>352.92</v>
       </c>
       <c r="C19" t="n">
         <v>345.74</v>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>343.09</v>
+        <v>343.22</v>
       </c>
       <c r="C20" t="n">
         <v>335.08</v>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>354.65</v>
+        <v>354.95</v>
       </c>
       <c r="C21" t="n">
         <v>338.51</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>365.07</v>
+        <v>364.51</v>
       </c>
       <c r="C22" t="n">
         <v>343.74</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>382.16</v>
+        <v>381.56</v>
       </c>
       <c r="C24" t="n">
         <v>369.51</v>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>363.48</v>
+        <v>364.44</v>
       </c>
       <c r="C25" t="n">
         <v>348.64</v>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>365.63</v>
+        <v>365.73</v>
       </c>
       <c r="C26" t="n">
         <v>354.92</v>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>384.3</v>
+        <v>383.98</v>
       </c>
       <c r="C27" t="n">
         <v>360.79</v>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>386.8</v>
+        <v>387.4</v>
       </c>
       <c r="C28" t="n">
         <v>363.27</v>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>386.71</v>
+        <v>386.21</v>
       </c>
       <c r="C29" t="n">
         <v>372.29</v>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>356.45</v>
+        <v>356.14</v>
       </c>
       <c r="C30" t="n">
         <v>339.54</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>379.65</v>
+        <v>380.05</v>
       </c>
       <c r="C31" t="n">
         <v>369.23</v>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>364.39</v>
+        <v>364.1</v>
       </c>
       <c r="C32" t="n">
         <v>353.22</v>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>360.68</v>
+        <v>360.14</v>
       </c>
       <c r="C33" t="n">
         <v>332.79</v>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>341.26</v>
+        <v>341.89</v>
       </c>
       <c r="C34" t="n">
         <v>335.37</v>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>356.47</v>
+        <v>357.23</v>
       </c>
       <c r="C35" t="n">
         <v>350.75</v>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>381.49</v>
+        <v>381</v>
       </c>
       <c r="C36" t="n">
         <v>379.97</v>
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>383.81</v>
+        <v>384.4</v>
       </c>
       <c r="C37" t="n">
         <v>370.64</v>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>364.74</v>
+        <v>364.4</v>
       </c>
       <c r="C38" t="n">
         <v>356.23</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>381.22</v>
+        <v>381.31</v>
       </c>
       <c r="C39" t="n">
         <v>372.84</v>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.77</v>
+        <v>374.15</v>
       </c>
       <c r="C40" t="n">
         <v>368.43</v>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>371.48</v>
+        <v>370.92</v>
       </c>
       <c r="C41" t="n">
         <v>347.25</v>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>373.46</v>
+        <v>374.07</v>
       </c>
       <c r="C42" t="n">
         <v>366.47</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>375.24</v>
+        <v>375.37</v>
       </c>
       <c r="C43" t="n">
         <v>360.29</v>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>361.53</v>
+        <v>361.88</v>
       </c>
       <c r="C44" t="n">
         <v>348.55</v>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>359.59</v>
+        <v>360.19</v>
       </c>
       <c r="C45" t="n">
         <v>347.97</v>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>369.9</v>
+        <v>369.62</v>
       </c>
       <c r="C46" t="n">
         <v>355.76</v>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>361.97</v>
+        <v>362.04</v>
       </c>
       <c r="C47" t="n">
         <v>339.82</v>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>355.14</v>
+        <v>354.77</v>
       </c>
       <c r="C48" t="n">
         <v>339.39</v>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>358.06</v>
+        <v>357.52</v>
       </c>
       <c r="C49" t="n">
         <v>346.57</v>
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>365.58</v>
+        <v>365.11</v>
       </c>
       <c r="C51" t="n">
         <v>347.93</v>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>349.21</v>
+        <v>349.96</v>
       </c>
       <c r="C52" t="n">
         <v>344.32</v>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>343.93</v>
+        <v>344.52</v>
       </c>
       <c r="C53" t="n">
         <v>339.1</v>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>374.36</v>
+        <v>374.05</v>
       </c>
       <c r="C54" t="n">
         <v>351.38</v>
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>367.28</v>
+        <v>367.14</v>
       </c>
       <c r="C55" t="n">
         <v>337.33</v>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>377.3</v>
+        <v>377.93</v>
       </c>
       <c r="C56" t="n">
         <v>355.88</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>372.86</v>
+        <v>373.86</v>
       </c>
       <c r="C57" t="n">
         <v>348.16</v>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>383.4</v>
+        <v>383.36</v>
       </c>
       <c r="C58" t="n">
         <v>376.15</v>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>390.74</v>
+        <v>390.06</v>
       </c>
       <c r="C59" t="n">
         <v>379.57</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>375.63</v>
+        <v>376.38</v>
       </c>
       <c r="C60" t="n">
         <v>352.91</v>
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>358.9</v>
+        <v>359.62</v>
       </c>
       <c r="C61" t="n">
         <v>336.75</v>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>370.68</v>
+        <v>371.27</v>
       </c>
       <c r="C62" t="n">
         <v>354</v>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>360.2</v>
+        <v>359.98</v>
       </c>
       <c r="C64" t="n">
         <v>347.8</v>
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>357.07</v>
+        <v>356.63</v>
       </c>
       <c r="C66" t="n">
         <v>330.16</v>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>359.69</v>
+        <v>360.35</v>
       </c>
       <c r="C68" t="n">
         <v>353.87</v>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>347.48</v>
+        <v>347.44</v>
       </c>
       <c r="C69" t="n">
         <v>334.39</v>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>357.55</v>
+        <v>357.75</v>
       </c>
       <c r="C70" t="n">
         <v>345.96</v>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>347.44</v>
+        <v>347.06</v>
       </c>
       <c r="C71" t="n">
         <v>339.05</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>337.61</v>
+        <v>338.12</v>
       </c>
       <c r="C72" t="n">
         <v>329.98</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>353.66</v>
+        <v>354.41</v>
       </c>
       <c r="C73" t="n">
         <v>351.54</v>
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>343.66</v>
+        <v>344.47</v>
       </c>
       <c r="C75" t="n">
         <v>329.71</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>356.17</v>
+        <v>356.2</v>
       </c>
       <c r="C76" t="n">
         <v>342.49</v>
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>363.31</v>
+        <v>363.08</v>
       </c>
       <c r="C77" t="n">
         <v>344.9</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>379.45</v>
+        <v>379.13</v>
       </c>
       <c r="C78" t="n">
         <v>355.07</v>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>399.33</v>
+        <v>399.99</v>
       </c>
       <c r="C79" t="n">
         <v>390.63</v>
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>383.67</v>
+        <v>383.63</v>
       </c>
       <c r="C80" t="n">
         <v>367.28</v>
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>372.35</v>
+        <v>371.73</v>
       </c>
       <c r="C82" t="n">
         <v>363.24</v>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>370.17</v>
+        <v>371.05</v>
       </c>
       <c r="C83" t="n">
         <v>358.41</v>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>380.84</v>
+        <v>380.47</v>
       </c>
       <c r="C84" t="n">
         <v>368.14</v>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>356.77</v>
+        <v>357.06</v>
       </c>
       <c r="C85" t="n">
         <v>349.7</v>
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>361.73</v>
+        <v>362.04</v>
       </c>
       <c r="C87" t="n">
         <v>356.6</v>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>371.1</v>
+        <v>370.9</v>
       </c>
       <c r="C88" t="n">
         <v>361.89</v>
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>367.82</v>
+        <v>367.19</v>
       </c>
       <c r="C89" t="n">
         <v>358.49</v>
@@ -3983,7 +3983,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>386.7</v>
+        <v>386.08</v>
       </c>
       <c r="C90" t="n">
         <v>381.12</v>
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>341.96</v>
+        <v>342.62</v>
       </c>
       <c r="C92" t="n">
         <v>352.67</v>
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>355.03</v>
+        <v>355.71</v>
       </c>
       <c r="C93" t="n">
         <v>345.47</v>
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>358.94</v>
+        <v>359.5</v>
       </c>
       <c r="C96" t="n">
         <v>345.2</v>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>364.52</v>
+        <v>364.81</v>
       </c>
       <c r="C97" t="n">
         <v>350.48</v>
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>355.44</v>
+        <v>355.72</v>
       </c>
       <c r="C98" t="n">
         <v>339.29</v>
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>378.54</v>
+        <v>378.47</v>
       </c>
       <c r="C104" t="n">
         <v>360.45</v>
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>381.59</v>
+        <v>381.74</v>
       </c>
       <c r="C105" t="n">
         <v>366.58</v>
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>363.49</v>
+        <v>363.15</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>361.29</v>
+        <v>361.01</v>
       </c>
       <c r="C107" t="n">
         <v>345.96</v>
@@ -4629,7 +4629,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>380.28</v>
+        <v>379.72</v>
       </c>
       <c r="C108" t="n">
         <v>365.84</v>
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>368.74</v>
+        <v>368.23</v>
       </c>
       <c r="C109" t="n">
         <v>349.63</v>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>376.21</v>
+        <v>376.18</v>
       </c>
       <c r="C112" t="n">
         <v>364.08</v>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>357.95</v>
+        <v>358.7</v>
       </c>
       <c r="C113" t="n">
         <v>349.59</v>
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>362.1</v>
+        <v>361.66</v>
       </c>
       <c r="C114" t="n">
         <v>359.16</v>
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>363.33</v>
+        <v>362.92</v>
       </c>
       <c r="C116" t="n">
         <v>357.96</v>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>359.2</v>
+        <v>360.01</v>
       </c>
       <c r="C117" t="n">
         <v>351.2</v>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>358.54</v>
+        <v>358.42</v>
       </c>
       <c r="C118" t="n">
         <v>340.68</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>360.71</v>
+        <v>360.4</v>
       </c>
       <c r="C119" t="n">
         <v>352</v>
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>344.24</v>
+        <v>344.51</v>
       </c>
       <c r="C120" t="n">
         <v>334.18</v>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>357.02</v>
+        <v>357.51</v>
       </c>
       <c r="C121" t="n">
         <v>347.21</v>
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>382.47</v>
+        <v>382.44</v>
       </c>
       <c r="C122" t="n">
         <v>367.96</v>
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>371.91</v>
+        <v>372.32</v>
       </c>
       <c r="C123" t="n">
         <v>361.54</v>
@@ -5211,7 +5211,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>349.56</v>
+        <v>350.24</v>
       </c>
       <c r="C124" t="n">
         <v>346.47</v>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>383.74</v>
+        <v>383.58</v>
       </c>
       <c r="C127" t="n">
         <v>347.81</v>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>384.48</v>
+        <v>384.92</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>381.17</v>
+        <v>380.69</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>383.03</v>
+        <v>383.68</v>
       </c>
       <c r="C131" t="n">
         <v>373.81</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>382.17</v>
+        <v>382.27</v>
       </c>
       <c r="C132" t="n">
         <v>362.7</v>
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>385.29</v>
+        <v>385.26</v>
       </c>
       <c r="C133" t="n">
         <v>377.09</v>
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>348.45</v>
+        <v>349.17</v>
       </c>
       <c r="C135" t="n">
         <v>340.44</v>
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>339.4</v>
+        <v>340.02</v>
       </c>
       <c r="C136" t="n">
         <v>333.84</v>
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>348.98</v>
+        <v>349.42</v>
       </c>
       <c r="C137" t="n">
         <v>337.58</v>
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>378.67</v>
+        <v>378.57</v>
       </c>
       <c r="C139" t="n">
         <v>360.43</v>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>357.37</v>
+        <v>357.27</v>
       </c>
       <c r="C140" t="n">
         <v>349.64</v>
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>373.36</v>
+        <v>373.74</v>
       </c>
       <c r="C141" t="n">
         <v>359.23</v>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>364.77</v>
+        <v>364.37</v>
       </c>
       <c r="C142" t="n">
         <v>362.79</v>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>368.02</v>
+        <v>367.49</v>
       </c>
       <c r="C143" t="n">
         <v>356.76</v>
@@ -5939,7 +5939,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>358.47</v>
+        <v>357.98</v>
       </c>
       <c r="C144" t="n">
         <v>349.95</v>
@@ -5981,7 +5981,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>359.42</v>
+        <v>359.5</v>
       </c>
       <c r="C145" t="n">
         <v>350.19</v>
@@ -6023,7 +6023,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>382.34</v>
+        <v>382.1</v>
       </c>
       <c r="C146" t="n">
         <v>374.93</v>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>368.76</v>
+        <v>368.75</v>
       </c>
       <c r="C147" t="n">
         <v>356.92</v>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>364.65</v>
+        <v>364.44</v>
       </c>
       <c r="C148" t="n">
         <v>347.32</v>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>347.23</v>
+        <v>347.57</v>
       </c>
       <c r="C149" t="n">
         <v>339.46</v>
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>370.7</v>
+        <v>371.43</v>
       </c>
       <c r="C151" t="n">
         <v>346.59</v>
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>378.04</v>
+        <v>378.45</v>
       </c>
       <c r="C153" t="n">
         <v>367.27</v>
@@ -6369,7 +6369,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>390.77</v>
+        <v>390.06</v>
       </c>
       <c r="C155" t="n">
         <v>377.37</v>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>408.28</v>
+        <v>409.1</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
@@ -6435,7 +6435,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>397.27</v>
+        <v>397.68</v>
       </c>
       <c r="C157" t="n">
         <v>386.56</v>
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>363.91</v>
+        <v>364.31</v>
       </c>
       <c r="C159" t="n">
         <v>357.36</v>
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>360.12</v>
+        <v>360.77</v>
       </c>
       <c r="C160" t="n">
         <v>348.62</v>
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>360.34</v>
+        <v>360.06</v>
       </c>
       <c r="C161" t="n">
         <v>337.89</v>
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>361.33</v>
+        <v>361.8</v>
       </c>
       <c r="C162" t="n">
         <v>348.86</v>
@@ -6675,7 +6675,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>362.11</v>
+        <v>362.89</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
@@ -6711,7 +6711,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>359.29</v>
+        <v>358.7</v>
       </c>
       <c r="C164" t="n">
         <v>349.57</v>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>350.76</v>
+        <v>351.62</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
@@ -6791,7 +6791,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>356.11</v>
+        <v>355.95</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>391.21</v>
+        <v>391.5</v>
       </c>
       <c r="C167" t="n">
         <v>371.95</v>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>358.31</v>
+        <v>357.63</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
@@ -6959,7 +6959,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>367.71</v>
+        <v>368.06</v>
       </c>
       <c r="C171" t="n">
         <v>359.16</v>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>385.48</v>
+        <v>385.38</v>
       </c>
       <c r="C172" t="n">
         <v>372.79</v>
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>386.57</v>
+        <v>386.04</v>
       </c>
       <c r="C173" t="n">
         <v>377.56</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>378.45</v>
+        <v>379.19</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>394.27</v>
+        <v>394.57</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>397.19</v>
+        <v>396.56</v>
       </c>
       <c r="C176" t="n">
         <v>377.18</v>
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>375.44</v>
+        <v>375.63</v>
       </c>
       <c r="C180" t="n">
         <v>364.11</v>
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>368.41</v>
+        <v>369.15</v>
       </c>
       <c r="C181" t="n">
         <v>356.69</v>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>353.32</v>
+        <v>354.06</v>
       </c>
       <c r="C182" t="n">
         <v>338.59</v>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>361.98</v>
+        <v>362.91</v>
       </c>
       <c r="C183" t="n">
         <v>354</v>
@@ -7415,7 +7415,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>390.35</v>
+        <v>390.5</v>
       </c>
       <c r="C184" t="n">
         <v>375.12</v>
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>379.37</v>
+        <v>379.79</v>
       </c>
       <c r="C185" t="n">
         <v>368.4</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>373.02</v>
+        <v>372.74</v>
       </c>
       <c r="C187" t="n">
         <v>363.99</v>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>385.54</v>
+        <v>385.76</v>
       </c>
       <c r="C189" t="n">
         <v>375.33</v>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>383.29</v>
+        <v>384.01</v>
       </c>
       <c r="C191" t="n">
         <v>371.79</v>
@@ -7779,7 +7779,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>387.19</v>
+        <v>387</v>
       </c>
       <c r="C194" t="n">
         <v>373.39</v>
@@ -7819,7 +7819,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>398.43</v>
+        <v>398.18</v>
       </c>
       <c r="C195" t="n">
         <v>383.4</v>
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>385.33</v>
+        <v>386.32</v>
       </c>
       <c r="C196" t="n">
         <v>366.11</v>
@@ -7895,7 +7895,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>374.59</v>
+        <v>374.37</v>
       </c>
       <c r="C197" t="n">
         <v>362.43</v>
@@ -7961,7 +7961,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>376.16</v>
+        <v>376.44</v>
       </c>
       <c r="C199" t="n">
         <v>372.02</v>
@@ -7997,7 +7997,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>377.23</v>
+        <v>376.73</v>
       </c>
       <c r="C200" t="n">
         <v>365.63</v>
@@ -8061,7 +8061,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>369.48</v>
+        <v>370.23</v>
       </c>
       <c r="C202" t="n">
         <v>358.86</v>
@@ -8103,7 +8103,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>362.59</v>
+        <v>362.21</v>
       </c>
       <c r="C203" t="n">
         <v>353.24</v>
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>363.37</v>
+        <v>362.86</v>
       </c>
       <c r="C204" t="n">
         <v>348.66</v>
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>396.89</v>
+        <v>396.39</v>
       </c>
       <c r="C206" t="n">
         <v>385.77</v>
@@ -8289,7 +8289,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>384.65</v>
+        <v>384.31</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>381.61</v>
+        <v>382.3</v>
       </c>
       <c r="C209" t="n">
         <v>372.5</v>
@@ -8391,7 +8391,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>396.05</v>
+        <v>397.09</v>
       </c>
       <c r="C211" t="n">
         <v>382.26</v>
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>368.23</v>
+        <v>368.02</v>
       </c>
       <c r="C212" t="n">
         <v>358.31</v>
@@ -8529,7 +8529,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>368.65</v>
+        <v>369.03</v>
       </c>
       <c r="C215" t="n">
         <v>364.58</v>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>377.36</v>
+        <v>377.26</v>
       </c>
       <c r="C216" t="n">
         <v>366.74</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>366.65</v>
+        <v>367.31</v>
       </c>
       <c r="C217" t="n">
         <v>349.39</v>
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>344.43</v>
+        <v>345.4</v>
       </c>
       <c r="C219" t="n">
         <v>335.12</v>
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>353.6</v>
+        <v>353.42</v>
       </c>
       <c r="C220" t="n">
         <v>340.7</v>
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>381.48</v>
+        <v>381.98</v>
       </c>
       <c r="C221" t="n">
         <v>360.06</v>
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>367.69</v>
+        <v>368.06</v>
       </c>
       <c r="C222" t="n">
         <v>353.38</v>
@@ -8841,7 +8841,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>391.76</v>
+        <v>392.42</v>
       </c>
       <c r="C223" t="n">
         <v>364.26</v>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>371.45</v>
+        <v>372.25</v>
       </c>
       <c r="C224" t="n">
         <v>364.81</v>
@@ -8915,7 +8915,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>388</v>
+        <v>388.66</v>
       </c>
       <c r="C225" t="n">
         <v>374.41</v>
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>384.29</v>
+        <v>384.05</v>
       </c>
       <c r="C226" t="n">
         <v>375.03</v>
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>367.69</v>
+        <v>367.6</v>
       </c>
       <c r="C227" t="n">
         <v>366.61</v>
@@ -9025,7 +9025,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>375.35</v>
+        <v>375.03</v>
       </c>
       <c r="C228" t="n">
         <v>361.51</v>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>357.11</v>
+        <v>356.89</v>
       </c>
       <c r="C230" t="n">
         <v>345.2</v>
@@ -9133,7 +9133,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>342.84</v>
+        <v>343.22</v>
       </c>
       <c r="C231" t="n">
         <v>337.57</v>
@@ -9195,7 +9195,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>377.66</v>
+        <v>377.04</v>
       </c>
       <c r="C233" t="n">
         <v>342.56</v>
@@ -9233,7 +9233,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>355.67</v>
+        <v>355.64</v>
       </c>
       <c r="C234" t="n">
         <v>344.41</v>
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>373.91</v>
+        <v>374.7</v>
       </c>
       <c r="C235" t="n">
         <v>354.11</v>
@@ -9301,7 +9301,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>365.87</v>
+        <v>365.44</v>
       </c>
       <c r="C236" t="n">
         <v>341.51</v>
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>361.53</v>
+        <v>362.16</v>
       </c>
       <c r="C238" t="n">
         <v>347.63</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>362.37</v>
+        <v>362.12</v>
       </c>
       <c r="C239" t="n">
         <v>342.21</v>
@@ -9511,7 +9511,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>364.89</v>
+        <v>364.95</v>
       </c>
       <c r="C242" t="n">
         <v>356.85</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>361.96</v>
+        <v>362.25</v>
       </c>
       <c r="C243" t="n">
         <v>350.03</v>
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>370.18</v>
+        <v>370.58</v>
       </c>
       <c r="C244" t="n">
         <v>357.24</v>
@@ -9615,7 +9615,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>385.09</v>
+        <v>384.45</v>
       </c>
       <c r="C245" t="n">
         <v>372.86</v>
@@ -9657,7 +9657,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>364.85</v>
+        <v>364.6</v>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>339.05</v>
+        <v>338.63</v>
       </c>
       <c r="C249" t="n">
         <v>326.09</v>
@@ -9795,7 +9795,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>349.73</v>
+        <v>350.32</v>
       </c>
       <c r="C250" t="n">
         <v>343.18</v>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>377.02</v>
+        <v>377.88</v>
       </c>
       <c r="C253" t="n">
         <v>354.11</v>
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>357.88</v>
+        <v>357.31</v>
       </c>
       <c r="C254" t="n">
         <v>339.85</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>375.2</v>
+        <v>375.8</v>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
@@ -10011,7 +10011,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>369.76</v>
+        <v>370.14</v>
       </c>
       <c r="C256" t="n">
         <v>340.54</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>366.56</v>
+        <v>366.31</v>
       </c>
       <c r="C257" t="n">
         <v>338.84</v>
@@ -10093,7 +10093,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>348.48</v>
+        <v>348.52</v>
       </c>
       <c r="C258" t="n">
         <v>330.58</v>
@@ -10233,7 +10233,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>373.93</v>
+        <v>374.5</v>
       </c>
       <c r="C262" t="n">
         <v>349.28</v>
@@ -10275,7 +10275,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>365.63</v>
+        <v>365.06</v>
       </c>
       <c r="C263" t="n">
         <v>338.81</v>
@@ -10353,7 +10353,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>340.31</v>
+        <v>340.39</v>
       </c>
       <c r="C265" t="n">
         <v>329.24</v>
@@ -10389,7 +10389,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>355.4</v>
+        <v>356.02</v>
       </c>
       <c r="C266" t="n">
         <v>348.94</v>
@@ -10431,7 +10431,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>367.27</v>
+        <v>367.11</v>
       </c>
       <c r="C267" t="n">
         <v>349.79</v>
@@ -10473,7 +10473,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>373.66</v>
+        <v>374.32</v>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
@@ -10501,7 +10501,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>350.03</v>
+        <v>350.9</v>
       </c>
       <c r="C269" t="n">
         <v>335.61</v>
@@ -10543,7 +10543,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>359.31</v>
+        <v>360.21</v>
       </c>
       <c r="C270" t="n">
         <v>351.41</v>
@@ -10583,7 +10583,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>350.4</v>
+        <v>350.1</v>
       </c>
       <c r="C271" t="n">
         <v>344.26</v>
@@ -10619,7 +10619,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>362.38</v>
+        <v>362.95</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>356.94</v>
+        <v>357.36</v>
       </c>
       <c r="C273" t="n">
         <v>352.64</v>
@@ -10687,7 +10687,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>344.02</v>
+        <v>343.82</v>
       </c>
       <c r="C274" t="n">
         <v>329.97</v>
@@ -10729,7 +10729,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>337.81</v>
+        <v>338.5</v>
       </c>
       <c r="C275" t="n">
         <v>327.64</v>
@@ -10765,7 +10765,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>350.97</v>
+        <v>350.62</v>
       </c>
       <c r="C276" t="n">
         <v>332.55</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>355.07</v>
+        <v>355.62</v>
       </c>
       <c r="C277" t="n">
         <v>340.8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>338.75</v>
+        <v>339.38</v>
       </c>
       <c r="C278" t="n">
         <v>317.3</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>348.38</v>
+        <v>348.54</v>
       </c>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr"/>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>366.56</v>
+        <v>367.41</v>
       </c>
       <c r="C282" t="n">
         <v>344.24</v>
@@ -11059,7 +11059,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>372.1</v>
+        <v>372.06</v>
       </c>
       <c r="C284" t="n">
         <v>353.73</v>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>372.79</v>
+        <v>372.55</v>
       </c>
       <c r="C285" t="n">
         <v>357.59</v>
@@ -11155,7 +11155,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>377.77</v>
+        <v>377.03</v>
       </c>
       <c r="C287" t="n">
         <v>354.76</v>
@@ -11193,7 +11193,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>365.74</v>
+        <v>366.46</v>
       </c>
       <c r="C288" t="n">
         <v>346.6</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>348.59</v>
+        <v>348.08</v>
       </c>
       <c r="C289" t="n">
         <v>336.17</v>
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>372.65</v>
+        <v>372.12</v>
       </c>
       <c r="C290" t="n">
         <v>339.85</v>
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>357.44</v>
+        <v>358.15</v>
       </c>
       <c r="C291" t="n">
         <v>339.63</v>
@@ -11385,7 +11385,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>364.87</v>
+        <v>364.52</v>
       </c>
       <c r="C293" t="n">
         <v>343.27</v>
@@ -11427,7 +11427,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>351.56</v>
+        <v>351.85</v>
       </c>
       <c r="C294" t="n">
         <v>327.47</v>
@@ -11469,7 +11469,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>349.52</v>
+        <v>350.2</v>
       </c>
       <c r="C295" t="n">
         <v>341.61</v>
@@ -11511,7 +11511,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>362.78</v>
+        <v>363.69</v>
       </c>
       <c r="C296" t="n">
         <v>349.18</v>
@@ -11553,7 +11553,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>348.02</v>
+        <v>347.64</v>
       </c>
       <c r="C297" t="n">
         <v>337.27</v>
@@ -11593,7 +11593,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>351.44</v>
+        <v>351.9</v>
       </c>
       <c r="C298" t="n">
         <v>332.76</v>
@@ -11625,7 +11625,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>350</v>
+        <v>350.06</v>
       </c>
       <c r="C299" t="n">
         <v>341.41</v>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>344.37</v>
+        <v>344.49</v>
       </c>
       <c r="C300" t="n">
         <v>328.4</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>350.04</v>
+        <v>349.55</v>
       </c>
       <c r="C303" t="n">
         <v>339.32</v>
@@ -11823,7 +11823,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>359.27</v>
+        <v>360.26</v>
       </c>
       <c r="C304" t="n">
         <v>342.88</v>
@@ -11889,7 +11889,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>351.96</v>
+        <v>351.64</v>
       </c>
       <c r="C306" t="n">
         <v>329.16</v>
@@ -11967,7 +11967,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>352.3</v>
+        <v>351.94</v>
       </c>
       <c r="C308" t="n">
         <v>322.88</v>
@@ -12009,7 +12009,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>361.8</v>
+        <v>361.94</v>
       </c>
       <c r="C309" t="n">
         <v>335.42</v>
@@ -12041,7 +12041,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>359.13</v>
+        <v>359.75</v>
       </c>
       <c r="C310" t="n">
         <v>330.92</v>
@@ -12083,7 +12083,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>363.48</v>
+        <v>363.99</v>
       </c>
       <c r="C311" t="n">
         <v>344.44</v>
@@ -12123,7 +12123,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>359.86</v>
+        <v>360.55</v>
       </c>
       <c r="C312" t="n">
         <v>335.21</v>
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>360.75</v>
+        <v>360.23</v>
       </c>
       <c r="C313" t="n">
         <v>335.84</v>
@@ -12245,7 +12245,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>360.43</v>
+        <v>360.94</v>
       </c>
       <c r="C315" t="n">
         <v>342.28</v>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>366.87</v>
+        <v>367</v>
       </c>
       <c r="C316" t="n">
         <v>345.91</v>
@@ -12319,7 +12319,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>367.26</v>
+        <v>367.75</v>
       </c>
       <c r="C317" t="n">
         <v>344.57</v>
@@ -12355,7 +12355,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>359.87</v>
+        <v>360.43</v>
       </c>
       <c r="C318" t="n">
         <v>340.7</v>
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>364.21</v>
+        <v>363.74</v>
       </c>
       <c r="C320" t="n">
         <v>357.18</v>
@@ -12463,7 +12463,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>362.34</v>
+        <v>361.78</v>
       </c>
       <c r="C321" t="n">
         <v>352.1</v>
@@ -12495,7 +12495,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>358.89</v>
+        <v>358.58</v>
       </c>
       <c r="C322" t="n">
         <v>353.69</v>
@@ -12537,7 +12537,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>347.39</v>
+        <v>348.08</v>
       </c>
       <c r="C323" t="n">
         <v>347.31</v>
@@ -12579,7 +12579,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>360.19</v>
+        <v>359.72</v>
       </c>
       <c r="C324" t="n">
         <v>348.73</v>
@@ -12613,7 +12613,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>347.22</v>
+        <v>346.92</v>
       </c>
       <c r="C325" t="n">
         <v>338.08</v>
@@ -12685,7 +12685,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>350.74</v>
+        <v>350.87</v>
       </c>
       <c r="C327" t="n">
         <v>335.54</v>
@@ -12715,7 +12715,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>363.94</v>
+        <v>363.38</v>
       </c>
       <c r="C328" t="n">
         <v>333.16</v>
@@ -12795,7 +12795,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>349.1</v>
+        <v>348.55</v>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr"/>
@@ -12863,7 +12863,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>349.5</v>
+        <v>349.25</v>
       </c>
       <c r="C332" t="n">
         <v>328.04</v>
@@ -13011,7 +13011,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>362.46</v>
+        <v>361.75</v>
       </c>
       <c r="C336" t="n">
         <v>343.32</v>
@@ -13053,7 +13053,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>346.26</v>
+        <v>347.01</v>
       </c>
       <c r="C337" t="n">
         <v>335.59</v>
@@ -13095,7 +13095,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>346.95</v>
+        <v>346.49</v>
       </c>
       <c r="C338" t="n">
         <v>328.76</v>
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>343.86</v>
+        <v>344.82</v>
       </c>
       <c r="C339" t="n">
         <v>323.79</v>
@@ -13179,7 +13179,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>344.91</v>
+        <v>344.6</v>
       </c>
       <c r="C340" t="n">
         <v>329.16</v>
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>341.55</v>
+        <v>341.93</v>
       </c>
       <c r="C342" t="n">
         <v>325.85</v>
@@ -13299,7 +13299,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>339.29</v>
+        <v>339.55</v>
       </c>
       <c r="C343" t="n">
         <v>321.96</v>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>364.55</v>
+        <v>364.23</v>
       </c>
       <c r="C346" t="n">
         <v>349.8</v>
@@ -13451,7 +13451,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>385.62</v>
+        <v>386.59</v>
       </c>
       <c r="C347" t="n">
         <v>366.95</v>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>379.27</v>
+        <v>378.81</v>
       </c>
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr"/>
@@ -13617,7 +13617,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>356.67</v>
+        <v>357.26</v>
       </c>
       <c r="C352" t="n">
         <v>341.3</v>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>367.59</v>
+        <v>367.15</v>
       </c>
       <c r="C353" t="n">
         <v>350.49</v>
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>351.16</v>
+        <v>351.7</v>
       </c>
       <c r="C357" t="n">
         <v>337.56</v>
@@ -13845,7 +13845,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>357.63</v>
+        <v>357.23</v>
       </c>
       <c r="C358" t="n">
         <v>334.5</v>
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>355.23</v>
+        <v>354.92</v>
       </c>
       <c r="C359" t="n">
         <v>343.44</v>
@@ -13929,7 +13929,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>357.68</v>
+        <v>357.27</v>
       </c>
       <c r="C360" t="n">
         <v>340.32</v>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>360.75</v>
+        <v>361.44</v>
       </c>
       <c r="C361" t="n">
         <v>342.15</v>
@@ -13991,7 +13991,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>342.46</v>
+        <v>342.28</v>
       </c>
       <c r="C362" t="n">
         <v>323.33</v>
@@ -14033,7 +14033,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>351.42</v>
+        <v>351.49</v>
       </c>
       <c r="C363" t="n">
         <v>342.58</v>
@@ -14073,7 +14073,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>360.92</v>
+        <v>360.5</v>
       </c>
       <c r="C364" t="n">
         <v>339.21</v>
@@ -14115,7 +14115,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>373.76</v>
+        <v>374.7</v>
       </c>
       <c r="C365" t="n">
         <v>359.69</v>
@@ -14149,7 +14149,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>351.99</v>
+        <v>351.77</v>
       </c>
       <c r="C366" t="n">
         <v>335.59</v>
@@ -14191,7 +14191,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>361.45</v>
+        <v>361.63</v>
       </c>
       <c r="C367" t="n">
         <v>342.45</v>
@@ -14227,7 +14227,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>359.29</v>
+        <v>359.45</v>
       </c>
       <c r="C368" t="n">
         <v>344.47</v>
@@ -14269,7 +14269,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>363.61</v>
+        <v>363.51</v>
       </c>
       <c r="C369" t="n">
         <v>349.27</v>
@@ -14311,7 +14311,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>361</v>
+        <v>361.71</v>
       </c>
       <c r="C370" t="n">
         <v>337.22</v>
@@ -14353,7 +14353,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>362.21</v>
+        <v>363.21</v>
       </c>
       <c r="C371" t="n">
         <v>332.18</v>
@@ -14395,7 +14395,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>366.22</v>
+        <v>366.78</v>
       </c>
       <c r="C372" t="n">
         <v>353.69</v>
@@ -14437,7 +14437,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>387.68</v>
+        <v>387.21</v>
       </c>
       <c r="C373" t="n">
         <v>353.2</v>
@@ -14475,7 +14475,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>361.02</v>
+        <v>360.89</v>
       </c>
       <c r="C374" t="n">
         <v>345.03</v>
@@ -14549,7 +14549,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>355.36</v>
+        <v>355.76</v>
       </c>
       <c r="C376" t="n">
         <v>355.34</v>
@@ -14583,7 +14583,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>359.11</v>
+        <v>358.77</v>
       </c>
       <c r="C377" t="n">
         <v>350.59</v>
@@ -14617,7 +14617,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>358.29</v>
+        <v>357.69</v>
       </c>
       <c r="C378" t="n">
         <v>341.75</v>
@@ -14659,7 +14659,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>351.48</v>
+        <v>352.36</v>
       </c>
       <c r="C379" t="n">
         <v>338.33</v>
@@ -14701,7 +14701,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>374.93</v>
+        <v>374.49</v>
       </c>
       <c r="C380" t="n">
         <v>358.61</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>355.37</v>
+        <v>356.02</v>
       </c>
       <c r="C381" t="n">
         <v>336.56</v>
@@ -14775,7 +14775,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>347.02</v>
+        <v>347.52</v>
       </c>
       <c r="C382" t="n">
         <v>343.39</v>
@@ -14817,7 +14817,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>342.84</v>
+        <v>343.22</v>
       </c>
       <c r="C383" t="n">
         <v>328.67</v>
@@ -14843,7 +14843,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>344.75</v>
+        <v>344.79</v>
       </c>
       <c r="C384" t="n">
         <v>330.45</v>
@@ -14885,7 +14885,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>355.96</v>
+        <v>355.49</v>
       </c>
       <c r="C385" t="n">
         <v>344.24</v>
@@ -14965,7 +14965,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>386.53</v>
+        <v>385.91</v>
       </c>
       <c r="C387" t="n">
         <v>374.05</v>
@@ -14999,7 +14999,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>361.1</v>
+        <v>361.79</v>
       </c>
       <c r="C388" t="n">
         <v>335.85</v>
@@ -15075,7 +15075,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>357.83</v>
+        <v>357.52</v>
       </c>
       <c r="C390" t="n">
         <v>337.35</v>
@@ -15105,7 +15105,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>361.9</v>
+        <v>362.56</v>
       </c>
       <c r="C391" t="n">
         <v>350.98</v>
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>376.19</v>
+        <v>376.2</v>
       </c>
       <c r="C393" t="n">
         <v>354.59</v>
@@ -15213,7 +15213,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>365.64</v>
+        <v>365.44</v>
       </c>
       <c r="C394" t="n">
         <v>349.33</v>
@@ -15253,7 +15253,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>383.95</v>
+        <v>383.24</v>
       </c>
       <c r="C395" t="n">
         <v>366.37</v>
@@ -15289,7 +15289,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>371.72</v>
+        <v>372.36</v>
       </c>
       <c r="C396" t="inlineStr"/>
       <c r="D396" t="inlineStr"/>
@@ -15315,7 +15315,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>372.51</v>
+        <v>373.23</v>
       </c>
       <c r="C397" t="n">
         <v>349.64</v>
@@ -15357,7 +15357,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>381.73</v>
+        <v>382.66</v>
       </c>
       <c r="C398" t="n">
         <v>358.76</v>
@@ -15383,7 +15383,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>363.94</v>
+        <v>364.44</v>
       </c>
       <c r="C399" t="n">
         <v>355.99</v>
@@ -15425,7 +15425,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>374.14</v>
+        <v>373.7</v>
       </c>
       <c r="C400" t="n">
         <v>365.42</v>
@@ -15463,7 +15463,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>353.21</v>
+        <v>353.15</v>
       </c>
       <c r="C401" t="n">
         <v>344.47</v>
@@ -15505,7 +15505,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>358.92</v>
+        <v>358.98</v>
       </c>
       <c r="C402" t="n">
         <v>349.49</v>
@@ -15619,7 +15619,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>348.93</v>
+        <v>349.87</v>
       </c>
       <c r="C405" t="n">
         <v>333.74</v>
@@ -15661,7 +15661,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>329.78</v>
+        <v>330.38</v>
       </c>
       <c r="C406" t="n">
         <v>320.71</v>
@@ -15743,7 +15743,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>363.19</v>
+        <v>362.48</v>
       </c>
       <c r="C408" t="n">
         <v>347.43</v>
@@ -15811,7 +15811,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>345.9</v>
+        <v>345.51</v>
       </c>
       <c r="C410" t="n">
         <v>336.01</v>
@@ -15853,7 +15853,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>345.03</v>
+        <v>345.5</v>
       </c>
       <c r="C411" t="n">
         <v>331.8</v>
@@ -15895,7 +15895,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>357.66</v>
+        <v>357.12</v>
       </c>
       <c r="C412" t="n">
         <v>344.27</v>
@@ -15937,7 +15937,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>342.87</v>
+        <v>343.06</v>
       </c>
       <c r="C413" t="n">
         <v>332.53</v>
@@ -15979,7 +15979,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>351.63</v>
+        <v>351.61</v>
       </c>
       <c r="C414" t="n">
         <v>337.81</v>
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>358.33</v>
+        <v>358.62</v>
       </c>
       <c r="C415" t="n">
         <v>337.09</v>
@@ -16089,7 +16089,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>339.55</v>
+        <v>339.61</v>
       </c>
       <c r="C417" t="n">
         <v>328.18</v>
@@ -16131,7 +16131,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>344.2</v>
+        <v>344.24</v>
       </c>
       <c r="C418" t="n">
         <v>326.86</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>352.91</v>
+        <v>353.44</v>
       </c>
       <c r="C419" t="n">
         <v>333.05</v>
@@ -16199,7 +16199,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>344.17</v>
+        <v>344.68</v>
       </c>
       <c r="C420" t="n">
         <v>333.62</v>
@@ -16265,7 +16265,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>361.74</v>
+        <v>362.7</v>
       </c>
       <c r="C422" t="n">
         <v>338.36</v>
@@ -16307,7 +16307,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>349.4</v>
+        <v>350.38</v>
       </c>
       <c r="C423" t="n">
         <v>336.84</v>
@@ -16349,7 +16349,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>360.72</v>
+        <v>360.31</v>
       </c>
       <c r="C424" t="n">
         <v>334.4</v>
@@ -16391,7 +16391,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>363.79</v>
+        <v>364.48</v>
       </c>
       <c r="C425" t="n">
         <v>347.02</v>
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>371.31</v>
+        <v>371.89</v>
       </c>
       <c r="C427" t="n">
         <v>350.47</v>
@@ -16525,7 +16525,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>371.63</v>
+        <v>371.2</v>
       </c>
       <c r="C429" t="n">
         <v>353.55</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>352.8</v>
+        <v>352.06</v>
       </c>
       <c r="C430" t="inlineStr"/>
       <c r="D430" t="inlineStr"/>
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>380.55</v>
+        <v>380.05</v>
       </c>
       <c r="C431" t="inlineStr"/>
       <c r="D431" t="inlineStr"/>
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>356.25</v>
+        <v>357.19</v>
       </c>
       <c r="C433" t="n">
         <v>334.47</v>
@@ -16705,7 +16705,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>347.55</v>
+        <v>347.19</v>
       </c>
       <c r="C434" t="n">
         <v>327.22</v>
@@ -16743,7 +16743,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>353.57</v>
+        <v>353.1</v>
       </c>
       <c r="C435" t="n">
         <v>346.69</v>
@@ -16785,7 +16785,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>348.54</v>
+        <v>348.75</v>
       </c>
       <c r="C436" t="n">
         <v>337.2</v>
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>347.62</v>
+        <v>347.65</v>
       </c>
       <c r="C437" t="n">
         <v>329.28</v>
@@ -16869,7 +16869,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>335.02</v>
+        <v>335.05</v>
       </c>
       <c r="C438" t="n">
         <v>329.03</v>
@@ -16911,7 +16911,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>351.04</v>
+        <v>350.64</v>
       </c>
       <c r="C439" t="n">
         <v>342.5</v>
@@ -16949,7 +16949,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>363.54</v>
+        <v>363.01</v>
       </c>
       <c r="C440" t="n">
         <v>335.48</v>
@@ -16991,7 +16991,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>355.64</v>
+        <v>356.36</v>
       </c>
       <c r="C441" t="n">
         <v>339</v>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>346.99</v>
+        <v>347.74</v>
       </c>
       <c r="C444" t="n">
         <v>332.43</v>
@@ -17151,7 +17151,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>339.44</v>
+        <v>339.86</v>
       </c>
       <c r="C446" t="n">
         <v>324.73</v>
@@ -17193,7 +17193,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>329.48</v>
+        <v>329.74</v>
       </c>
       <c r="C447" t="n">
         <v>321.94</v>
@@ -17223,7 +17223,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>351.47</v>
+        <v>351.92</v>
       </c>
       <c r="C448" t="n">
         <v>342.25</v>
@@ -17265,7 +17265,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>352.44</v>
+        <v>352.18</v>
       </c>
       <c r="C449" t="n">
         <v>341.95</v>
@@ -17337,7 +17337,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>355.36</v>
+        <v>355.61</v>
       </c>
       <c r="C451" t="n">
         <v>346.14</v>
@@ -17379,7 +17379,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>338.01</v>
+        <v>338.11</v>
       </c>
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="n">
@@ -17441,7 +17441,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>357.72</v>
+        <v>357.29</v>
       </c>
       <c r="C454" t="n">
         <v>336.72</v>
@@ -17479,7 +17479,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>362.07</v>
+        <v>363.04</v>
       </c>
       <c r="C455" t="n">
         <v>344.88</v>
@@ -17547,7 +17547,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>362.81</v>
+        <v>362.34</v>
       </c>
       <c r="C457" t="n">
         <v>354.54</v>
@@ -17629,7 +17629,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>368.47</v>
+        <v>368.96</v>
       </c>
       <c r="C459" t="n">
         <v>344.69</v>
@@ -17723,7 +17723,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>369.48</v>
+        <v>369.89</v>
       </c>
       <c r="C462" t="n">
         <v>348.6</v>
@@ -17763,7 +17763,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>363.56</v>
+        <v>363.44</v>
       </c>
       <c r="C463" t="n">
         <v>345.48</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>367.97</v>
+        <v>368.46</v>
       </c>
       <c r="C465" t="n">
         <v>346.93</v>
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>360.38</v>
+        <v>359.62</v>
       </c>
       <c r="C466" t="n">
         <v>330.42</v>
@@ -17939,7 +17939,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>364.05</v>
+        <v>363.42</v>
       </c>
       <c r="C468" t="n">
         <v>353.12</v>
@@ -17981,7 +17981,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>360.42</v>
+        <v>360.14</v>
       </c>
       <c r="C469" t="n">
         <v>354.6</v>
@@ -18123,7 +18123,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>358.77</v>
+        <v>359.45</v>
       </c>
       <c r="C473" t="n">
         <v>340.04</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>364.08</v>
+        <v>363.52</v>
       </c>
       <c r="C475" t="n">
         <v>351.97</v>
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>339.25</v>
+        <v>339.69</v>
       </c>
       <c r="C477" t="n">
         <v>327.36</v>
@@ -18311,7 +18311,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>359.2</v>
+        <v>358.75</v>
       </c>
       <c r="C478" t="n">
         <v>341.96</v>
@@ -18353,7 +18353,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>382.84</v>
+        <v>383.58</v>
       </c>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="n">
@@ -18385,7 +18385,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>348.67</v>
+        <v>348.42</v>
       </c>
       <c r="C480" t="n">
         <v>341.02</v>
@@ -18419,7 +18419,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>359.05</v>
+        <v>359.37</v>
       </c>
       <c r="C481" t="n">
         <v>346.66</v>
@@ -18461,7 +18461,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>351.77</v>
+        <v>351.86</v>
       </c>
       <c r="C482" t="n">
         <v>336.15</v>
@@ -18533,7 +18533,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>349.99</v>
+        <v>350.65</v>
       </c>
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>356.56</v>
+        <v>356.14</v>
       </c>
       <c r="C487" t="n">
         <v>339.75</v>
@@ -18653,7 +18653,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>362.77</v>
+        <v>363.69</v>
       </c>
       <c r="C488" t="n">
         <v>349.34</v>
@@ -18695,7 +18695,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>366.05</v>
+        <v>365.64</v>
       </c>
       <c r="C489" t="n">
         <v>339.89</v>
@@ -18737,7 +18737,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>367.17</v>
+        <v>367.86</v>
       </c>
       <c r="C490" t="n">
         <v>355.58</v>
@@ -18779,7 +18779,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>358.44</v>
+        <v>357.94</v>
       </c>
       <c r="C491" t="n">
         <v>341.2</v>
@@ -18817,7 +18817,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>375.85</v>
+        <v>376.25</v>
       </c>
       <c r="C492" t="n">
         <v>359.35</v>
@@ -18855,7 +18855,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>359.56</v>
+        <v>360.1</v>
       </c>
       <c r="C493" t="n">
         <v>344.53</v>
@@ -18897,7 +18897,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>353.67</v>
+        <v>353.39</v>
       </c>
       <c r="C494" t="n">
         <v>340.12</v>
@@ -18965,7 +18965,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>362.03</v>
+        <v>361.63</v>
       </c>
       <c r="C496" t="n">
         <v>339.13</v>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>354.67</v>
+        <v>354.07</v>
       </c>
       <c r="C497" t="n">
         <v>341.73</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>370.7</v>
+        <v>370.55</v>
       </c>
       <c r="C498" t="n">
         <v>356.53</v>
@@ -19081,7 +19081,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>367.14</v>
+        <v>366.86</v>
       </c>
       <c r="C499" t="n">
         <v>346.15</v>
@@ -19123,7 +19123,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>348.01</v>
+        <v>348.1</v>
       </c>
       <c r="C500" t="n">
         <v>339.35</v>
@@ -19163,7 +19163,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>344.38</v>
+        <v>344.69</v>
       </c>
       <c r="C501" t="n">
         <v>338.68</v>
@@ -19205,7 +19205,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>370.16</v>
+        <v>370.25</v>
       </c>
       <c r="C502" t="n">
         <v>351.73</v>
@@ -19247,7 +19247,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>370.64</v>
+        <v>371.36</v>
       </c>
       <c r="C503" t="n">
         <v>356.91</v>
@@ -19289,7 +19289,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>374.83</v>
+        <v>374.18</v>
       </c>
       <c r="C504" t="n">
         <v>363.02</v>
@@ -19329,7 +19329,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>365.59</v>
+        <v>366.23</v>
       </c>
       <c r="C505" t="n">
         <v>357.56</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>375.65</v>
+        <v>375.89</v>
       </c>
       <c r="C506" t="n">
         <v>368.08</v>
@@ -19409,7 +19409,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>364.42</v>
+        <v>364</v>
       </c>
       <c r="C507" t="n">
         <v>361.84</v>
@@ -19451,7 +19451,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>366.5</v>
+        <v>366.65</v>
       </c>
       <c r="C508" t="n">
         <v>359.36</v>
@@ -19493,7 +19493,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>359.86</v>
+        <v>359.7</v>
       </c>
       <c r="C509" t="n">
         <v>350.76</v>
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>354.58</v>
+        <v>354.68</v>
       </c>
       <c r="C510" t="n">
         <v>348.39</v>
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>354.65</v>
+        <v>355</v>
       </c>
       <c r="C511" t="n">
         <v>335.27</v>
@@ -19647,7 +19647,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>355.44</v>
+        <v>355.52</v>
       </c>
       <c r="C513" t="n">
         <v>341.99</v>
@@ -19689,7 +19689,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>361.37</v>
+        <v>361.25</v>
       </c>
       <c r="C514" t="n">
         <v>347.76</v>
@@ -19725,7 +19725,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>370.38</v>
+        <v>370.69</v>
       </c>
       <c r="C515" t="n">
         <v>351.65</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>365.79</v>
+        <v>365.3</v>
       </c>
       <c r="C516" t="n">
         <v>351.53</v>
@@ -19809,7 +19809,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>362.14</v>
+        <v>362.67</v>
       </c>
       <c r="C517" t="n">
         <v>347.54</v>
@@ -19851,7 +19851,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>357.41</v>
+        <v>357.19</v>
       </c>
       <c r="C518" t="n">
         <v>348.89</v>
@@ -19893,7 +19893,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>356.52</v>
+        <v>357.4</v>
       </c>
       <c r="C519" t="n">
         <v>345.94</v>
@@ -19935,7 +19935,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>355.55</v>
+        <v>355.09</v>
       </c>
       <c r="C520" t="n">
         <v>346.42</v>
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>353.26</v>
+        <v>352.82</v>
       </c>
       <c r="C521" t="n">
         <v>341.72</v>
@@ -20051,7 +20051,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>356.81</v>
+        <v>357.62</v>
       </c>
       <c r="C523" t="n">
         <v>348.24</v>
@@ -20093,7 +20093,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>357.04</v>
+        <v>356.44</v>
       </c>
       <c r="C524" t="n">
         <v>340.68</v>
@@ -20165,7 +20165,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>353.01</v>
+        <v>352.58</v>
       </c>
       <c r="C526" t="n">
         <v>341.29</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>344.53</v>
+        <v>345.27</v>
       </c>
       <c r="C528" t="n">
         <v>334.62</v>
@@ -20289,7 +20289,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>344.46</v>
+        <v>344.92</v>
       </c>
       <c r="C529" t="n">
         <v>332.46</v>
@@ -20331,7 +20331,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>351.28</v>
+        <v>352.02</v>
       </c>
       <c r="C530" t="n">
         <v>334.59</v>
@@ -20373,7 +20373,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>354.07</v>
+        <v>354.5</v>
       </c>
       <c r="C531" t="n">
         <v>338.27</v>
@@ -20415,7 +20415,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>354.95</v>
+        <v>354.83</v>
       </c>
       <c r="C532" t="n">
         <v>340.49</v>
@@ -20457,7 +20457,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>356.64</v>
+        <v>356.73</v>
       </c>
       <c r="C533" t="n">
         <v>335.77</v>
@@ -20499,7 +20499,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>352.76</v>
+        <v>352.17</v>
       </c>
       <c r="C534" t="n">
         <v>336.78</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>365.25</v>
+        <v>365.99</v>
       </c>
       <c r="C536" t="n">
         <v>343.36</v>
@@ -20607,7 +20607,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>353.16</v>
+        <v>354</v>
       </c>
       <c r="C537" t="n">
         <v>343.94</v>
@@ -20645,7 +20645,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>389.41</v>
+        <v>388.77</v>
       </c>
       <c r="C538" t="n">
         <v>383.88</v>
@@ -20687,7 +20687,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>380.89</v>
+        <v>380.44</v>
       </c>
       <c r="C539" t="n">
         <v>380.75</v>
@@ -20729,7 +20729,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>373.82</v>
+        <v>374.07</v>
       </c>
       <c r="C540" t="n">
         <v>367.34</v>
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>379.99</v>
+        <v>380.34</v>
       </c>
       <c r="C541" t="n">
         <v>379.71</v>
@@ -20841,7 +20841,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>370.49</v>
+        <v>371.34</v>
       </c>
       <c r="C543" t="n">
         <v>362.75</v>
@@ -20883,7 +20883,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>371.46</v>
+        <v>372.4</v>
       </c>
       <c r="C544" t="n">
         <v>364.32</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>359.72</v>
+        <v>359.17</v>
       </c>
       <c r="C545" t="n">
         <v>354.22</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>356.04</v>
+        <v>356.8</v>
       </c>
       <c r="C546" t="n">
         <v>341.06</v>
@@ -21009,7 +21009,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>353.47</v>
+        <v>353.25</v>
       </c>
       <c r="C547" t="n">
         <v>342.91</v>
@@ -21051,7 +21051,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>360.05</v>
+        <v>360.02</v>
       </c>
       <c r="C548" t="n">
         <v>349.65</v>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>368.96</v>
+        <v>369.37</v>
       </c>
       <c r="C549" t="n">
         <v>349.31</v>
@@ -21135,7 +21135,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>358.14</v>
+        <v>358.24</v>
       </c>
       <c r="C550" t="n">
         <v>354.53</v>
@@ -21205,7 +21205,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>363.48</v>
+        <v>363.69</v>
       </c>
       <c r="C552" t="n">
         <v>351.66</v>
@@ -21235,7 +21235,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>363.28</v>
+        <v>364</v>
       </c>
       <c r="C553" t="n">
         <v>355.32</v>
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>385.26</v>
+        <v>386</v>
       </c>
       <c r="C554" t="n">
         <v>368.68</v>
@@ -21319,7 +21319,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>382.62</v>
+        <v>383.5</v>
       </c>
       <c r="C555" t="n">
         <v>371.48</v>
@@ -21361,7 +21361,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>367.47</v>
+        <v>367</v>
       </c>
       <c r="C556" t="n">
         <v>356.04</v>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>370.56</v>
+        <v>371.02</v>
       </c>
       <c r="C557" t="n">
         <v>358.82</v>
@@ -21445,7 +21445,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>390.26</v>
+        <v>389.92</v>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr"/>
@@ -21469,7 +21469,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>364.2</v>
+        <v>363.67</v>
       </c>
       <c r="C559" t="n">
         <v>354.48</v>
@@ -21505,7 +21505,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>363.1</v>
+        <v>363.81</v>
       </c>
       <c r="C560" t="n">
         <v>357.51</v>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>367.28</v>
+        <v>367.54</v>
       </c>
       <c r="C561" t="n">
         <v>354.93</v>
@@ -21589,7 +21589,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>362.79</v>
+        <v>363.1</v>
       </c>
       <c r="C562" t="n">
         <v>352.74</v>
@@ -21631,7 +21631,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>358.32</v>
+        <v>358.38</v>
       </c>
       <c r="C563" t="n">
         <v>351.9</v>
@@ -21673,7 +21673,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>366.3</v>
+        <v>365.83</v>
       </c>
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>358.31</v>
+        <v>358.19</v>
       </c>
       <c r="C565" t="n">
         <v>356.45</v>
@@ -21745,7 +21745,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>368.14</v>
+        <v>368.44</v>
       </c>
       <c r="C566" t="n">
         <v>360.11</v>
@@ -21787,7 +21787,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>355.67</v>
+        <v>355.46</v>
       </c>
       <c r="C567" t="n">
         <v>354.21</v>
@@ -21829,7 +21829,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>369</v>
+        <v>368.5</v>
       </c>
       <c r="C568" t="n">
         <v>360.22</v>
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>349.4</v>
+        <v>349.83</v>
       </c>
       <c r="C569" t="n">
         <v>346.59</v>
@@ -21913,7 +21913,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>345.85</v>
+        <v>346.45</v>
       </c>
       <c r="C570" t="n">
         <v>342.64</v>
@@ -21955,7 +21955,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>359.42</v>
+        <v>358.73</v>
       </c>
       <c r="C571" t="n">
         <v>343.76</v>
@@ -21989,7 +21989,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>348.11</v>
+        <v>347.71</v>
       </c>
       <c r="C572" t="n">
         <v>343.72</v>
@@ -22059,7 +22059,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>354.3</v>
+        <v>353.84</v>
       </c>
       <c r="C574" t="n">
         <v>348.26</v>
@@ -22101,7 +22101,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>358.59</v>
+        <v>358.4</v>
       </c>
       <c r="C575" t="n">
         <v>335.67</v>
@@ -22137,7 +22137,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>357.86</v>
+        <v>357.46</v>
       </c>
       <c r="C576" t="n">
         <v>348</v>
@@ -22179,7 +22179,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>369.9</v>
+        <v>369.46</v>
       </c>
       <c r="C577" t="n">
         <v>359.8</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>350.52</v>
+        <v>350.99</v>
       </c>
       <c r="C578" t="n">
         <v>337.44</v>
@@ -22257,7 +22257,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>366.1</v>
+        <v>366.07</v>
       </c>
       <c r="C579" t="n">
         <v>349.47</v>
@@ -22341,7 +22341,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>365.22</v>
+        <v>365.29</v>
       </c>
       <c r="C581" t="n">
         <v>355.61</v>
@@ -22383,7 +22383,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>360.87</v>
+        <v>360.66</v>
       </c>
       <c r="C582" t="n">
         <v>358.65</v>
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>381.85</v>
+        <v>381.25</v>
       </c>
       <c r="C583" t="n">
         <v>368.1</v>
@@ -22461,7 +22461,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>373.99</v>
+        <v>374.73</v>
       </c>
       <c r="C584" t="n">
         <v>363.32</v>
@@ -22503,7 +22503,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>362.31</v>
+        <v>363.06</v>
       </c>
       <c r="C585" t="n">
         <v>350.93</v>
@@ -22545,7 +22545,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>365.01</v>
+        <v>365.89</v>
       </c>
       <c r="C586" t="n">
         <v>349.73</v>
@@ -22587,7 +22587,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>371.76</v>
+        <v>371.26</v>
       </c>
       <c r="C587" t="n">
         <v>360.9</v>
@@ -22629,7 +22629,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>356.49</v>
+        <v>355.99</v>
       </c>
       <c r="C588" t="n">
         <v>345.86</v>
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>352.09</v>
+        <v>351.69</v>
       </c>
       <c r="C589" t="n">
         <v>343.39</v>
@@ -22713,7 +22713,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>363.77</v>
+        <v>364.51</v>
       </c>
       <c r="C590" t="n">
         <v>351.43</v>
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>357.15</v>
+        <v>357.06</v>
       </c>
       <c r="C591" t="n">
         <v>349.34</v>
@@ -22795,7 +22795,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>364.31</v>
+        <v>364.25</v>
       </c>
       <c r="C592" t="n">
         <v>340.43</v>
@@ -22837,7 +22837,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>367.46</v>
+        <v>367.81</v>
       </c>
       <c r="C593" t="n">
         <v>350.24</v>
@@ -22879,7 +22879,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>361.15</v>
+        <v>360.95</v>
       </c>
       <c r="C594" t="n">
         <v>352.72</v>
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>363.35</v>
+        <v>364.01</v>
       </c>
       <c r="C595" t="n">
         <v>356.85</v>
@@ -22989,7 +22989,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>346.63</v>
+        <v>346.25</v>
       </c>
       <c r="C597" t="n">
         <v>340.14</v>
@@ -23031,7 +23031,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>351.9</v>
+        <v>351.38</v>
       </c>
       <c r="C598" t="n">
         <v>352.37</v>
@@ -23073,7 +23073,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>371.66</v>
+        <v>372.44</v>
       </c>
       <c r="C599" t="n">
         <v>364.75</v>
@@ -23115,7 +23115,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>365.54</v>
+        <v>365.98</v>
       </c>
       <c r="C600" t="n">
         <v>358.21</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>365.19</v>
+        <v>364.98</v>
       </c>
       <c r="C601" t="n">
         <v>351.18</v>
@@ -23199,7 +23199,7 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>321.51</v>
+        <v>322.25</v>
       </c>
       <c r="C602" t="n">
         <v>325.61</v>
@@ -23237,7 +23237,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>340.58</v>
+        <v>340.92</v>
       </c>
       <c r="C603" t="n">
         <v>339.5</v>
@@ -23279,7 +23279,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>357.1</v>
+        <v>357.11</v>
       </c>
       <c r="C604" t="n">
         <v>353.52</v>
@@ -23357,7 +23357,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>350.72</v>
+        <v>351.12</v>
       </c>
       <c r="C606" t="n">
         <v>339.38</v>
@@ -23399,7 +23399,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>362.69</v>
+        <v>362.12</v>
       </c>
       <c r="C607" t="n">
         <v>346.7</v>
@@ -23441,7 +23441,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>364.62</v>
+        <v>364.2</v>
       </c>
       <c r="C608" t="n">
         <v>353.67</v>
@@ -23483,7 +23483,7 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>347.07</v>
+        <v>347.51</v>
       </c>
       <c r="C609" t="n">
         <v>344.51</v>
@@ -23525,7 +23525,7 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>336.46</v>
+        <v>336</v>
       </c>
       <c r="C610" t="n">
         <v>333.14</v>
@@ -23567,7 +23567,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>346.86</v>
+        <v>347.62</v>
       </c>
       <c r="C611" t="n">
         <v>335.11</v>
@@ -23609,7 +23609,7 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>344.84</v>
+        <v>345.18</v>
       </c>
       <c r="C612" t="n">
         <v>339.86</v>
@@ -23651,7 +23651,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>341.62</v>
+        <v>341.84</v>
       </c>
       <c r="C613" t="n">
         <v>329.7</v>
@@ -23693,7 +23693,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>341.14</v>
+        <v>341.18</v>
       </c>
       <c r="C614" t="n">
         <v>332.69</v>
@@ -23735,7 +23735,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>340.23</v>
+        <v>340.75</v>
       </c>
       <c r="C615" t="n">
         <v>325.26</v>
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="B616" t="n">
-        <v>347.61</v>
+        <v>348.27</v>
       </c>
       <c r="C616" t="n">
         <v>333.77</v>
@@ -23819,7 +23819,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>352.45</v>
+        <v>352.35</v>
       </c>
       <c r="C617" t="n">
         <v>333.01</v>
@@ -23861,7 +23861,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>350.55</v>
+        <v>351.44</v>
       </c>
       <c r="C618" t="n">
         <v>334.97</v>
@@ -23903,7 +23903,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>353.3</v>
+        <v>354.36</v>
       </c>
       <c r="C619" t="n">
         <v>338.33</v>
@@ -23945,7 +23945,7 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>360.92</v>
+        <v>360.45</v>
       </c>
       <c r="C620" t="n">
         <v>342.33</v>
@@ -23987,7 +23987,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>362.25</v>
+        <v>363.06</v>
       </c>
       <c r="C621" t="n">
         <v>344.85</v>
@@ -24029,7 +24029,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>352.86</v>
+        <v>352.64</v>
       </c>
       <c r="C622" t="n">
         <v>333.17</v>
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>363.92</v>
+        <v>364.48</v>
       </c>
       <c r="C623" t="n">
         <v>340.72</v>
@@ -24113,7 +24113,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>348.75</v>
+        <v>349.02</v>
       </c>
       <c r="C624" t="n">
         <v>328.42</v>
@@ -24155,7 +24155,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>358.14</v>
+        <v>358.02</v>
       </c>
       <c r="C625" t="n">
         <v>336.24</v>
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>363.26</v>
+        <v>362.94</v>
       </c>
       <c r="C627" t="n">
         <v>351.34</v>
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>377.27</v>
+        <v>377.03</v>
       </c>
       <c r="C628" t="n">
         <v>370.31</v>
@@ -24303,7 +24303,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>385.84</v>
+        <v>385.27</v>
       </c>
       <c r="C629" t="n">
         <v>372.53</v>
@@ -24341,7 +24341,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>386.16</v>
+        <v>386.81</v>
       </c>
       <c r="C630" t="n">
         <v>370.79</v>
@@ -24383,7 +24383,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>383.35</v>
+        <v>384.11</v>
       </c>
       <c r="C631" t="n">
         <v>366.02</v>
@@ -24425,7 +24425,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>383.51</v>
+        <v>383.06</v>
       </c>
       <c r="C632" t="n">
         <v>367.4</v>
@@ -24465,7 +24465,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>373.07</v>
+        <v>373.88</v>
       </c>
       <c r="C633" t="n">
         <v>360.22</v>
@@ -24507,7 +24507,7 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>385.96</v>
+        <v>386.43</v>
       </c>
       <c r="C634" t="n">
         <v>367.75</v>
@@ -24547,7 +24547,7 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>365.13</v>
+        <v>364.72</v>
       </c>
       <c r="C635" t="n">
         <v>353.8</v>
@@ -24583,7 +24583,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>360.8</v>
+        <v>360.51</v>
       </c>
       <c r="C636" t="n">
         <v>348.15</v>
@@ -24625,7 +24625,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>360.12</v>
+        <v>359.64</v>
       </c>
       <c r="C637" t="n">
         <v>341.37</v>
@@ -24665,7 +24665,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>348.65</v>
+        <v>349.44</v>
       </c>
       <c r="C638" t="n">
         <v>343.14</v>
@@ -24707,7 +24707,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>365.12</v>
+        <v>365.54</v>
       </c>
       <c r="C639" t="n">
         <v>357.26</v>
@@ -24749,7 +24749,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>339.32</v>
+        <v>339.25</v>
       </c>
       <c r="C640" t="n">
         <v>340.22</v>
@@ -24791,7 +24791,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>343.22</v>
+        <v>343.4</v>
       </c>
       <c r="C641" t="n">
         <v>342.61</v>
@@ -24833,7 +24833,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>330.98</v>
+        <v>330.79</v>
       </c>
       <c r="C642" t="n">
         <v>325.96</v>
@@ -24875,7 +24875,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>335.67</v>
+        <v>335.14</v>
       </c>
       <c r="C643" t="n">
         <v>328.48</v>
@@ -24917,7 +24917,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>341.37</v>
+        <v>342</v>
       </c>
       <c r="C644" t="n">
         <v>332.02</v>
@@ -24959,7 +24959,7 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>350.73</v>
+        <v>351.49</v>
       </c>
       <c r="C645" t="n">
         <v>338.81</v>
@@ -24999,7 +24999,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>352.52</v>
+        <v>352.06</v>
       </c>
       <c r="C646" t="n">
         <v>338.4</v>
@@ -25041,7 +25041,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>356.44</v>
+        <v>355.94</v>
       </c>
       <c r="C647" t="n">
         <v>336.89</v>
@@ -25083,7 +25083,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>337.93</v>
+        <v>338.58</v>
       </c>
       <c r="C648" t="n">
         <v>327.85</v>
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>355.76</v>
+        <v>355.5</v>
       </c>
       <c r="C649" t="n">
         <v>346.47</v>
@@ -25167,7 +25167,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>349.5</v>
+        <v>349.46</v>
       </c>
       <c r="C650" t="n">
         <v>341.77</v>
@@ -25209,7 +25209,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>351.61</v>
+        <v>351.89</v>
       </c>
       <c r="C651" t="n">
         <v>331.05</v>
@@ -25251,7 +25251,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>347.27</v>
+        <v>347.26</v>
       </c>
       <c r="C652" t="n">
         <v>337.35</v>
@@ -25293,7 +25293,7 @@
         </is>
       </c>
       <c r="B653" t="n">
-        <v>347.28</v>
+        <v>347.62</v>
       </c>
       <c r="C653" t="n">
         <v>328.75</v>
@@ -25335,7 +25335,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>356.94</v>
+        <v>357.53</v>
       </c>
       <c r="C654" t="n">
         <v>345.92</v>
@@ -25377,7 +25377,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>362.43</v>
+        <v>363.27</v>
       </c>
       <c r="C655" t="n">
         <v>347.07</v>
@@ -25419,7 +25419,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>360.34</v>
+        <v>359.79</v>
       </c>
       <c r="C656" t="n">
         <v>338.47</v>
@@ -25459,7 +25459,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>360.87</v>
+        <v>360.45</v>
       </c>
       <c r="C657" t="n">
         <v>331.83</v>
@@ -25501,7 +25501,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>367.77</v>
+        <v>368.21</v>
       </c>
       <c r="C658" t="n">
         <v>360.98</v>
@@ -25543,7 +25543,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>365.27</v>
+        <v>365.45</v>
       </c>
       <c r="C659" t="n">
         <v>356.64</v>
@@ -25585,7 +25585,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>368.16</v>
+        <v>367.95</v>
       </c>
       <c r="C660" t="n">
         <v>362.53</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>367.34</v>
+        <v>367.23</v>
       </c>
       <c r="C661" t="n">
         <v>356.59</v>
@@ -25663,7 +25663,7 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>359.01</v>
+        <v>358.6</v>
       </c>
       <c r="C662" t="n">
         <v>356.9</v>
@@ -25705,7 +25705,7 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>358.45</v>
+        <v>357.94</v>
       </c>
       <c r="C663" t="n">
         <v>351.9</v>
@@ -25747,7 +25747,7 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>382.14</v>
+        <v>382.96</v>
       </c>
       <c r="C664" t="n">
         <v>362.89</v>
@@ -25789,7 +25789,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>364.39</v>
+        <v>363.92</v>
       </c>
       <c r="C665" t="n">
         <v>357.42</v>
@@ -25831,7 +25831,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>370.27</v>
+        <v>369.77</v>
       </c>
       <c r="C666" t="n">
         <v>359.82</v>
@@ -25873,7 +25873,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>367.69</v>
+        <v>368.38</v>
       </c>
       <c r="C667" t="n">
         <v>350.49</v>
@@ -25915,7 +25915,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>360.22</v>
+        <v>361</v>
       </c>
       <c r="C668" t="n">
         <v>347.55</v>
@@ -25957,7 +25957,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>346.08</v>
+        <v>346.82</v>
       </c>
       <c r="C669" t="n">
         <v>339.35</v>
@@ -25999,7 +25999,7 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>352.35</v>
+        <v>352.32</v>
       </c>
       <c r="C670" t="n">
         <v>342.93</v>
@@ -26041,7 +26041,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>363.95</v>
+        <v>363.99</v>
       </c>
       <c r="C671" t="n">
         <v>360.19</v>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>359.09</v>
+        <v>358.62</v>
       </c>
       <c r="C672" t="n">
         <v>352.15</v>
@@ -26125,7 +26125,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>348.68</v>
+        <v>349.36</v>
       </c>
       <c r="C673" t="n">
         <v>340.92</v>
@@ -33422,7 +33422,7 @@
         <v>0.09130000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4822600257180873</v>
+        <v>-0.4832254813097843</v>
       </c>
       <c r="J2" t="n">
         <v>672</v>
@@ -33431,19 +33431,19 @@
         <v>541</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07947615783108386</v>
+        <v>0.08016818441562057</v>
       </c>
       <c r="M2" t="n">
-        <v>10.12605833460677</v>
+        <v>10.1109547608729</v>
       </c>
       <c r="N2" t="n">
-        <v>162.6261029392535</v>
+        <v>161.7467565428545</v>
       </c>
       <c r="O2" t="n">
-        <v>12.75249398899108</v>
+        <v>12.71796982787955</v>
       </c>
       <c r="P2" t="n">
-        <v>370.0565064575161</v>
+        <v>370.1903703149283</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34261,7 +34261,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-43.465798200910854,169.7586347841242</t>
+          <t>-43.465801168552474,169.7586403739325</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -34323,7 +34323,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-43.46580000269329,169.75863817793635</t>
+          <t>-43.46579979071889,169.7586377786643</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -34373,7 +34373,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-43.465840277805384,169.7587140396725</t>
+          <t>-43.46583640927693,169.75870675294865</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-43.46581372803288,169.75866403080596</t>
+          <t>-43.46580879962972,169.75865474772786</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -34497,7 +34497,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-43.465926869135636,169.75887714275166</t>
+          <t>-43.46592347755766,169.75887075437248</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -34559,7 +34559,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-43.46584101971489,169.75871543712648</t>
+          <t>-43.465843139456275,169.75871942985236</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -34621,7 +34621,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-43.46582543961171,169.7586860905999</t>
+          <t>-43.46582225999795,169.75868010151473</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -34683,7 +34683,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-43.46588553425627,169.75879928442967</t>
+          <t>-43.465884792347715,169.75879788697358</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -34745,7 +34745,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-43.46595288888661,169.75892615362244</t>
+          <t>-43.465951246092324,169.75892305924847</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -34871,7 +34871,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-43.46580943555275,169.7586559455443</t>
+          <t>-43.4658112373346,169.7586593393577</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -34933,7 +34933,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-43.46588330853057,169.75879509206152</t>
+          <t>-43.465886435145194,169.75880098134064</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -34995,7 +34995,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-43.465802917341165,169.75864366792698</t>
+          <t>-43.46579804193005,169.7586344846702</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-43.46580546103364,169.75864845919193</t>
+          <t>-43.46580392421946,169.7586455644693</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -35119,7 +35119,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-43.46587112003017,169.75877213386067</t>
+          <t>-43.46587080206923,169.7587715349512</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -35169,7 +35169,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-43.465971913498514,169.75896198848167</t>
+          <t>-43.46597456316507,169.75896697941096</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -35223,7 +35223,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-43.46594266116608,169.75890688865184</t>
+          <t>-43.46593948156322,169.75890089954316</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -35285,7 +35285,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-43.465991574019476,169.7589990211875</t>
+          <t>-43.46599088510653,169.75899772354506</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -35339,7 +35339,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-43.46593031370665,169.75888363095004</t>
+          <t>-43.46592872390469,169.75888063639684</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -35393,7 +35393,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-43.465875094541644,169.75877962022946</t>
+          <t>-43.465878062176586,169.7587852100522</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -35505,7 +35505,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-43.465784528558665,169.75860903108594</t>
+          <t>-43.46578770817594,169.75861502016357</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -35567,7 +35567,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-43.465883520504455,169.75879549133467</t>
+          <t>-43.46587843313094,169.75878590878006</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -35629,7 +35629,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-43.465872126906454,169.75877403040732</t>
+          <t>-43.46587159697157,169.75877303222487</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -35691,7 +35691,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-43.4657731879213,169.75858767004766</t>
+          <t>-43.46577488371777,169.7585908642211</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -35749,7 +35749,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-43.465759939508395,169.758562715574</t>
+          <t>-43.46575675988854,169.75855672650192</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -35811,7 +35811,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-43.465760416451346,169.75856361393483</t>
+          <t>-43.46576306613431,169.75856860482878</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -35865,7 +35865,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-43.46592077489373,169.75886566363332</t>
+          <t>-43.46592241768948,169.75886875800413</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -35927,7 +35927,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-43.46579782995564,169.75863408539823</t>
+          <t>-43.46579571021144,169.7586300926784</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -35989,7 +35989,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-43.46587869809832,169.7587864078714</t>
+          <t>-43.46588023490914,169.75878930260131</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -36051,7 +36051,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-43.4658983586729,169.7588234404616</t>
+          <t>-43.46590122031894,169.75882883065196</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -36113,7 +36113,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-43.466001271792486,169.7590172880028</t>
+          <t>-43.46599793321519,169.75901099942638</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -36175,7 +36175,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-43.46592066890691,169.75886546399647</t>
+          <t>-43.465916641407325,169.75885787779782</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -36237,7 +36237,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-43.465788079131265,169.75861571888933</t>
+          <t>-43.46579067581847,169.7586206099699</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -36299,7 +36299,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-43.46577578460963,169.75859256112582</t>
+          <t>-43.46577265798488,169.75858667186853</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -36361,7 +36361,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-43.46587684332655,169.75878291423206</t>
+          <t>-43.46587864510486,169.75878630805315</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -36415,7 +36415,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-43.46578950995892,169.7586184139745</t>
+          <t>-43.46578903301639,169.75861751561277</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -36477,7 +36477,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-43.465828990180064,169.75869277841244</t>
+          <t>-43.46582697642493,169.75868898532462</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -36539,7 +36539,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-43.465841125701964,169.7587156367628</t>
+          <t>-43.46584409333985,169.7587212265791</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -36601,7 +36601,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-43.46583063298022,169.75869587277373</t>
+          <t>-43.46582740037339,169.75868978386941</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -36663,7 +36663,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-43.465821200126626,169.7586781051531</t>
+          <t>-43.46582051121025,169.75867680751813</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -36725,7 +36725,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-43.4658938542296,169.75881495590374</t>
+          <t>-43.465891999458634,169.75881146226266</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -36787,7 +36787,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-43.465904134958166,169.75883432066124</t>
+          <t>-43.465900955351714,169.75882833156027</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -36849,7 +36849,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-43.465849498679624,169.75873140803174</t>
+          <t>-43.465850982498246,169.75873420294062</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -36911,7 +36911,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-43.46589152251753,169.75881056389784</t>
+          <t>-43.46589115156332,169.75880986516964</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -36973,7 +36973,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-43.46592771703006,169.75887873984658</t>
+          <t>-43.465929677785866,169.75888243312872</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -37035,7 +37035,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-43.465912242953245,169.75884959287154</t>
+          <t>-43.46591510459814,169.75885498306442</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -37143,7 +37143,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-43.4658723918739,169.75877452949857</t>
+          <t>-43.46587488256771,169.75877922095646</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -37205,7 +37205,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-43.46595914210284,169.75893793220874</t>
+          <t>-43.46595516760112,169.7589304458189</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -37267,7 +37267,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-43.46598712258175,169.75899063642177</t>
+          <t>-43.465983995976345,169.75898474712278</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -37329,7 +37329,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-43.465825863560184,169.75868688914463</t>
+          <t>-43.465827506360505,169.7586899835056</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -37391,7 +37391,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-43.465863382979826,169.75875756039886</t>
+          <t>-43.46586412488885,169.75875895785396</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -37437,7 +37437,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-43.4658102834501,169.75865754263293</t>
+          <t>-43.46580694485416,169.75865125409672</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -37499,7 +37499,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-43.465833812593225,169.75870186186057</t>
+          <t>-43.46582851323808,169.7586918800495</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -37561,7 +37561,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-43.46577795734869,169.75859665366093</t>
+          <t>-43.46577816932322,169.75859705293266</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -37623,7 +37623,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-43.46573905999923,169.7585233873459</t>
+          <t>-43.46574266357025,169.75853017495692</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -37653,7 +37653,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-43.46581913337745,169.75867421224825</t>
+          <t>-43.46581515885946,169.75866672589345</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -37715,7 +37715,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-43.46590779150522,169.7588412081281</t>
+          <t>-43.465903975977845,169.75883402120616</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -37777,7 +37777,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-43.46584536518459,169.75872362221486</t>
+          <t>-43.465842238566196,169.75871773294384</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -37873,7 +37873,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-43.46590090235828,169.75882823174192</t>
+          <t>-43.46590206821401,169.75883042774552</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -37965,7 +37965,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-43.465917489302,169.7588594748922</t>
+          <t>-43.4659198210123,169.75886386690195</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -38065,7 +38065,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-43.465903605023776,169.75883332247767</t>
+          <t>-43.46590010745662,169.7588267344668</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -38127,7 +38127,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-43.46596830995168,169.75895520081855</t>
+          <t>-43.46596852192501,169.75895560009286</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -38177,7 +38177,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-43.46591494561787,169.75885468360926</t>
+          <t>-43.46591388574942,169.75885268724147</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -38239,7 +38239,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-43.46596852192501,169.75895560009286</t>
+          <t>-43.46597053567182,169.7589593931986</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -38301,7 +38301,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-43.466020614337005,169.75905372183257</t>
+          <t>-43.46601791168074,169.75904863107687</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -38363,7 +38363,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-43.46593556005263,169.75889351297664</t>
+          <t>-43.46593158554817,169.7588860265927</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -38467,7 +38467,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-43.46598855340107,169.7589933315249</t>
+          <t>-43.4659842609429,169.7589852462159</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -38529,7 +38529,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-43.465922258709256,169.75886845854887</t>
+          <t>-43.46592209972902,169.75886815909362</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -38591,7 +38591,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-43.46588442139345,169.75879718824555</t>
+          <t>-43.4658856402432,169.75879948406623</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -38633,7 +38633,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-43.46579888982769,169.75863608175823</t>
+          <t>-43.46580058562289,169.7586392759344</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -38679,7 +38679,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-43.46569353838555,169.75843764391857</t>
+          <t>-43.46569004079689,169.758431055954</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -38733,7 +38733,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-43.46577652652054,169.7585939585768</t>
+          <t>-43.465776738495094,169.75859435784852</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -38833,7 +38833,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-43.46583651526402,169.7587069525849</t>
+          <t>-43.46583980086354,169.75871314130922</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -38887,7 +38887,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-43.46584806785447,169.75872871294115</t>
+          <t>-43.46584340442394,169.75871992894312</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -38949,7 +38949,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-43.465791523716284,169.75862220705753</t>
+          <t>-43.4657934844799,169.75862590032284</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-43.4659190791045,169.75886246944427</t>
+          <t>-43.46591754229542,169.7588595747106</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -39107,7 +39107,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-43.46589279436049,169.75881295953738</t>
+          <t>-43.46589115156332,169.75880986516964</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -39169,7 +39169,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-43.465843139456275,169.75871942985236</t>
+          <t>-43.4658441993269,169.75872142621543</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -39219,7 +39219,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-43.46586052133065,169.75875217021536</t>
+          <t>-43.46586385992134,169.75875845876286</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -39281,7 +39281,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-43.465760469445016,169.75856371375272</t>
+          <t>-43.465763755051846,169.75856990246126</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -39357,7 +39357,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-43.465997562262146,169.75901030069573</t>
+          <t>-43.4659940647046,169.75900371266408</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -39419,7 +39419,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-43.46592829995747,169.75887983784935</t>
+          <t>-43.465924696406034,169.75887305019614</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -39557,7 +39557,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-43.465907579531475,169.75884080885464</t>
+          <t>-43.46590461189911,169.75883521902642</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -39619,7 +39619,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-43.46587800918311,169.7587851102339</t>
+          <t>-43.46587647237218,169.75878221550423</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -39681,7 +39681,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-43.46592612722798,169.75887574529366</t>
+          <t>-43.46592464341263,169.7588729503777</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -39977,7 +39977,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-43.465803712245076,169.75864516519724</t>
+          <t>-43.46580408320024,169.75864586392336</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -40023,7 +40023,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-43.4657875491951,169.7586147207097</t>
+          <t>-43.4657867542908,169.75861322344022</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -40085,7 +40085,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-43.46588346751099,169.75879539151637</t>
+          <t>-43.46588526928892,169.7587987853382</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-43.46589512607247,169.75881735154348</t>
+          <t>-43.46589660988909,169.75882014645666</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -40177,7 +40177,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-43.46579449135848,169.7586277968646</t>
+          <t>-43.46579745900041,169.75863338667222</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -40219,7 +40219,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-43.46585564592774,169.7587429869409</t>
+          <t>-43.46585834859683,169.75874807766894</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -40345,7 +40345,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-43.46581605975025,169.75866842280044</t>
+          <t>-43.46581621873097,169.75866872225464</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -40395,7 +40395,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-43.465912825880935,169.75885069087377</t>
+          <t>-43.46590885137385,169.75884320449546</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -40457,7 +40457,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-43.46589083360258,169.7588092662598</t>
+          <t>-43.46589316531469,169.7588136582656</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -40565,7 +40565,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-43.46588431540651,169.758796988609</t>
+          <t>-43.46588648813866,169.75880108115894</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -40615,7 +40615,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-43.4659062017022,169.75883821357718</t>
+          <t>-43.465901909233686,169.75883012829047</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -40657,7 +40657,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-43.46590969926874,169.75884480158942</t>
+          <t>-43.46591033518987,169.75884599940994</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -40703,7 +40703,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-43.46589819969257,169.75882314100662</t>
+          <t>-43.4658998424894,169.75882623537507</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -40765,7 +40765,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-43.46598547978912,169.75898754204425</t>
+          <t>-43.465984048969645,169.75898484694142</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -40827,7 +40827,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-43.465917754269086,169.75885997398422</t>
+          <t>-43.46591515759157,169.7588550828828</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -40877,7 +40877,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-43.46578288575628,169.75860593672945</t>
+          <t>-43.46578304473716,169.75860623618328</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -40927,7 +40927,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-43.465838846979835,169.75871134458274</t>
+          <t>-43.46583667424465,169.7587072520393</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -40989,7 +40989,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-43.46595728733543,169.75893443856</t>
+          <t>-43.46595368378704,169.7589276509002</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -41143,7 +41143,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-43.465776155565095,169.7585932598513</t>
+          <t>-43.465777003463266,169.75859485693815</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -41173,7 +41173,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-43.46577223403575,169.75858587332522</t>
+          <t>-43.46576990231537,169.75858148133716</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -41211,7 +41211,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-43.465789774927,169.75861891306437</t>
+          <t>-43.46579231862047,169.75862370432725</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -41307,7 +41307,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-43.46577991811308,169.75860034692457</t>
+          <t>-43.46577647352691,169.75859385875887</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -41369,7 +41369,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-43.46578447556504,169.75860893126801</t>
+          <t>-43.46578394562879,169.75860793308848</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -41431,7 +41431,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-43.46576794155041,169.75857778807475</t>
+          <t>-43.465768100531356,169.75857808752846</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -41519,7 +41519,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-43.46596316959742,169.7589455184182</t>
+          <t>-43.46595935407624,169.7589383314829</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -41577,7 +41577,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-43.46601112854256,169.75903585428026</t>
+          <t>-43.46600784295951,169.75902966552044</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -41639,7 +41639,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-43.46596036094993,169.7589402280352</t>
+          <t>-43.46595802924241,169.7589358360195</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -41723,7 +41723,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-43.46580302332835,169.758643867563</t>
+          <t>-43.465803553264294,169.75864486574318</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -41785,7 +41785,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-43.46591589949944,169.7588564803403</t>
+          <t>-43.46591642943364,169.75885747852425</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -41839,7 +41839,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-43.46583116291574,169.75869687095482</t>
+          <t>-43.46582914916073,169.75869307786675</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -41893,7 +41893,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-43.46587668434611,169.7587826147773</t>
+          <t>-43.46587880408528,169.75878660750794</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -41955,7 +41955,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-43.465859461460504,169.7587501738512</t>
+          <t>-43.46586227011628,169.7587554642163</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -42005,7 +42005,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-43.46591007022275,169.75884550031805</t>
+          <t>-43.465912666900664,169.7588503914186</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -42067,7 +42067,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-43.46590503584661,169.7588360175733</t>
+          <t>-43.46590461189911,169.75883521902642</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -42129,7 +42129,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-43.46578357467342,169.75860723436278</t>
+          <t>-43.46578484652041,169.75860962999369</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -42191,7 +42191,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-43.46585553994072,169.7587427873045</t>
+          <t>-43.46585559293423,169.75874288712268</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -42253,7 +42253,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-43.46587732026788,169.75878381259645</t>
+          <t>-43.46587843313094,169.75878590878006</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -42315,7 +42315,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-43.46596963478511,169.75895769628286</t>
+          <t>-43.46596783301162,169.75895430245146</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -42435,7 +42435,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-43.46584525919753,169.75872342257853</t>
+          <t>-43.465841390669645,169.7587161358535</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -42523,7 +42523,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-43.46580636192468,169.7586501560984</t>
+          <t>-43.465804189187416,169.7586460635594</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -42623,7 +42623,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-43.46573890101815,169.75852308789248</t>
+          <t>-43.46574266357025,169.75853017495692</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -42673,7 +42673,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-43.46564610893311,169.7583483071921</t>
+          <t>-43.46564176343807,169.75834012215833</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -42711,7 +42711,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-43.46570445509936,169.75845820635837</t>
+          <t>-43.465702282355636,169.75845411383335</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -42811,7 +42811,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-43.46588124178516,169.75879119914856</t>
+          <t>-43.46587912204615,169.75878720641757</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -42873,7 +42873,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-43.46590132630582,169.75882903028867</t>
+          <t>-43.465897881731884,169.75882254209662</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -42935,7 +42935,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-43.46590016045006,169.75882683428512</t>
+          <t>-43.46590164426648,169.75882962919874</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -42997,7 +42997,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-43.465894914098655,169.7588169522702</t>
+          <t>-43.4658924234063,169.75881226080918</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -43059,7 +43059,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-43.46589078060911,169.75880916644147</t>
+          <t>-43.465886647119056,169.75880138061385</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -43109,7 +43109,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-43.46590572476128,169.75883731521193</t>
+          <t>-43.46590885137385,169.75884320449546</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -43171,7 +43171,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-43.46595092813214,169.7589224603374</t>
+          <t>-43.46594637070238,169.75891387594612</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -43225,7 +43225,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-43.46592257666972,169.75886905745935</t>
+          <t>-43.46592342456426,169.75887065455404</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -43275,7 +43275,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-43.46573656929552,169.75851869590934</t>
+          <t>-43.46573503247824,169.7585158011934</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -43325,7 +43325,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-43.46591091811759,169.75884709741206</t>
+          <t>-43.4659145216705,169.75885388506214</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -43451,7 +43451,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-43.46586110425918,169.75875326821566</t>
+          <t>-43.46585924948646,169.75874977457838</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-43.46576693467106,169.75857589153472</t>
+          <t>-43.465767464607545,169.75857688971368</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -43531,7 +43531,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-43.4657611583626,169.7585650113851</t>
+          <t>-43.465763967026454,169.75857030173282</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -43573,7 +43573,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-43.465804189187416,169.7586460635594</t>
+          <t>-43.465800267661294,169.75863867702637</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -43623,7 +43623,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-43.46572035322005,169.7584881516725</t>
+          <t>-43.465718763408304,169.75848515714037</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -43661,7 +43661,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-43.465704879049355,169.75845900489986</t>
+          <t>-43.465708217655255,169.75846529341462</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -43845,7 +43845,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-43.46582014025527,169.7586761087916</t>
+          <t>-43.46581913337745,169.75867421224825</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -43903,7 +43903,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-43.46585739471364,169.75874628094132</t>
+          <t>-43.465853473193626,169.75873889439512</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -43965,7 +43965,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-43.46593736182781,169.75889690680438</t>
+          <t>-43.46593344031696,169.75888952023843</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -44015,7 +44015,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-43.46589146952407,169.75881046407952</t>
+          <t>-43.46588654113212,169.75880118097723</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -44077,7 +44077,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-43.46574112675326,169.75852728024032</t>
+          <t>-43.46574033184788,169.7585257829732</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -44131,7 +44131,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-43.4657993137765,169.75863688030228</t>
+          <t>-43.46579708804518,169.75863268794623</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -44235,7 +44235,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-43.465832964696446,169.75870026477068</t>
+          <t>-43.465834448515785,169.75870305967803</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -44339,7 +44339,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-43.465766616709146,169.75857529262734</t>
+          <t>-43.465765450848785,169.7585730966337</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -44423,7 +44423,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-43.46577854027865,169.7585977516582</t>
+          <t>-43.46577472473687,169.75859056476736</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -44585,7 +44585,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-43.465757872755525,169.7585588226771</t>
+          <t>-43.46575887963514,169.75856071921658</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -44643,7 +44643,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-43.465698307824056,169.75844662750785</t>
+          <t>-43.46569963266797,169.75844912294957</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -44697,7 +44697,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-43.46576772957581,169.75857738880316</t>
+          <t>-43.46576248320407,169.75856750683207</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -44751,7 +44751,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-43.4658246447083,169.75868459332855</t>
+          <t>-43.46582581056663,169.75868678932653</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -44839,7 +44839,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-43.46581632471811,169.75866892189075</t>
+          <t>-43.46581484089802,169.7586661269851</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -44889,7 +44889,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-43.465810654405175,169.75865824135923</t>
+          <t>-43.46581330408424,169.75866323226157</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -44973,7 +44973,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-43.46585172440753,169.7587356003951</t>
+          <t>-43.46584774989332,169.75872811403215</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-43.46588823692298,169.75880437516278</t>
+          <t>-43.46589025067451,169.75880816825838</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -45097,7 +45097,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-43.465884103432636,169.75879658933582</t>
+          <t>-43.465886806099455,169.75880168006873</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -45205,7 +45205,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-43.46570646886172,169.75846199943064</t>
+          <t>-43.46570911854887,169.75846699031553</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -45297,7 +45297,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-43.465771333143806,169.7585841764207</t>
+          <t>-43.46577313492766,169.75858757022976</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -45339,7 +45339,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-43.46578744320785,169.75861452107375</t>
+          <t>-43.46578378664793,169.75860763363463</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -45435,7 +45435,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-43.46571092033601,169.75847038411752</t>
+          <t>-43.465705408986814,169.75846000307678</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -45485,7 +45485,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-43.46585834859683,169.75874807766894</t>
+          <t>-43.465859461460504,169.7587501738512</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -45623,7 +45623,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-43.465856122869354,169.75874388530463</t>
+          <t>-43.46585410911581,169.75874009221337</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -45685,7 +45685,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-43.46580996548858,169.7586569437247</t>
+          <t>-43.46581049542443,169.75865794190508</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -45747,7 +45747,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-43.46586672157026,169.75876384894698</t>
+          <t>-43.46586322399933,169.75875726094424</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -45867,7 +45867,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-43.46598447291617,169.7589856454904</t>
+          <t>-43.46597933256435,169.75897596308477</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -45929,7 +45929,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-43.46593587801295,169.7588941118874</t>
+          <t>-43.46593683189395,169.75889590861976</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -45979,7 +45979,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-43.46578813212489,169.7586158187073</t>
+          <t>-43.46578548244388,169.75861082780918</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -46021,7 +46021,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-43.465861210246196,169.75875346785207</t>
+          <t>-43.46585924948646,169.75874977457838</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -46071,7 +46071,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-43.46573365464199,169.7585132059309</t>
+          <t>-43.46573015705744,169.7585066179575</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -46117,7 +46117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-43.465841284682575,169.7587159362172</t>
+          <t>-43.46583704519944,169.7587079507662</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -46175,7 +46175,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-43.465753580268384,169.75855073743054</t>
+          <t>-43.46575008268587,169.75854414945272</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -46225,7 +46225,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-43.46577324091495,169.75858776986558</t>
+          <t>-43.465774512762295,169.75859016549566</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -46275,7 +46275,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-43.465861210246196,169.75875346785207</t>
+          <t>-43.46586168718775,169.75875436621598</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -46329,7 +46329,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-43.46582061719738,169.7586770071543</t>
+          <t>-43.46582231299151,169.7586802013328</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -46425,7 +46425,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-43.46591727732832,169.75885907561863</t>
+          <t>-43.46591844318351,169.7588612716234</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -46479,7 +46479,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-43.46599289885201,169.7590015166537</t>
+          <t>-43.46599088510653,169.75899772354506</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -46559,7 +46559,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-43.46580837568103,169.75865394918358</t>
+          <t>-43.465811661283254,169.75866013790207</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -46613,7 +46613,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-43.46592490837967,169.75887344946986</t>
+          <t>-43.465925067359876,169.75887374892514</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -46667,7 +46667,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-43.465828248270306,169.758691380959</t>
+          <t>-43.465824061779124,169.75868349532956</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -46705,7 +46705,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-43.46587085506273,169.75877163476943</t>
+          <t>-43.46587313378271,169.7587759269541</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -46809,7 +46809,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-43.4658938542296,169.75881495590374</t>
+          <t>-43.46589051564182,169.75880866734994</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -46847,7 +46847,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-43.465889402779155,169.75880657116548</t>
+          <t>-43.46589072761565,169.75880906662317</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -46993,7 +46993,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-43.46587604842434,169.75878141695813</t>
+          <t>-43.465875730463445,169.75878081804856</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -47043,7 +47043,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-43.465891575510994,169.75881066371613</t>
+          <t>-43.465890038700664,169.75880776898515</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -47089,7 +47089,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-43.46584801486096,169.758728613123</t>
+          <t>-43.46584589511987,169.75872462039644</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -47135,7 +47135,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-43.46576900142339,169.7585797844328</t>
+          <t>-43.465772393016664,169.75858617277896</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -47197,7 +47197,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-43.46587626039826,169.7587818162312</t>
+          <t>-43.465877585235276,169.75878431168778</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -47347,7 +47347,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-43.46601298330704,169.7590393479353</t>
+          <t>-43.46601520902429,169.7590435403216</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -47385,7 +47385,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-43.46595638644836,169.758932741645</t>
+          <t>-43.46595325984014,169.75892685235206</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -47543,7 +47543,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-43.46581176727042,169.75866033753817</t>
+          <t>-43.4658072098221,169.75865175318685</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -47593,7 +47593,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-43.46591319683491,169.75885138960246</t>
+          <t>-43.465916217459956,169.75885707925067</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -47647,7 +47647,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-43.46582141210089,169.75867850442546</t>
+          <t>-43.46581823248675,169.75867251534106</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -47685,7 +47685,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-43.46585024058894,169.75873280548615</t>
+          <t>-43.46584822683505,169.75872901239566</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -47747,7 +47747,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-43.46586719851173,169.75876474731106</t>
+          <t>-43.46586852334909,169.75876724276688</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -47805,7 +47805,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-43.46596301061738,169.75894521896254</t>
+          <t>-43.46596279864399,169.75894481968834</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -47997,7 +47997,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-43.465828142283186,169.7586911813228</t>
+          <t>-43.465825121650354,169.75868549169135</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -48059,7 +48059,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-43.465872126906454,169.75877403040732</t>
+          <t>-43.46587514753514,169.75877972004773</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -48171,7 +48171,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-43.46600630615445,169.75902677077815</t>
+          <t>-43.466005882208194,169.7590259722286</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -48221,7 +48221,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-43.465926339201594,169.75887614456735</t>
+          <t>-43.46592305361039,169.7588699558251</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -48283,7 +48283,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-43.46586343597334,169.7587576602171</t>
+          <t>-43.46586428386934,169.7587592573086</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -48345,7 +48345,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-43.46582957310917,169.7586938764116</t>
+          <t>-43.46582607553442,169.758687288417</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -48379,7 +48379,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-43.46595479664761,169.75892974708918</t>
+          <t>-43.465950186225,169.75892106287827</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -48441,7 +48441,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-43.46590561877441,169.75883711557523</t>
+          <t>-43.465900849364836,169.75882813192356</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -48499,7 +48499,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-43.46595283589325,169.75892605380392</t>
+          <t>-43.465954425694086,169.75892904835953</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -48549,7 +48549,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-43.46588934978569,169.75880647134719</t>
+          <t>-43.465886329158266,169.75880078170408</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -48591,7 +48591,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-43.46591817821642,169.75886077253142</t>
+          <t>-43.46591595249286,169.7588565801587</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -48641,7 +48641,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-43.46598664564195,169.7589897380541</t>
+          <t>-43.46598770550816,169.75899173442673</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -48703,7 +48703,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-43.46601955447183,169.75905172545774</t>
+          <t>-43.46601589793674,169.75904483796506</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -48753,7 +48753,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-43.465949815271436,169.75892036414874</t>
+          <t>-43.46595167003924,169.7589238577966</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -48815,7 +48815,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-43.46592808798388,169.7588794385756</t>
+          <t>-43.46592517334669,169.75887394856196</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -48869,7 +48869,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-43.466014573105085,169.7590423424969</t>
+          <t>-43.466011234529105,169.75903605391767</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -48931,7 +48931,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-43.465963540550845,169.75894621714806</t>
+          <t>-43.46596269265729,169.75894462005124</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -49069,7 +49069,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-43.46586719851173,169.75876474731106</t>
+          <t>-43.4658626940643,169.75875626276206</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -49165,7 +49165,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-43.46583784010257,169.7587094480382</t>
+          <t>-43.465838052076734,169.7587098473107</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -49203,7 +49203,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-43.46583418354805,169.75870256058744</t>
+          <t>-43.46583545539313,169.75870495622237</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -49291,7 +49291,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-43.465807792751576,169.75865285118522</t>
+          <t>-43.465811714276825,169.7586602377201</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -49345,7 +49345,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-43.46587154397808,169.75877293240663</t>
+          <t>-43.465867728446675,169.7587657454934</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -49395,7 +49395,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-43.46596242769056,169.7589441209585</t>
+          <t>-43.4659651303512,169.75894921170473</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -49457,7 +49457,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-43.46583492545769,169.7587039580411</t>
+          <t>-43.465837734115496,169.7587092484019</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -49499,7 +49499,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-43.465915528545494,169.75885578161157</t>
+          <t>-43.46591176601244,169.75884869450613</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -49619,7 +49619,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-43.4658761544113,169.75878161659466</t>
+          <t>-43.46587800918311,169.7587851102339</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -49681,7 +49681,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-43.465946688662605,169.7589144748571</t>
+          <t>-43.46594515185478,169.75891158012078</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -49743,7 +49743,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-43.46595749930886,169.75893483783415</t>
+          <t>-43.46595389576048,169.7589280501743</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -49805,7 +49805,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-43.465887230047166,169.7588024786151</t>
+          <t>-43.46588240764156,169.7587933951507</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -49867,7 +49867,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-43.46596544831125,169.7589498106161</t>
+          <t>-43.465967462058245,169.75895360372147</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -49925,7 +49925,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-43.465947324583084,169.75891567267908</t>
+          <t>-43.465944886887904,169.75891108102832</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -49967,7 +49967,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-43.465954955627694,169.75893004654478</t>
+          <t>-43.46595463766752,169.75892944763362</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -50029,7 +50029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-43.465984790876036,169.75898624440214</t>
+          <t>-43.46598415495628,169.75898504657866</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -50191,7 +50191,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-43.46595474365426,169.7589296472707</t>
+          <t>-43.46595734032879,169.75893453837855</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -50253,7 +50253,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-43.46590583074815,169.75883751484866</t>
+          <t>-43.46590058439762,169.75882763283187</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -50341,7 +50341,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-43.465944568927654,169.7589104821174</t>
+          <t>-43.46594626471563,169.75891367630913</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -50453,7 +50453,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-43.46594276715283,169.75890708828882</t>
+          <t>-43.465944674914404,169.75891068175434</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -50515,7 +50515,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-43.4658924234063,169.75881226080918</t>
+          <t>-43.465891681497894,169.75881086335278</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -50557,7 +50557,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-43.465906572656245,169.75883891230572</t>
+          <t>-43.46590328706315,169.75883272356756</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -50619,7 +50619,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-43.465883520504455,169.75879549133467</t>
+          <t>-43.46588081783738,169.75879040060235</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -50677,7 +50677,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-43.4659027041353,169.7588316255657</t>
+          <t>-43.465899047587705,169.75882473809997</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -50739,7 +50739,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-43.465897987718776,169.75882274173327</t>
+          <t>-43.46590074337795,169.7588279322869</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -50855,7 +50855,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-43.46589968350907,169.75882593592004</t>
+          <t>-43.46589698084324,169.75882084518497</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -50897,7 +50897,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-43.46586555571332,169.758761652946</t>
+          <t>-43.46586486679784,169.75876035530905</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -50959,7 +50959,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-43.46586348896684,169.7587577600353</t>
+          <t>-43.465860892285164,169.75875286894282</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -51009,7 +51009,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-43.46590265114186,169.75883152574735</t>
+          <t>-43.46589968350907,169.75882593592004</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -51097,7 +51097,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-43.4658796519809,169.75878820460028</t>
+          <t>-43.46588214267421,169.7587928960593</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -51159,7 +51159,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-43.46588956175954,169.7588068706204</t>
+          <t>-43.465892529393216,169.7588124604458</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -51201,7 +51201,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-43.46590784449864,169.75884130794648</t>
+          <t>-43.465909487295015,169.75884440231596</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -51263,7 +51263,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-43.465968786891715,169.7589560991857</t>
+          <t>-43.4659651303512,169.75894921170473</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -51325,7 +51325,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-43.465900955351714,169.75882833156027</t>
+          <t>-43.465903446043455,169.75883302302262</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -51371,7 +51371,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-43.46596968777845,169.7589577961014</t>
+          <t>-43.46597127757852,169.7589607906587</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -51471,7 +51471,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-43.46595103411886,169.75892265997444</t>
+          <t>-43.46595034520511,169.7589213623338</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -51509,7 +51509,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-43.46588108280475,169.7587908996937</t>
+          <t>-43.46588405043915,169.75879648951755</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -51625,7 +51625,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-43.465959725029705,169.75893903021267</t>
+          <t>-43.46596263966396,169.7589445202327</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -51717,7 +51717,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-43.46595760529556,169.75893503747122</t>
+          <t>-43.465958930129425,169.7589375329346</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -51925,7 +51925,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-43.465888925838,169.75880567280072</t>
+          <t>-43.46589268837358,169.75881275990076</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -51987,7 +51987,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-43.46597477513838,169.75896737868533</t>
+          <t>-43.4659708006385,169.75895989229153</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -52049,7 +52049,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-43.4659711185985,169.75896049120297</t>
+          <t>-43.46597355629179,169.75896508285777</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -52111,7 +52111,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-43.46598749353492,169.7589913351522</t>
+          <t>-43.46598240617686,169.7589817525642</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -52173,7 +52173,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-43.46598192923701,169.75898085419666</t>
+          <t>-43.46598357202982,169.7589839485738</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -52285,7 +52285,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-43.46599973498711,169.7590143932612</t>
+          <t>-43.46599772124203,169.75901060015173</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -52347,7 +52347,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-43.46601171146856,169.7590369522861</t>
+          <t>-43.46601033364346,169.75903435699956</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -52505,7 +52505,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-43.465877850202666,169.7587848107791</t>
+          <t>-43.46587954599396,169.75878800496375</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -52563,7 +52563,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-43.46576619275992,169.7585744940842</t>
+          <t>-43.465761052375285,169.75856481174932</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -52643,7 +52643,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-43.465799843712496,169.75863787848232</t>
+          <t>-43.46580228141802,169.75864247011077</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -52785,7 +52785,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-43.46591960903865,169.75886346762834</t>
+          <t>-43.465916482427055,169.75885757834266</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -52847,7 +52847,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-43.46586174018125,169.7587544660342</t>
+          <t>-43.46586407189535,169.75875885803575</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -53047,7 +53047,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-43.46594880839743,169.7589184675971</t>
+          <t>-43.46594594675538,169.75891307739818</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -53109,7 +53109,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-43.4659145216705,169.75885388506214</t>
+          <t>-43.465916641407325,169.75885787779782</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -53171,7 +53171,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-43.465927240089435,169.75887784148068</t>
+          <t>-43.465928882884874,169.75888093585215</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -53233,7 +53233,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-43.465914256703385,169.75885338597018</t>
+          <t>-43.46591642943364,169.75885747852425</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -53283,7 +53283,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-43.465897987718776,169.75882274173327</t>
+          <t>-43.465894331170695,169.75881585426865</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -53313,7 +53313,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-43.46599491259737,169.7590053097626</t>
+          <t>-43.46599586647672,169.75900710649847</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -53375,7 +53375,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-43.46594743056983,169.75891587231607</t>
+          <t>-43.46594705961621,169.7589151735866</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -53433,7 +53433,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-43.46589708683014,169.75882104482162</t>
+          <t>-43.46589931255495,169.75882523719167</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -53495,7 +53495,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-43.46582904317363,169.75869287823053</t>
+          <t>-43.465824061779124,169.75868349532956</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -53541,7 +53541,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-43.46594440994752,169.75891018266188</t>
+          <t>-43.46594557580178,169.7589123786687</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -53603,7 +53603,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-43.46589427817724,169.75881575445032</t>
+          <t>-43.465893324295045,169.75881395772055</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -53653,7 +53653,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>-43.46590572476128,169.75883731521193</t>
+          <t>-43.4659048768663,169.7588357181182</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -53715,7 +53715,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>-43.46588283158933,169.75879419369696</t>
+          <t>-43.46588336152404,169.7587951918798</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -53777,7 +53777,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-43.46589666288256,169.75882024627498</t>
+          <t>-43.4658929003474,169.75881315917403</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -53839,7 +53839,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-43.46589025067451,169.75880816825838</t>
+          <t>-43.46588495132812,169.75879818642844</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -53901,7 +53901,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-43.46586900029053,169.75876814113101</t>
+          <t>-43.4658660326548,169.75876255131</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -53963,7 +53963,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>-43.465755276065835,169.75855393160188</t>
+          <t>-43.46575776676819,169.75855862304135</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -54017,7 +54017,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>-43.46589655689565,169.75882004663833</t>
+          <t>-43.465897245810496,169.7588213442766</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -54121,7 +54121,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-43.46592655117521,169.75887654384107</t>
+          <t>-43.46592443143901,169.75887255110405</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -54167,7 +54167,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-43.465906678643115,169.75883911194245</t>
+          <t>-43.46590848041983,169.7588425057669</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -54213,7 +54213,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>-43.46591102410444,169.75884729704882</t>
+          <t>-43.46591420370996,169.7588532861518</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -54275,7 +54275,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-43.4659471126096,169.75891527340508</t>
+          <t>-43.46594244919257,169.75890648937792</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>-43.46582284292717,169.75868119951363</t>
+          <t>-43.4658251746439,169.75868559150945</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -54379,7 +54379,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>-43.46592649818181,169.75887644402263</t>
+          <t>-43.46592305361039,169.7588699558251</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -54441,7 +54441,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>-43.465970747645166,169.75895979247295</t>
+          <t>-43.46596809797831,169.7589548015443</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -54503,7 +54503,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>-43.46599289885201,169.7590015166537</t>
+          <t>-43.46599088510653,169.75899772354506</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -54533,7 +54533,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>-43.465982777130094,169.75898245129454</t>
+          <t>-43.46598256515682,169.7589820520201</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -54595,7 +54595,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>-43.465923371570845,169.7588705547356</t>
+          <t>-43.46592586226095,169.7588752462015</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -54711,7 +54711,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-43.46576137033723,169.75856541065662</t>
+          <t>-43.46576465594398,169.75857159936535</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -54757,7 +54757,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>-43.46589613294805,169.7588192480917</t>
+          <t>-43.46589247639976,169.75881236062747</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -54865,7 +54865,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>-43.46591346180204,169.75885188869438</t>
+          <t>-43.46591510459814,169.75885498306442</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -54903,7 +54903,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-43.46589189347173,169.75881126262604</t>
+          <t>-43.46588839590338,169.75880467461772</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -54991,7 +54991,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>-43.465816165737394,169.75866862243657</t>
+          <t>-43.46581611274382,169.7586685226185</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -55053,7 +55053,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>-43.46587207391297,169.7587739305891</t>
+          <t>-43.46587313378271,169.7587759269541</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -55111,7 +55111,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-43.465775042698695,169.75859116367488</t>
+          <t>-43.46577880524683,169.75859825074787</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -55161,7 +55161,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>-43.465839853857084,169.75871324112737</t>
+          <t>-43.46583646227048,169.75870685276678</t>
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -55191,7 +55191,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>-43.46583566736732,169.75870535549487</t>
+          <t>-43.46583185183191,169.75869816859029</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -55253,7 +55253,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>-43.46578680728442,169.75861332325817</t>
+          <t>-43.46578187887739,169.75860404018846</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -55283,7 +55283,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>-43.46588108280475,169.7587908996937</t>
+          <t>-43.46587843313094,169.75878590878006</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -55345,7 +55345,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>-43.46582702941849,169.75868908514272</t>
+          <t>-43.46582936113495,169.75869347713916</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -55399,7 +55399,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>-43.46593794475506,169.75889800480752</t>
+          <t>-43.46593826271538,169.75889860371834</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -55461,7 +55461,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>-43.465907685518346,169.7588410084914</t>
+          <t>-43.46590736755775,169.75884040958118</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -55623,7 +55623,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>-43.465960625916686,169.7589407271279</t>
+          <t>-43.46595564454136,169.7589313441856</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -55685,7 +55685,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>-43.466062108032546,169.7591318799634</t>
+          <t>-43.4660589284408,169.75912589083075</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -55805,7 +55805,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>-43.465885057315056,169.75879838606502</t>
+          <t>-43.46588881985107,169.75880547316413</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -55897,7 +55897,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>-43.46597668289816,169.7589709721547</t>
+          <t>-43.46597874963779,169.75897486508012</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -55959,7 +55959,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>-43.4659812933172,169.75897965637333</t>
+          <t>-43.46597880263113,169.75897496489873</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -56021,7 +56021,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>-43.46591436269023,169.75885358560694</t>
+          <t>-43.46591722433491,169.75885897580022</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -56083,7 +56083,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>-43.4659927398721,169.75900121719775</t>
+          <t>-43.46599173299937,169.75899932064343</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -56145,7 +56145,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>-43.465946317709,169.75891377612763</t>
+          <t>-43.46594642369574,169.7589139757646</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -56207,7 +56207,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>-43.465910812130744,169.75884689777533</t>
+          <t>-43.465909275321295,169.75884400304244</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -56299,7 +56299,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>-43.46601033364346,169.75903435699956</t>
+          <t>-43.46601001568383,169.75903375808733</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -56361,7 +56361,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>-43.46598569176236,169.75898794131876</t>
+          <t>-43.46598547978912,169.75898754204425</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -56423,7 +56423,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>-43.465939534556604,169.75890099936163</t>
+          <t>-43.46593672590718,169.75889570898283</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -56453,7 +56453,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>-43.4659858507423,169.75898824077464</t>
+          <t>-43.465983148083296,169.75898315002485</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -56541,7 +56541,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>-43.465892741367036,169.7588128597191</t>
+          <t>-43.46588765399488,169.7588032771615</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -56603,7 +56603,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>-43.465958135229094,169.75893603565655</t>
+          <t>-43.46595294187997,169.75892625344096</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -56665,7 +56665,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>-43.46589814669912,169.7588230411883</t>
+          <t>-43.46590031943039,169.75882713374014</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -56727,7 +56727,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>-43.46588187770684,169.7587923969679</t>
+          <t>-43.46587822115702,169.75878550950696</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -56815,7 +56815,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>-43.465842026592064,169.75871733367126</t>
+          <t>-43.46583895296692,169.758711544219</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -56907,7 +56907,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>-43.46584033079892,169.75871413949062</t>
+          <t>-43.465842609520934,169.75871843167087</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -56969,7 +56969,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>-43.46594011748381,169.75890209736485</t>
+          <t>-43.465944038993904,169.75890948393248</t>
         </is>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -57015,7 +57015,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>-43.46579306053102,169.758625101779</t>
+          <t>-43.46579571021144,169.7586300926784</t>
         </is>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -57095,7 +57095,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>-43.46592183476197,169.75886766000156</t>
+          <t>-43.465916853380996,169.75885827707143</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -57157,7 +57157,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>-43.4659679389983,169.75895450208859</t>
+          <t>-43.465969846758455,169.75895809555715</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -57211,7 +57211,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>-43.46593603699313,169.7588944113428</t>
+          <t>-43.4659385276823,169.7588991028107</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -57273,7 +57273,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>-43.46596269265729,169.75894462005124</t>
+          <t>-43.46596157979698,169.75894252386172</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -57335,7 +57335,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>-43.465967568044924,169.7589538033586</t>
+          <t>-43.465967409064895,169.75895350390292</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -57397,7 +57397,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>-43.46603433958797,169.7590795748932</t>
+          <t>-43.466034180608276,169.75907927543685</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -57459,7 +57459,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>-43.46594944431787,169.75891966541917</t>
+          <t>-43.46595156405251,169.75892365815955</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -57513,7 +57513,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>-43.46588320254362,169.75879489242496</t>
+          <t>-43.46588601119747,169.7588001827943</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -57575,7 +57575,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>-43.465925067359876,169.75887374892514</t>
+          <t>-43.465921251834445,169.75886656199899</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -57693,7 +57693,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>-43.46597090662517,169.75896009192869</t>
+          <t>-43.46596693212482,169.75895260553582</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -57785,7 +57785,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>-43.46601091656947,169.7590354550054</t>
+          <t>-43.46600869085195,169.75903126261966</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -57847,7 +57847,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>-43.46606369782831,169.75913487452996</t>
+          <t>-43.46606232000533,169.75913227923894</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -57885,7 +57885,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>-43.46594716560296,169.75891537322357</t>
+          <t>-43.46594478090116,169.75891088139133</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -57947,7 +57947,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>-43.46594202524553,169.75890569083006</t>
+          <t>-43.46594340307337,169.75890828611065</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -58047,7 +58047,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>-43.46592655117521,169.75887654384107</t>
+          <t>-43.46592522634011,169.7588740483804</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -58109,7 +58109,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>-43.46601849460662,169.75904972908296</t>
+          <t>-43.466017964674016,169.75904873089559</t>
         </is>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -58189,7 +58189,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>-43.465914044729686,169.75885298669664</t>
+          <t>-43.4659163234468,169.7588572788875</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -58243,7 +58243,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>-43.46589099258295,169.75880956571473</t>
+          <t>-43.46588585221708,169.7587998833394</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -58335,7 +58335,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>-43.465887071066774,169.7588021791602</t>
+          <t>-43.46588956175954,169.7588068706204</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -58455,7 +58455,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>-43.46585707675257,169.75874568203213</t>
+          <t>-43.465854480070426,169.7587407909407</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -58577,7 +58577,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>-43.46585172440753,169.7587356003951</t>
+          <t>-43.46584955167315,169.7587315078499</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -58635,7 +58635,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>-43.465883096556695,169.7587946927884</t>
+          <t>-43.46588373247833,169.75879589060781</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -58723,7 +58723,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>-43.46585972642803,169.75875067294223</t>
+          <t>-43.465857129746084,169.75874578185034</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -58785,7 +58785,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>-43.46589994847628,169.75882643501174</t>
+          <t>-43.465903975977845,169.75883402120616</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -58877,7 +58877,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>-43.46588049987652,169.75878980169267</t>
+          <t>-43.465883838465274,169.7587960902444</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -58939,7 +58939,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>-43.46589973650251,169.7588260357384</t>
+          <t>-43.46590122031894,169.75882883065196</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -59135,7 +59135,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>-43.46590848041983,169.7588425057669</t>
+          <t>-43.4659048768663,169.7588357181182</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -59223,7 +59223,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>-43.46588034089609,169.75878950223785</t>
+          <t>-43.46588330853057,169.75879509206152</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -59343,7 +59343,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>-43.46601192344164,169.75903735156095</t>
+          <t>-43.466009591737624,169.75903295953768</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -59401,7 +59401,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>-43.4659062017022,169.75883821357718</t>
+          <t>-43.46590858640669,169.75884270540365</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -59463,7 +59463,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>-43.46578092499206,169.75860224346545</t>
+          <t>-43.465777003463266,169.75859485693815</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -59505,7 +59505,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>-43.465962003743776,169.7589433224101</t>
+          <t>-43.46596332857746,169.75894581787384</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -59551,7 +59551,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>-43.46590699660371,169.75883971085264</t>
+          <t>-43.46590530081379,169.75883651666504</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -59613,7 +59613,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>-43.46594557580178,169.7589123786687</t>
+          <t>-43.46594509886141,169.7589114803023</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -59713,7 +59713,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>-43.46595500862105,169.7589301463633</t>
+          <t>-43.46595151105914,169.75892355834105</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
@@ -59803,7 +59803,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>-43.465920191966205,169.7588645656308</t>
+          <t>-43.46592241768948,169.75886875800413</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -59865,7 +59865,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>-43.46588728304064,169.7588025784334</t>
+          <t>-43.46588240764156,169.7587933951507</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -59927,7 +59927,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>-43.46586990117989,169.75876983804108</t>
+          <t>-43.46587207391297,169.7587739305891</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -59989,7 +59989,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>-43.46586396590835,169.7587586583993</t>
+          <t>-43.465860309356614,169.7587517709425</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -60051,7 +60051,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>-43.465910229203025,169.75884579977318</t>
+          <t>-43.46591287887437,169.75885079069215</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -60105,7 +60105,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>-43.4658179675189,169.75867201625076</t>
+          <t>-43.46581584777595,169.75866802352823</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -60159,7 +60159,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>-43.465904293938486,169.7588346201163</t>
+          <t>-43.46590143229271,169.75882922992534</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -60221,7 +60221,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>-43.465935507059235,169.7588934131582</t>
+          <t>-43.46593699087411,169.75889620807513</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -60313,7 +60313,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>-43.46589120455679,169.75880996498796</t>
+          <t>-43.465893324295045,169.75881395772055</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -60371,7 +60371,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>-43.465930207719865,169.75888343131314</t>
+          <t>-43.46593338732358,169.75888942041996</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -60433,7 +60433,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>-43.46584525919753,169.75872342257853</t>
+          <t>-43.46584605410046,169.75872491985095</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -60479,7 +60479,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>-43.46586412488885,169.75875895785396</t>
+          <t>-43.46586560870682,169.7587617527642</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -60541,7 +60541,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>-43.46596550130461,169.75894991043467</t>
+          <t>-43.46596502436451,169.75894901206763</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -60599,7 +60599,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>-43.465984737882735,169.7589861445835</t>
+          <t>-43.46598309508999,169.75898305020624</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -60661,7 +60661,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>-43.465848120848,169.7587288127593</t>
+          <t>-43.465847643906265,169.75872791439582</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -60723,7 +60723,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>-43.465845577158696,169.7587240214875</t>
+          <t>-43.46584176162438,169.75871683458053</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -60785,7 +60785,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>-43.4658233728628,169.75868219769444</t>
+          <t>-43.46582681744426,169.75868868587034</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -60843,7 +60843,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>-43.46587233888041,169.75877442968033</t>
+          <t>-43.46586894729704,169.7587680413128</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -60897,7 +60897,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>-43.46581902739032,169.7586740126121</t>
+          <t>-43.4658177555446,169.75867161697846</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -60959,7 +60959,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>-43.4658785391179,169.7587861084166</t>
+          <t>-43.4658807648439,169.75879030078406</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -61021,7 +61021,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>-43.465867516472706,169.75876534622046</t>
+          <t>-43.46586672157026,169.75876384894698</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -61083,7 +61083,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>-43.4659027041353,169.7588316255657</t>
+          <t>-43.46590355203034,169.75883322265932</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -61145,7 +61145,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>-43.46593068466043,169.75888432967912</t>
+          <t>-43.46593015472646,169.7588833314947</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -61207,7 +61207,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>-43.46593031370665,169.75888363095004</t>
+          <t>-43.46592845893768,169.75888013730466</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -61303,7 +61303,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>-43.46592612722798,169.75887574529366</t>
+          <t>-43.46592570328073,169.75887494674623</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -61365,7 +61365,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>-43.465894702124864,169.7588165529969</t>
+          <t>-43.46589533804628,169.7588177508168</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -61415,7 +61415,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>-43.46584695499043,169.75872661675967</t>
+          <t>-43.46584531219106,169.7587235223967</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -61477,7 +61477,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>-43.465871279010635,169.7587724333154</t>
+          <t>-43.465873875691514,169.7587773244096</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -61539,7 +61539,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>-43.46589062162873,169.75880886698656</t>
+          <t>-43.465887812975275,169.7588035766164</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -61601,7 +61601,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>-43.46591568752575,169.75885608106674</t>
+          <t>-43.465916853380996,169.75885827707143</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -61663,7 +61663,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>-43.46592040393984,169.75886496490446</t>
+          <t>-43.46591574051918,169.75885618088512</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -61725,7 +61725,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>-43.465925544300525,169.75887464729095</t>
+          <t>-43.46592798199707,169.75887923893873</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -61787,7 +61787,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>-43.465937679788134,169.75889750571517</t>
+          <t>-43.46594001149706,169.7589018977279</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -61891,7 +61891,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>-43.465918867130824,169.75886207017064</t>
+          <t>-43.46591457466391,169.75885398488055</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -61953,7 +61953,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>-43.465917648282264,169.7588597743474</t>
+          <t>-43.46592082788714,169.75886576345172</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -62053,7 +62053,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>-43.46593900462276,169.7589000011769</t>
+          <t>-43.465941283338196,169.75890429337133</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -62173,7 +62173,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>-43.46598394298302,169.75898464730417</t>
+          <t>-43.46598002147753,169.75897726072665</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -62235,7 +62235,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>-43.46598431393622,169.7589853460345</t>
+          <t>-43.465981876243696,169.75898075437806</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -62297,7 +62297,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>-43.465948172477006,169.75891726977508</t>
+          <t>-43.4659442509674,169.75890988320643</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -62359,7 +62359,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>-43.46593338732358,169.75888942041996</t>
+          <t>-43.465931108607606,169.75888512822667</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -62421,7 +62421,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>-43.46592872390469,169.75888063639684</t>
+          <t>-43.46592935982547,169.7588818342181</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -62483,7 +62483,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>-43.46591976801889,169.75886376708354</t>
+          <t>-43.46591929107816,169.75886286871787</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -62545,7 +62545,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>-43.46594032945735,169.75890249663874</t>
+          <t>-43.46594345606676,169.75890838592912</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -62633,7 +62633,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>-43.46587414065895,169.75877782350088</t>
+          <t>-43.46587021914084,169.75877043695053</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -62695,7 +62695,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>-43.46593820972198,169.75889850389987</t>
+          <t>-43.46593375827732,169.75889011914913</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -62749,7 +62749,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>-43.46574610815985,169.75853666311522</t>
+          <t>-43.465749499755404,169.7585430514565</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -62811,7 +62811,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>-43.46579125874821,169.75862170796765</t>
+          <t>-43.465793643460735,169.7586261997768</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -62873,7 +62873,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>-43.46582872521229,169.7586922793219</t>
+          <t>-43.46582740037339,169.75868978386941</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -62935,7 +62935,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>-43.46579602817309,169.75863069158632</t>
+          <t>-43.46579417339684,169.75862719795668</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -63031,7 +63031,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>-43.46584637206162,169.7587255187599</t>
+          <t>-43.46584186761145,169.7587170342168</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -63093,7 +63093,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>-43.46584123168903,169.75871583639903</t>
+          <t>-43.465836250296306,169.75870645349428</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -63155,7 +63155,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>-43.465903446043455,169.75883302302262</t>
+          <t>-43.4659063606825,169.75883851303226</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -63217,7 +63217,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>-43.465922947623575,169.7588697561883</t>
+          <t>-43.46591892012425,169.75886216998904</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -63279,7 +63279,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>-43.465936566927006,169.75889540952744</t>
+          <t>-43.46593773278151,169.75889760553366</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -63341,7 +63341,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>-43.46590169725992,169.7588297290171</t>
+          <t>-43.465901856240244,169.75883002847212</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -63403,7 +63403,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>-43.465854480070426,169.7587407909407</t>
+          <t>-43.465852307336235,169.7587366983951</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -63465,7 +63465,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>-43.46591181900585,169.7588487943245</t>
+          <t>-43.4659112890716,169.7588477961407</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -63561,7 +63561,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>-43.465883520504455,169.75879549133467</t>
+          <t>-43.46588240764156,169.7587933951507</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -63599,7 +63599,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>-43.46588458037385,169.75879748770043</t>
+          <t>-43.4658807648439,169.75879030078406</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -63661,7 +63661,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>-43.465768100531356,169.75857808752846</t>
+          <t>-43.46576417900108,169.75857070100434</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -63723,7 +63723,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>-43.465782090851896,169.7586044394602</t>
+          <t>-43.465777427412355,169.7585956554816</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -63785,7 +63785,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>-43.46586237610329,169.75875566385275</t>
+          <t>-43.46586486679784,169.75876035530905</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -63847,7 +63847,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>-43.46584600110692,169.75872482003277</t>
+          <t>-43.46584356340454,169.75872022839758</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -63909,7 +63909,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>-43.46574160369648,169.75852817860064</t>
+          <t>-43.4657434054819,169.75853157240633</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
@@ -63935,7 +63935,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>-43.465879704974384,169.75878830441857</t>
+          <t>-43.46588251362851,169.75879359478728</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -63985,7 +63985,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>-43.46588553425627,169.75879928442967</t>
+          <t>-43.465881771719886,169.75879219733133</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -64047,7 +64047,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>-43.465863382979826,169.75875756039886</t>
+          <t>-43.46586200514877,169.75875496512526</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -64109,7 +64109,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>-43.465887177053716,169.75880237879682</t>
+          <t>-43.46588553425627,169.75879928442967</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -64171,7 +64171,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>-43.46591086512416,169.75884699759368</t>
+          <t>-43.4659105471636,169.75884639868343</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -64233,7 +64233,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>-43.465868576342594,169.75876734258514</t>
+          <t>-43.46587106703668,169.7587720340424</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
@@ -64271,7 +64271,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>-43.46591091811759,169.75884709741206</t>
+          <t>-43.46591155403872,169.7588482952326</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -64333,7 +64333,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>-43.465858825538405,169.75874897603276</t>
+          <t>-43.465857235733104,169.75874598148673</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -64395,7 +64395,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>-43.46592490837967,169.75887344946986</t>
+          <t>-43.46592602124116,169.7588755456568</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -64457,7 +64457,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>-43.46585426809636,169.75874039166794</t>
+          <t>-43.465856917772044,169.75874538257756</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -64519,7 +64519,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>-43.465958135229094,169.75893603565655</t>
+          <t>-43.46595585651479,169.75893174345973</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -64581,7 +64581,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>-43.465976947864796,169.75897147124766</t>
+          <t>-43.46597376826512,169.7589654821321</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -64643,7 +64643,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>-43.46590503584661,169.7588360175733</t>
+          <t>-43.465908692393555,169.75884290504038</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -64689,7 +64689,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>-43.46596497137117,169.75894891224905</t>
+          <t>-43.46596709110486,169.75895290499153</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -64785,7 +64785,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>-43.46593216847552,169.75888712459562</t>
+          <t>-43.465934606171594,169.75889171624442</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -64847,7 +64847,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>-43.46590943430158,169.75884430249758</t>
+          <t>-43.46591044117674,169.75884619904667</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -64897,7 +64897,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>-43.46591330282176,169.7588515892392</t>
+          <t>-43.465915422558645,169.75885558197476</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -64959,7 +64959,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>-43.465849498679624,169.75873140803174</t>
+          <t>-43.465851830394556,169.75873580003147</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -65021,7 +65021,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>-43.46595219997289,169.75892485598175</t>
+          <t>-43.46594970928469,169.7589201645117</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -65071,7 +65071,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>-43.46586963621243,169.7587693389499</t>
+          <t>-43.46586979519291,169.75876963840463</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -65195,7 +65195,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>-43.4658742996394,169.75877812295565</t>
+          <t>-43.465873928685,169.75877742422784</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -65257,7 +65257,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>-43.46589735179739,169.75882154391326</t>
+          <t>-43.465898464659794,169.75882364009829</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -65311,7 +65311,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>-43.46578617136095,169.75861212544262</t>
+          <t>-43.465789350978085,169.75861811452057</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -65369,7 +65369,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>-43.46582782432184,169.7586905824142</t>
+          <t>-43.465823902798434,169.7586831958753</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -65431,7 +65431,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>-43.46588972073992,169.75880717007533</t>
+          <t>-43.46588574623014,169.75879968370282</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -65493,7 +65493,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>-43.46587541250255,169.75878021913903</t>
+          <t>-43.46587074907575,169.75877143513296</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -65555,7 +65555,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>-43.46583964188293,169.75871284185482</t>
+          <t>-43.46584229155973,169.758717832762</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -65617,7 +65617,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>-43.46592056292008,169.75886526435968</t>
+          <t>-43.46592321259062,169.75887025528036</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -65679,7 +65679,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>-43.46594388001376,169.758909184477</t>
+          <t>-43.465945999748755,169.75891317721667</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -65741,7 +65741,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>-43.46588198369378,169.75879259660445</t>
+          <t>-43.465878062176586,169.7587852100522</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -65803,7 +65803,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>-43.46591706535465,169.75885867634503</t>
+          <t>-43.46591754229542,169.7588595747106</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -65861,7 +65861,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>-43.46587912204615,169.75878720641757</t>
+          <t>-43.465879440007015,169.7587878053272</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -65923,7 +65923,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>-43.465862429096795,169.758755763671</t>
+          <t>-43.46586057432414,169.75875227003354</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -65985,7 +65985,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>-43.4658958679808,169.75881874900006</t>
+          <t>-43.46589692784979,169.75882074536662</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -66047,7 +66047,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>-43.46588420941957,169.75879678897238</t>
+          <t>-43.46588071185042,169.75879020096576</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -66139,7 +66139,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>-43.465972814385175,169.75896368539756</t>
+          <t>-43.46597482813171,169.7589674785039</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -66201,7 +66201,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>-43.465944886887904,169.75891108102832</t>
+          <t>-43.4659476425433,169.75891627159007</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -66263,7 +66263,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>-43.46584017181831,169.7587138400362</t>
+          <t>-43.465836038322124,169.75870605422176</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -66325,7 +66325,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>-43.46587260384785,169.75877492877157</t>
+          <t>-43.465870272134325,169.75877053676876</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -66387,7 +66387,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>-43.46587445861985,169.7587784224104</t>
+          <t>-43.465875571483,169.7587805185938</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -66449,7 +66449,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>-43.46610593337531,169.75921443023992</t>
+          <t>-43.46610201188382,169.75920704363224</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -66503,7 +66503,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>-43.46600487533585,169.75902407567344</t>
+          <t>-43.46600307356422,169.75902068183802</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -66565,7 +66565,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>-43.46591733032175,169.758859175437</t>
+          <t>-43.46591727732832,169.75885907561863</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -66677,7 +66677,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>-43.46595114010559,169.75892285961146</t>
+          <t>-43.46594902037092,169.75891886687114</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -66739,7 +66739,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>-43.465887706988354,169.75880337697978</t>
+          <t>-43.46589072761565,169.75880906662317</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -66801,7 +66801,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>-43.46587747924831,169.75878411205125</t>
+          <t>-43.465879704974384,169.75878830441857</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -66863,7 +66863,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>-43.465970482678486,169.75895929338003</t>
+          <t>-43.46596815097165,169.75895490136284</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -66925,7 +66925,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>-43.466026708561095,169.75906520098928</t>
+          <t>-43.46602914625042,169.75906979265267</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -66987,7 +66987,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>-43.46597159553851,169.7589613895702</t>
+          <t>-43.465967568044924,169.7589538033586</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -67049,7 +67049,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>-43.46598230019024,169.75898155292697</t>
+          <t>-43.4659804984174,169.75897815909414</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -67111,7 +67111,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>-43.465999364034076,169.7590136945305</t>
+          <t>-43.465998198181666,169.75901149851975</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -67173,7 +67173,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>-43.466001907711934,169.759018485827</t>
+          <t>-43.46600169573878,169.75901808655226</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -67235,7 +67235,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>-43.46600673010068,169.75902756932774</t>
+          <t>-43.46600397445004,169.7590223787557</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -67297,7 +67297,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>-43.46596762103826,169.75895390317717</t>
+          <t>-43.46596412347765,169.75894731515217</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -67359,7 +67359,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>-43.46594197225215,169.75890559101157</t>
+          <t>-43.465942502185946,169.7589065891964</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -67421,7 +67421,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>-43.465952040992796,169.75892455652618</t>
+          <t>-43.465947324583084,169.75891567267908</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -67483,7 +67483,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>-43.465937467814584,169.7588971064413</t>
+          <t>-43.46593185051515,169.75888652568491</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -67545,7 +67545,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>-43.46589708683014,169.75882104482162</t>
+          <t>-43.46589957752217,169.75882573628337</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -67607,7 +67607,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>-43.465890038700664,169.75880776898515</t>
+          <t>-43.46588574623014,169.75879968370282</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -67669,7 +67669,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>-43.46593979952352,169.758901498454</t>
+          <t>-43.46594096537792,169.75890369446046</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -67731,7 +67731,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>-43.4658811887917,169.75879109933027</t>
+          <t>-43.46587822115702,169.75878550950696</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -67793,7 +67793,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>-43.46596157979698,169.75894252386172</t>
+          <t>-43.46596014897652,169.75893982876102</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -67855,7 +67855,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>-43.46591181900585,169.7588487943245</t>
+          <t>-43.46591245492696,169.7588499921451</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -67955,7 +67955,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>-43.46588468636078,169.758797687337</t>
+          <t>-43.46588638215173,169.75880088152235</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -68009,7 +68009,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>-43.46581044243085,169.75865784208708</t>
+          <t>-43.465811714276825,169.7586602377201</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -68063,7 +68063,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>-43.46576502689956,169.75857229809057</t>
+          <t>-43.46576804753771,169.75857798771057</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -68117,7 +68117,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>-43.46576333110259,169.7585691039182</t>
+          <t>-43.46575988651473,169.75856261575612</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -68179,7 +68179,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>-43.46577822231685,169.75859715275058</t>
+          <t>-43.46577419480047,169.7585895665881</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -68241,7 +68241,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>-43.465777374418714,169.75859555566367</t>
+          <t>-43.46577975913219,169.75860004747074</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -68299,7 +68299,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>-43.4658326997287,169.75869976568012</t>
+          <t>-43.465828407250974,169.7586916804133</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -68361,7 +68361,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>-43.46576439097571,169.75857110027593</t>
+          <t>-43.46576190027384,169.75856640883538</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -68419,7 +68419,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>-43.46587477658075,169.75877902131992</t>
+          <t>-43.46587694931351,169.75878311386862</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -68469,7 +68469,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>-43.465897722751535,169.75882224264163</t>
+          <t>-43.4658992595615,169.75882513737332</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -68531,7 +68531,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>-43.46590132630582,169.75882903028867</t>
+          <t>-43.46590386999098,169.75883382156945</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -68589,7 +68589,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>-43.46596210973047,169.7589435220472</t>
+          <t>-43.46595792325569,169.7589356363824</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -68651,7 +68651,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>-43.46587482957423,169.7587791211382</t>
+          <t>-43.46587260384785,169.75877492877157</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -68713,7 +68713,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>-43.46601155248875,169.75903665282993</t>
+          <t>-43.46601192344164,169.75903735156095</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -68775,7 +68775,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>-43.46599088510653,169.75899772354506</t>
+          <t>-43.46598993122705,169.75899592680952</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -68837,7 +68837,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>-43.46605574884876,169.75911990169877</t>
+          <t>-43.466056755719606,169.75912179825715</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -68899,7 +68899,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>-43.46603089502744,169.75907308667226</t>
+          <t>-43.46603370366913,169.75907837706777</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -68961,7 +68961,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>-43.46600068886631,169.7590161899974</t>
+          <t>-43.46599735028897,169.75900990142105</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -69023,7 +69023,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>-43.465951087112224,169.75892275979294</t>
+          <t>-43.46594705961621,169.7589151735866</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -69081,7 +69081,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>-43.46594160129849,169.7589048922822</t>
+          <t>-43.465944038993904,169.75890948393248</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -69143,7 +69143,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>-43.46592082788714,169.75886576345172</t>
+          <t>-43.46592347755766,169.75887075437248</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -69205,7 +69205,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>-43.46601891855271,169.75905052763287</t>
+          <t>-43.466015473990616,169.75904403941524</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -69267,7 +69267,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>-43.46592443143901,169.75887255110405</t>
+          <t>-43.46592580926755,169.75887514638308</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -69329,7 +69329,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>-43.46595760529556,169.75893503747122</t>
+          <t>-43.46595781726898,169.75893543674533</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -69391,7 +69391,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>-43.46594642369574,169.7589139757646</t>
+          <t>-43.465944939881275,169.75891118084678</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -69453,7 +69453,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>-43.46596942281177,169.75895729700858</t>
+          <t>-43.465969475805096,169.75895739682713</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -69515,7 +69515,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>-43.46596936981843,169.75895719719</t>
+          <t>-43.465967568044924,169.7589538033586</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -69577,7 +69577,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>-43.46591817821642,169.75886077253142</t>
+          <t>-43.46591505160472,169.75885488324604</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -69639,7 +69639,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>-43.465889084818386,169.75880597225566</t>
+          <t>-43.465884633367324,169.7587975875187</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -69701,7 +69701,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>-43.46590016045006,169.75882683428512</t>
+          <t>-43.465903075089386,169.75883232429416</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -69759,7 +69759,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>-43.46589735179739,169.75882154391326</t>
+          <t>-43.46589957752217,169.75882573628337</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -69821,7 +69821,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>-43.46586078629816,169.75875266930638</t>
+          <t>-43.46585845458384,169.75874827730533</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -69883,7 +69883,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>-43.46587403467197,169.75877762386438</t>
+          <t>-43.46587308078922,169.75877582713582</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -69945,7 +69945,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>-43.46585871955139,169.75874877639635</t>
+          <t>-43.46585983241504,169.75875087257864</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -70003,7 +70003,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>-43.465863065018816,169.75875696148958</t>
+          <t>-43.465863647947344,169.75875805949</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -70057,7 +70057,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>-43.46590720857745,169.7588401101261</t>
+          <t>-43.465909381308165,169.7588442026792</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -70119,7 +70119,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>-43.46591017620959,169.7588456999548</t>
+          <t>-43.46591287887437,169.75885079069215</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -70181,7 +70181,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>-43.465784634545905,169.75860923072187</t>
+          <t>-43.465780289068505,169.75860104565012</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -70243,7 +70243,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>-43.46587869809832,169.7587864078714</t>
+          <t>-43.4658811887917,169.75879109933027</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -70305,7 +70305,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>-43.46584753791922,169.7587277147595</t>
+          <t>-43.46585018759542,169.758732705668</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -70367,7 +70367,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>-43.465861210246196,169.75875346785207</t>
+          <t>-43.46585755369418,169.75874658039592</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -70429,7 +70429,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>-43.465900796371386,169.75882803210524</t>
+          <t>-43.46589666288256,169.75882024627498</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -70491,7 +70491,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>-43.465975729018304,169.75896917541996</t>
+          <t>-43.46597180751185,169.75896178884452</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -70553,7 +70553,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>-43.465942502185946,169.7589065891964</t>
+          <t>-43.46594266116608,169.75890688865184</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -70615,7 +70615,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>-43.465881029811264,169.75879079987544</t>
+          <t>-43.46588081783738,169.75879040060235</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -70677,7 +70677,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>-43.46590678462998,169.75883931157918</t>
+          <t>-43.465909275321295,169.75884400304244</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -70739,7 +70739,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>-43.46596195075042,169.75894322259154</t>
+          <t>-43.465958347202516,169.7589364349307</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
